--- a/Project/Retinue/Revenue Cost Model.xlsx
+++ b/Project/Retinue/Revenue Cost Model.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Product Definition" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="79">
   <si>
     <t>Software Modules</t>
   </si>
@@ -170,33 +170,12 @@
     <t>Expense</t>
   </si>
   <si>
-    <t>Income</t>
-  </si>
-  <si>
-    <t>Support</t>
-  </si>
-  <si>
-    <t>Jr</t>
-  </si>
-  <si>
-    <t>Middle</t>
-  </si>
-  <si>
-    <t>Support + Account</t>
-  </si>
-  <si>
     <t>Misc</t>
   </si>
   <si>
     <t>Transport</t>
   </si>
   <si>
-    <t>Trainy</t>
-  </si>
-  <si>
-    <t>Development</t>
-  </si>
-  <si>
     <t>Bronze</t>
   </si>
   <si>
@@ -221,19 +200,61 @@
     <t>Sales Bonus (5000 for every 5)</t>
   </si>
   <si>
-    <t>Employee Bonus (1% of sales)</t>
-  </si>
-  <si>
     <t>Software Subscription</t>
   </si>
   <si>
-    <t>Set Up Cost</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
-    <t>Sales Commision</t>
+    <t>Development Trainy</t>
+  </si>
+  <si>
+    <t>Jr Support Engineer</t>
+  </si>
+  <si>
+    <t>Middle Support Engineer</t>
+  </si>
+  <si>
+    <t>Finance and Audit</t>
+  </si>
+  <si>
+    <t>Sales Executive</t>
+  </si>
+  <si>
+    <t>Assumption of basic pack sale</t>
+  </si>
+  <si>
+    <t>Monthly 1000, end in March</t>
+  </si>
+  <si>
+    <t>Monthly 500, end in March</t>
+  </si>
+  <si>
+    <t>Rate</t>
+  </si>
+  <si>
+    <t>Salary</t>
+  </si>
+  <si>
+    <t>Total Revenue</t>
+  </si>
+  <si>
+    <t>Total Expense</t>
+  </si>
+  <si>
+    <t>Profit before tax</t>
+  </si>
+  <si>
+    <t>Profit befor tax</t>
+  </si>
+  <si>
+    <t>Profit after tax</t>
+  </si>
+  <si>
+    <t>Calculation is on base product</t>
+  </si>
+  <si>
+    <t>Employee Bonus (5% of sales)</t>
+  </si>
+  <si>
+    <t>50000 per employee</t>
   </si>
 </sst>
 </file>
@@ -261,7 +282,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -318,12 +339,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -349,17 +394,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -773,32 +807,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -850,11 +858,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -862,98 +925,60 @@
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -968,49 +993,232 @@
     <xf numFmtId="165" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="1" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="1" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="12" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1044,226 +1252,221 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Software - Profit'!$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Profit after tax</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Software - Profit'!$B$17:$M$17</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>42461</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42491</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42522</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42552</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42583</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42614</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42644</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42675</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42705</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42736</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42767</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42795</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Software - Profit'!$B$19:$M$19</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"_-;_-@_-</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>53250</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>108000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>59250</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>78750</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>154500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>188250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>160500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>180000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>201000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21750</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>160500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>134250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cost - Benifit'!$A$19</c:f>
+              <c:f>'Software - Profit'!$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Revenue</c:v>
+                  <c:v>Profit befor tax</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Cost - Benifit'!$B$18:$M$18</c:f>
+              <c:f>'Software - Profit'!$B$17:$M$17</c:f>
               <c:numCache>
                 <c:formatCode>mmm\-yy</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>41091</c:v>
+                  <c:v>42461</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41122</c:v>
+                  <c:v>42491</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41153</c:v>
+                  <c:v>42522</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41183</c:v>
+                  <c:v>42552</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41214</c:v>
+                  <c:v>42583</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41244</c:v>
+                  <c:v>42614</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41275</c:v>
+                  <c:v>42644</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41306</c:v>
+                  <c:v>42675</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41334</c:v>
+                  <c:v>42705</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41365</c:v>
+                  <c:v>42736</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41395</c:v>
+                  <c:v>42767</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41426</c:v>
+                  <c:v>42795</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cost - Benifit'!$B$19:$M$19</c:f>
+              <c:f>'Software - Profit'!$B$18:$M$18</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"_-;_-@_-</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>76000</c:v>
+                  <c:v>71000</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>144000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>220000</c:v>
+                  <c:v>79000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>210000</c:v>
+                  <c:v>105000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>310000</c:v>
+                  <c:v>206000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>352000</c:v>
+                  <c:v>251000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>460000</c:v>
+                  <c:v>214000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>440000</c:v>
+                  <c:v>240000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>514000</c:v>
+                  <c:v>268000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>866000</c:v>
+                  <c:v>29000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>880000</c:v>
+                  <c:v>214000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>850000</c:v>
+                  <c:v>179000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Cost - Benifit'!$A$20</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Cost</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Cost - Benifit'!$B$18:$M$18</c:f>
-              <c:numCache>
-                <c:formatCode>mmm\-yy</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>41091</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>41122</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>41153</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>41183</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>41214</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>41244</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>41275</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>41306</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>41334</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>41365</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>41395</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>41426</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Cost - Benifit'!$B$20:$M$20</c:f>
-              <c:numCache>
-                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"_-;_-@_-</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>18000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>26000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>66000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>71000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>238000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>146000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>285000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>235000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>284000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>539000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>343000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>343000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="1"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1273,13 +1476,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="104493824"/>
-        <c:axId val="104495360"/>
-      </c:lineChart>
+        <c:gapWidth val="150"/>
+        <c:axId val="96947584"/>
+        <c:axId val="96957568"/>
+      </c:barChart>
       <c:dateAx>
-        <c:axId val="104493824"/>
+        <c:axId val="96947584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1290,14 +1492,14 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104495360"/>
+        <c:crossAx val="96957568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="104495360"/>
+        <c:axId val="96957568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1320,19 +1522,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104493824"/>
+        <c:crossAx val="96947584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -1382,139 +1586,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Cumulative!$A$20</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Revenue</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Cumulative!$B$19:$M$19</c:f>
-              <c:numCache>
-                <c:formatCode>mmm\-yy</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>41091</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>41122</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>41153</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>41183</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>41214</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>41244</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>41275</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>41306</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>41334</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>41365</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>41395</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>41426</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Cumulative!$B$20:$M$20</c:f>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Cumulative!$A$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Cost</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Cumulative!$B$19:$M$19</c:f>
-              <c:numCache>
-                <c:formatCode>mmm\-yy</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>41091</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>41122</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>41153</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>41183</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>41214</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>41244</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>41275</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>41306</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>41334</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>41365</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>41395</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>41426</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Cumulative!$B$21:$M$21</c:f>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Cumulative!$A$22</c:f>
+              <c:f>'Cost - Benifit'!$A$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1528,90 +1600,90 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Cumulative!$B$19:$M$19</c:f>
+              <c:f>'Cost - Benifit'!$B$18:$M$18</c:f>
               <c:numCache>
                 <c:formatCode>mmm\-yy</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>41091</c:v>
+                  <c:v>42461</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41122</c:v>
+                  <c:v>42491</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41153</c:v>
+                  <c:v>42522</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41183</c:v>
+                  <c:v>42552</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41214</c:v>
+                  <c:v>42583</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41244</c:v>
+                  <c:v>42614</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41275</c:v>
+                  <c:v>42644</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41306</c:v>
+                  <c:v>42675</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41334</c:v>
+                  <c:v>42705</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41365</c:v>
+                  <c:v>42736</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41395</c:v>
+                  <c:v>42767</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41426</c:v>
+                  <c:v>42795</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Cumulative!$B$22:$M$22</c:f>
+              <c:f>'Cost - Benifit'!$B$19:$M$19</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"_-;_-@_-</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>76000</c:v>
+                  <c:v>88000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>220000</c:v>
+                  <c:v>168000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>440000</c:v>
+                  <c:v>250000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>650000</c:v>
+                  <c:v>239000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>960000</c:v>
+                  <c:v>348000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1312000</c:v>
+                  <c:v>400000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1772000</c:v>
+                  <c:v>504000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2212000</c:v>
+                  <c:v>480000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2726000</c:v>
+                  <c:v>556000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3592000</c:v>
+                  <c:v>579000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4472000</c:v>
+                  <c:v>570000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5322000</c:v>
+                  <c:v>535000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1619,11 +1691,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Cumulative!$A$23</c:f>
+              <c:f>'Cost - Benifit'!$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1637,90 +1709,90 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Cumulative!$B$19:$M$19</c:f>
+              <c:f>'Cost - Benifit'!$B$18:$M$18</c:f>
               <c:numCache>
                 <c:formatCode>mmm\-yy</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>41091</c:v>
+                  <c:v>42461</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41122</c:v>
+                  <c:v>42491</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41153</c:v>
+                  <c:v>42522</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41183</c:v>
+                  <c:v>42552</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41214</c:v>
+                  <c:v>42583</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41244</c:v>
+                  <c:v>42614</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41275</c:v>
+                  <c:v>42644</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41306</c:v>
+                  <c:v>42675</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41334</c:v>
+                  <c:v>42705</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41365</c:v>
+                  <c:v>42736</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41395</c:v>
+                  <c:v>42767</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41426</c:v>
+                  <c:v>42795</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Cumulative!$B$23:$M$23</c:f>
+              <c:f>'Cost - Benifit'!$B$20:$M$20</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"_-;_-@_-</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>18000</c:v>
+                  <c:v>17000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44000</c:v>
+                  <c:v>24000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>110000</c:v>
+                  <c:v>171000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>181000</c:v>
+                  <c:v>134000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>419000</c:v>
+                  <c:v>142000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>565000</c:v>
+                  <c:v>149000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>850000</c:v>
+                  <c:v>290000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1085000</c:v>
+                  <c:v>240000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1369000</c:v>
+                  <c:v>288000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1908000</c:v>
+                  <c:v>550000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2251000</c:v>
+                  <c:v>356000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2594000</c:v>
+                  <c:v>356000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1737,11 +1809,463 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="105202816"/>
-        <c:axId val="105204352"/>
+        <c:axId val="113616000"/>
+        <c:axId val="113617536"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="105202816"/>
+        <c:axId val="113616000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="mmm\-yy" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="113617536"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="113617536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>INR</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="113616000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-IN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cumulative!$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Revenue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Cumulative!$B$19:$M$19</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>42461</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42491</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42522</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42552</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42583</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42614</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42644</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42675</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42705</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42736</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42767</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42795</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Cumulative!$B$22:$M$22</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"_-;_-@_-</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>88000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>506000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>745000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1093000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1493000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1997000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2477000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3033000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3612000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4182000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4717000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cumulative!$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cost</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Cumulative!$B$19:$M$19</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>42461</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42491</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42522</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42552</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42583</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42614</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42644</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42675</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42705</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42736</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42767</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42795</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Cumulative!$B$23:$M$23</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"_-;_-@_-</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>212000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>346000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>488000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>637000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>927000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1167000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1455000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2005000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2361000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2717000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cumulative!$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cost</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Cumulative!$B$19:$M$19</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>42461</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42491</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42522</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42552</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42583</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42614</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42644</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42675</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42705</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42736</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42767</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42795</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Cumulative!$B$21:$M$21</c:f>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cumulative!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Revenue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Cumulative!$B$19:$M$19</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>42461</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42491</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42522</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42552</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42583</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42614</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42644</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42675</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42705</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42736</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42767</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42795</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Cumulative!$B$20:$M$20</c:f>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="115061120"/>
+        <c:axId val="115563520"/>
+      </c:areaChart>
+      <c:dateAx>
+        <c:axId val="115061120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1751,14 +2275,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105204352"/>
+        <c:crossAx val="115563520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="105204352"/>
+        <c:axId val="115563520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1769,14 +2293,25 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105202816"/>
+        <c:crossAx val="115061120"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -1791,6 +2326,43 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1825,7 +2397,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2149,11 +2721,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AL26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F17" sqref="F17:F18"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2181,134 +2753,134 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E2" s="77" t="s">
+      <c r="E2" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="77"/>
-      <c r="G2" s="78" t="s">
+      <c r="F2" s="39"/>
+      <c r="G2" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78"/>
-      <c r="O2" s="79" t="s">
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="79"/>
-      <c r="T2" s="79"/>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="80" t="s">
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="X2" s="80"/>
-      <c r="Y2" s="80"/>
-      <c r="Z2" s="80"/>
-      <c r="AA2" s="80"/>
-      <c r="AB2" s="80"/>
-      <c r="AC2" s="80"/>
-      <c r="AD2" s="80"/>
-      <c r="AE2" s="73" t="s">
+      <c r="X2" s="42"/>
+      <c r="Y2" s="42"/>
+      <c r="Z2" s="42"/>
+      <c r="AA2" s="42"/>
+      <c r="AB2" s="42"/>
+      <c r="AC2" s="42"/>
+      <c r="AD2" s="42"/>
+      <c r="AE2" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="AF2" s="73"/>
-      <c r="AG2" s="73"/>
-      <c r="AH2" s="73"/>
-      <c r="AI2" s="73"/>
-      <c r="AJ2" s="73"/>
-      <c r="AK2" s="73"/>
-      <c r="AL2" s="73"/>
+      <c r="AF2" s="45"/>
+      <c r="AG2" s="45"/>
+      <c r="AH2" s="45"/>
+      <c r="AI2" s="45"/>
+      <c r="AJ2" s="45"/>
+      <c r="AK2" s="45"/>
+      <c r="AL2" s="45"/>
     </row>
     <row r="3" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="85" t="s">
+      <c r="D3" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="74" t="s">
+      <c r="E3" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="75"/>
-      <c r="G3" s="74" t="s">
+      <c r="F3" s="38"/>
+      <c r="G3" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="75"/>
-      <c r="I3" s="74" t="s">
+      <c r="H3" s="38"/>
+      <c r="I3" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="75"/>
-      <c r="K3" s="74" t="s">
+      <c r="J3" s="38"/>
+      <c r="K3" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="75"/>
-      <c r="M3" s="74" t="s">
+      <c r="L3" s="38"/>
+      <c r="M3" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="75"/>
-      <c r="O3" s="74" t="s">
+      <c r="N3" s="38"/>
+      <c r="O3" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="74" t="s">
+      <c r="P3" s="38"/>
+      <c r="Q3" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="R3" s="75"/>
-      <c r="S3" s="74" t="s">
+      <c r="R3" s="38"/>
+      <c r="S3" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="T3" s="75"/>
-      <c r="U3" s="74" t="s">
+      <c r="T3" s="38"/>
+      <c r="U3" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="V3" s="75"/>
-      <c r="W3" s="74" t="s">
+      <c r="V3" s="38"/>
+      <c r="W3" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="X3" s="75"/>
-      <c r="Y3" s="74" t="s">
+      <c r="X3" s="38"/>
+      <c r="Y3" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="Z3" s="75"/>
-      <c r="AA3" s="74" t="s">
+      <c r="Z3" s="38"/>
+      <c r="AA3" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="AB3" s="75"/>
-      <c r="AC3" s="74" t="s">
+      <c r="AB3" s="38"/>
+      <c r="AC3" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="AD3" s="75"/>
-      <c r="AE3" s="74" t="s">
+      <c r="AD3" s="38"/>
+      <c r="AE3" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="AF3" s="75"/>
-      <c r="AG3" s="74" t="s">
+      <c r="AF3" s="38"/>
+      <c r="AG3" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="AH3" s="75"/>
-      <c r="AI3" s="74" t="s">
+      <c r="AH3" s="38"/>
+      <c r="AI3" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="AJ3" s="75"/>
-      <c r="AK3" s="74" t="s">
+      <c r="AJ3" s="38"/>
+      <c r="AK3" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="AL3" s="76"/>
+      <c r="AL3" s="46"/>
     </row>
     <row r="4" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="82"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="86"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="36"/>
       <c r="E4" s="18" t="s">
         <v>13</v>
       </c>
@@ -3289,103 +3861,103 @@
       <c r="E17" s="24">
         <v>20000</v>
       </c>
-      <c r="F17" s="69">
+      <c r="F17" s="29">
         <v>5000</v>
       </c>
       <c r="G17" s="24">
         <v>20000</v>
       </c>
-      <c r="H17" s="69">
+      <c r="H17" s="29">
         <v>5000</v>
       </c>
       <c r="I17" s="24">
         <v>20000</v>
       </c>
-      <c r="J17" s="69">
+      <c r="J17" s="29">
         <v>5000</v>
       </c>
       <c r="K17" s="24">
         <v>20000</v>
       </c>
-      <c r="L17" s="69">
+      <c r="L17" s="29">
         <v>5000</v>
       </c>
       <c r="M17" s="24">
         <v>20000</v>
       </c>
-      <c r="N17" s="69">
+      <c r="N17" s="29">
         <v>5000</v>
       </c>
       <c r="O17" s="24">
         <v>20000</v>
       </c>
-      <c r="P17" s="69">
+      <c r="P17" s="29">
         <v>5000</v>
       </c>
       <c r="Q17" s="24">
         <v>20000</v>
       </c>
-      <c r="R17" s="69">
+      <c r="R17" s="29">
         <v>5000</v>
       </c>
       <c r="S17" s="24">
         <v>20000</v>
       </c>
-      <c r="T17" s="69">
+      <c r="T17" s="29">
         <v>5000</v>
       </c>
       <c r="U17" s="24">
         <v>20000</v>
       </c>
-      <c r="V17" s="69">
+      <c r="V17" s="29">
         <v>5000</v>
       </c>
       <c r="W17" s="24">
         <v>20000</v>
       </c>
-      <c r="X17" s="69">
+      <c r="X17" s="29">
         <v>5000</v>
       </c>
       <c r="Y17" s="24">
         <v>20000</v>
       </c>
-      <c r="Z17" s="69">
+      <c r="Z17" s="29">
         <v>5000</v>
       </c>
       <c r="AA17" s="24">
         <v>20000</v>
       </c>
-      <c r="AB17" s="69">
+      <c r="AB17" s="29">
         <v>5000</v>
       </c>
       <c r="AC17" s="24">
         <v>20000</v>
       </c>
-      <c r="AD17" s="69">
+      <c r="AD17" s="29">
         <v>5000</v>
       </c>
       <c r="AE17" s="24">
         <v>20000</v>
       </c>
-      <c r="AF17" s="69">
+      <c r="AF17" s="29">
         <v>5000</v>
       </c>
       <c r="AG17" s="24">
         <v>20000</v>
       </c>
-      <c r="AH17" s="69">
+      <c r="AH17" s="29">
         <v>5000</v>
       </c>
       <c r="AI17" s="24">
         <v>20000</v>
       </c>
-      <c r="AJ17" s="69">
+      <c r="AJ17" s="29">
         <v>5000</v>
       </c>
       <c r="AK17" s="24">
         <v>20000</v>
       </c>
-      <c r="AL17" s="71">
+      <c r="AL17" s="43">
         <v>5000</v>
       </c>
     </row>
@@ -3400,71 +3972,71 @@
       <c r="E18" s="15">
         <v>8000</v>
       </c>
-      <c r="F18" s="70"/>
+      <c r="F18" s="30"/>
       <c r="G18" s="15">
         <v>8000</v>
       </c>
-      <c r="H18" s="70"/>
+      <c r="H18" s="30"/>
       <c r="I18" s="15">
         <v>8000</v>
       </c>
-      <c r="J18" s="70"/>
+      <c r="J18" s="30"/>
       <c r="K18" s="15">
         <v>8000</v>
       </c>
-      <c r="L18" s="70"/>
+      <c r="L18" s="30"/>
       <c r="M18" s="15">
         <v>8000</v>
       </c>
-      <c r="N18" s="70"/>
+      <c r="N18" s="30"/>
       <c r="O18" s="15">
         <v>8000</v>
       </c>
-      <c r="P18" s="70"/>
+      <c r="P18" s="30"/>
       <c r="Q18" s="15">
         <v>8000</v>
       </c>
-      <c r="R18" s="70"/>
+      <c r="R18" s="30"/>
       <c r="S18" s="15">
         <v>8000</v>
       </c>
-      <c r="T18" s="70"/>
+      <c r="T18" s="30"/>
       <c r="U18" s="15">
         <v>8000</v>
       </c>
-      <c r="V18" s="70"/>
+      <c r="V18" s="30"/>
       <c r="W18" s="15">
         <v>8000</v>
       </c>
-      <c r="X18" s="70"/>
+      <c r="X18" s="30"/>
       <c r="Y18" s="15">
         <v>8000</v>
       </c>
-      <c r="Z18" s="70"/>
+      <c r="Z18" s="30"/>
       <c r="AA18" s="15">
         <v>8000</v>
       </c>
-      <c r="AB18" s="70"/>
+      <c r="AB18" s="30"/>
       <c r="AC18" s="15">
         <v>8000</v>
       </c>
-      <c r="AD18" s="70"/>
+      <c r="AD18" s="30"/>
       <c r="AE18" s="15">
         <v>8000</v>
       </c>
-      <c r="AF18" s="70"/>
+      <c r="AF18" s="30"/>
       <c r="AG18" s="15">
         <v>8000</v>
       </c>
-      <c r="AH18" s="70"/>
+      <c r="AH18" s="30"/>
       <c r="AI18" s="15">
         <v>8000</v>
       </c>
-      <c r="AJ18" s="70"/>
+      <c r="AJ18" s="30"/>
       <c r="AK18" s="15">
         <v>8000</v>
       </c>
-      <c r="AL18" s="72"/>
+      <c r="AL18" s="44"/>
     </row>
     <row r="19" spans="2:38" x14ac:dyDescent="0.25">
       <c r="E19" s="4">
@@ -3620,16 +4192,16 @@
     </row>
     <row r="24" spans="2:38" x14ac:dyDescent="0.25">
       <c r="E24" s="28" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F24" s="27" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G24" s="26" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="2:38" x14ac:dyDescent="0.25">
@@ -3643,7 +4215,7 @@
         <v>33</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="2:38" x14ac:dyDescent="0.25">
@@ -3653,7 +4225,34 @@
       <c r="H26" s="25"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="42">
+    <mergeCell ref="AF17:AF18"/>
+    <mergeCell ref="AH17:AH18"/>
+    <mergeCell ref="AJ17:AJ18"/>
+    <mergeCell ref="AL17:AL18"/>
+    <mergeCell ref="AE2:AL2"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="V17:V18"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="R17:R18"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="T17:T18"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:N2"/>
+    <mergeCell ref="O2:V2"/>
+    <mergeCell ref="W2:AD2"/>
+    <mergeCell ref="U3:V3"/>
     <mergeCell ref="H17:H18"/>
     <mergeCell ref="Z17:Z18"/>
     <mergeCell ref="AB17:AB18"/>
@@ -3670,32 +4269,6 @@
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="J17:J18"/>
     <mergeCell ref="L17:L18"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:N2"/>
-    <mergeCell ref="O2:V2"/>
-    <mergeCell ref="W2:AD2"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="R17:R18"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="T17:T18"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="V17:V18"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="X17:X18"/>
-    <mergeCell ref="AF17:AF18"/>
-    <mergeCell ref="AH17:AH18"/>
-    <mergeCell ref="AJ17:AJ18"/>
-    <mergeCell ref="AL17:AL18"/>
-    <mergeCell ref="AE2:AL2"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3704,1728 +4277,2098 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P41"/>
+  <dimension ref="B1:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="49" customWidth="1"/>
-    <col min="2" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="161" customWidth="1"/>
+    <col min="3" max="3" width="8" style="54" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="15" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="32">
-        <v>41091</v>
-      </c>
-      <c r="C1" s="32">
-        <v>41122</v>
-      </c>
-      <c r="D1" s="32">
-        <v>41153</v>
-      </c>
-      <c r="E1" s="32">
-        <v>41183</v>
-      </c>
-      <c r="F1" s="32">
-        <v>41214</v>
-      </c>
-      <c r="G1" s="32">
-        <v>41244</v>
-      </c>
-      <c r="H1" s="32">
-        <v>41275</v>
-      </c>
-      <c r="I1" s="32">
-        <v>41306</v>
-      </c>
-      <c r="J1" s="32">
-        <v>41334</v>
-      </c>
-      <c r="K1" s="32">
-        <v>41365</v>
-      </c>
-      <c r="L1" s="32">
-        <v>41395</v>
-      </c>
-      <c r="M1" s="32">
-        <v>41426</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="92" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="94"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="95" t="s">
+    <row r="1" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="84" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="174"/>
+      <c r="H2" s="174"/>
+      <c r="I2" s="174"/>
+      <c r="J2" s="174"/>
+      <c r="K2" s="174"/>
+      <c r="L2" s="174"/>
+      <c r="M2" s="174"/>
+      <c r="N2" s="174"/>
+      <c r="O2" s="85"/>
+    </row>
+    <row r="3" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="154"/>
+      <c r="C3" s="81" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="82">
+        <v>42461</v>
+      </c>
+      <c r="E3" s="82">
+        <v>42491</v>
+      </c>
+      <c r="F3" s="82">
+        <v>42522</v>
+      </c>
+      <c r="G3" s="82">
+        <v>42552</v>
+      </c>
+      <c r="H3" s="82">
+        <v>42583</v>
+      </c>
+      <c r="I3" s="82">
+        <v>42614</v>
+      </c>
+      <c r="J3" s="82">
+        <v>42644</v>
+      </c>
+      <c r="K3" s="82">
+        <v>42675</v>
+      </c>
+      <c r="L3" s="82">
+        <v>42705</v>
+      </c>
+      <c r="M3" s="82">
+        <v>42736</v>
+      </c>
+      <c r="N3" s="82">
+        <v>42767</v>
+      </c>
+      <c r="O3" s="83">
+        <v>42795</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="162"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="62"/>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="151" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="33">
+      <c r="C5" s="70">
+        <v>10000</v>
+      </c>
+      <c r="D5" s="57">
         <v>4</v>
       </c>
-      <c r="C3" s="34">
+      <c r="E5" s="55">
         <v>8</v>
       </c>
-      <c r="D3" s="34">
+      <c r="F5" s="55">
         <v>10</v>
       </c>
-      <c r="E3" s="34">
+      <c r="G5" s="55">
         <v>10</v>
       </c>
-      <c r="F3" s="34">
+      <c r="H5" s="55">
         <v>14</v>
       </c>
-      <c r="G3" s="34">
+      <c r="I5" s="55">
         <v>18</v>
       </c>
-      <c r="H3" s="34">
+      <c r="J5" s="55">
         <v>20</v>
       </c>
-      <c r="I3" s="34">
+      <c r="K5" s="55">
         <v>20</v>
       </c>
-      <c r="J3" s="34">
+      <c r="L5" s="55">
         <v>24</v>
       </c>
-      <c r="K3" s="34">
+      <c r="M5" s="55">
         <v>28</v>
       </c>
-      <c r="L3" s="34">
+      <c r="N5" s="55">
         <v>30</v>
       </c>
-      <c r="M3" s="35">
+      <c r="O5" s="56">
         <v>30</v>
       </c>
-      <c r="O3" t="s">
-        <v>70</v>
-      </c>
-      <c r="P3">
-        <f>SUM(B3:M3)</f>
-        <v>216</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="95"/>
-      <c r="B4" s="36">
+      <c r="Q5" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="152"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="72">
+        <f>D5*C5</f>
+        <v>40000</v>
+      </c>
+      <c r="E6" s="73">
+        <f>E5*C5</f>
+        <v>80000</v>
+      </c>
+      <c r="F6" s="73">
+        <f>F5*C5</f>
+        <v>100000</v>
+      </c>
+      <c r="G6" s="73">
+        <f>G5*C5</f>
+        <v>100000</v>
+      </c>
+      <c r="H6" s="73">
+        <f>H5*C5</f>
+        <v>140000</v>
+      </c>
+      <c r="I6" s="73">
+        <f>I5*C5</f>
+        <v>180000</v>
+      </c>
+      <c r="J6" s="73">
+        <f>J5*C5</f>
+        <v>200000</v>
+      </c>
+      <c r="K6" s="73">
+        <f>K5*C5</f>
+        <v>200000</v>
+      </c>
+      <c r="L6" s="73">
+        <f>L5*C5</f>
+        <v>240000</v>
+      </c>
+      <c r="M6" s="73">
+        <f>M5*C5</f>
+        <v>280000</v>
+      </c>
+      <c r="N6" s="73">
+        <f>N5*C5</f>
+        <v>300000</v>
+      </c>
+      <c r="O6" s="74">
+        <f>O5*C5</f>
+        <v>300000</v>
+      </c>
+      <c r="P6" s="50">
+        <f>SUM(D6:O6)</f>
+        <v>2160000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="151" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="75"/>
+      <c r="D7" s="57">
+        <f>D5</f>
+        <v>4</v>
+      </c>
+      <c r="E7" s="55">
+        <f>E5</f>
+        <v>8</v>
+      </c>
+      <c r="F7" s="55">
+        <f>F5</f>
+        <v>10</v>
+      </c>
+      <c r="G7" s="55">
+        <f>G5</f>
+        <v>10</v>
+      </c>
+      <c r="H7" s="55">
+        <f>H5</f>
+        <v>14</v>
+      </c>
+      <c r="I7" s="55">
+        <f>I5</f>
+        <v>18</v>
+      </c>
+      <c r="J7" s="55">
+        <f>J5</f>
+        <v>20</v>
+      </c>
+      <c r="K7" s="55">
+        <f>K5</f>
+        <v>20</v>
+      </c>
+      <c r="L7" s="55">
+        <f>L5</f>
+        <v>24</v>
+      </c>
+      <c r="M7" s="55">
+        <f>M5</f>
+        <v>28</v>
+      </c>
+      <c r="N7" s="55">
+        <f>N5</f>
+        <v>30</v>
+      </c>
+      <c r="O7" s="56">
+        <f>O5</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B8" s="153"/>
+      <c r="D8" s="47">
+        <v>12000</v>
+      </c>
+      <c r="E8" s="48">
+        <v>11000</v>
+      </c>
+      <c r="F8" s="48">
         <v>10000</v>
       </c>
-      <c r="C4" s="37">
-        <v>10000</v>
-      </c>
-      <c r="D4" s="37">
-        <v>10000</v>
-      </c>
-      <c r="E4" s="37">
-        <v>10000</v>
-      </c>
-      <c r="F4" s="37">
-        <v>10000</v>
-      </c>
-      <c r="G4" s="37">
-        <v>10000</v>
-      </c>
-      <c r="H4" s="37">
-        <v>10000</v>
-      </c>
-      <c r="I4" s="37">
-        <v>10000</v>
-      </c>
-      <c r="J4" s="37">
-        <v>10000</v>
-      </c>
-      <c r="K4" s="37">
-        <v>10000</v>
-      </c>
-      <c r="L4" s="37">
-        <v>10000</v>
-      </c>
-      <c r="M4" s="38">
-        <v>10000</v>
-      </c>
-      <c r="N4" s="30"/>
-      <c r="O4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="95"/>
-      <c r="B5" s="51">
-        <f>B3*B4</f>
-        <v>40000</v>
-      </c>
-      <c r="C5" s="50">
-        <f>C3*C4</f>
-        <v>80000</v>
-      </c>
-      <c r="D5" s="50">
-        <f>D3*D4</f>
+      <c r="G8" s="48">
+        <v>9000</v>
+      </c>
+      <c r="H8" s="48">
+        <v>8000</v>
+      </c>
+      <c r="I8" s="48">
+        <v>7000</v>
+      </c>
+      <c r="J8" s="48">
+        <v>6000</v>
+      </c>
+      <c r="K8" s="48">
+        <v>5000</v>
+      </c>
+      <c r="L8" s="48">
+        <v>4000</v>
+      </c>
+      <c r="M8" s="48">
+        <v>3000</v>
+      </c>
+      <c r="N8" s="48">
+        <v>2000</v>
+      </c>
+      <c r="O8" s="49">
+        <v>1000</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="152"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="72">
+        <f t="shared" ref="D9:F9" si="0">D7*D8</f>
+        <v>48000</v>
+      </c>
+      <c r="E9" s="73">
+        <f t="shared" si="0"/>
+        <v>88000</v>
+      </c>
+      <c r="F9" s="73">
+        <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="E5" s="50">
-        <f t="shared" ref="E5:M5" si="0">E3*E4</f>
+      <c r="G9" s="73">
+        <f>G7*G8</f>
+        <v>90000</v>
+      </c>
+      <c r="H9" s="73">
+        <f t="shared" ref="H9:O9" si="1">H7*H8</f>
+        <v>112000</v>
+      </c>
+      <c r="I9" s="73">
+        <f t="shared" si="1"/>
+        <v>126000</v>
+      </c>
+      <c r="J9" s="73">
+        <f t="shared" si="1"/>
+        <v>120000</v>
+      </c>
+      <c r="K9" s="73">
+        <f t="shared" si="1"/>
         <v>100000</v>
       </c>
-      <c r="F5" s="50">
-        <f t="shared" si="0"/>
-        <v>140000</v>
-      </c>
-      <c r="G5" s="50">
-        <f t="shared" si="0"/>
-        <v>180000</v>
-      </c>
-      <c r="H5" s="50">
-        <f t="shared" si="0"/>
-        <v>200000</v>
-      </c>
-      <c r="I5" s="50">
-        <f t="shared" si="0"/>
-        <v>200000</v>
-      </c>
-      <c r="J5" s="50">
-        <f t="shared" si="0"/>
-        <v>240000</v>
-      </c>
-      <c r="K5" s="50">
-        <f t="shared" si="0"/>
-        <v>280000</v>
-      </c>
-      <c r="L5" s="50">
-        <f t="shared" si="0"/>
-        <v>300000</v>
-      </c>
-      <c r="M5" s="52">
-        <f t="shared" si="0"/>
-        <v>300000</v>
-      </c>
-      <c r="N5" s="31">
-        <f>SUM(B5:M5)</f>
-        <v>2160000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="95" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="39">
-        <v>4</v>
-      </c>
-      <c r="C6" s="40">
-        <v>8</v>
-      </c>
-      <c r="D6" s="40">
-        <v>10</v>
-      </c>
-      <c r="E6" s="40">
-        <v>10</v>
-      </c>
-      <c r="F6" s="40">
-        <v>14</v>
-      </c>
-      <c r="G6" s="40">
-        <v>18</v>
-      </c>
-      <c r="H6" s="40">
-        <v>20</v>
-      </c>
-      <c r="I6" s="40">
-        <v>20</v>
-      </c>
-      <c r="J6" s="40">
-        <v>24</v>
-      </c>
-      <c r="K6" s="40">
-        <f>K3+O6</f>
-        <v>124</v>
-      </c>
-      <c r="L6" s="40">
-        <v>30</v>
-      </c>
-      <c r="M6" s="41">
-        <v>30</v>
-      </c>
-      <c r="O6">
-        <f xml:space="preserve"> 0.75*SUM(B6:J6)</f>
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="95"/>
-      <c r="B7" s="36">
-        <v>9000</v>
-      </c>
-      <c r="C7" s="37">
-        <v>8000</v>
-      </c>
-      <c r="D7" s="37">
-        <v>7000</v>
-      </c>
-      <c r="E7" s="37">
-        <v>6000</v>
-      </c>
-      <c r="F7" s="37">
-        <v>5000</v>
-      </c>
-      <c r="G7" s="37">
-        <v>4000</v>
-      </c>
-      <c r="H7" s="37">
-        <v>3000</v>
-      </c>
-      <c r="I7" s="37">
-        <v>2000</v>
-      </c>
-      <c r="J7" s="37">
-        <v>1000</v>
-      </c>
-      <c r="K7" s="37">
-        <v>12000</v>
-      </c>
-      <c r="L7" s="37">
-        <v>11000</v>
-      </c>
-      <c r="M7" s="38">
-        <v>10000</v>
-      </c>
-      <c r="N7" s="30"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="95"/>
-      <c r="B8" s="51">
-        <f>B6*B7</f>
-        <v>36000</v>
-      </c>
-      <c r="C8" s="50">
-        <f t="shared" ref="C8:M8" si="1">C6*C7</f>
-        <v>64000</v>
-      </c>
-      <c r="D8" s="50">
+      <c r="L9" s="73">
         <f t="shared" si="1"/>
-        <v>70000</v>
-      </c>
-      <c r="E8" s="50">
+        <v>96000</v>
+      </c>
+      <c r="M9" s="73">
+        <f t="shared" si="1"/>
+        <v>84000</v>
+      </c>
+      <c r="N9" s="73">
         <f t="shared" si="1"/>
         <v>60000</v>
       </c>
-      <c r="F8" s="50">
+      <c r="O9" s="74">
         <f t="shared" si="1"/>
-        <v>70000</v>
-      </c>
-      <c r="G8" s="50">
-        <f t="shared" si="1"/>
+        <v>30000</v>
+      </c>
+      <c r="P9" s="50">
+        <f>SUM(D9:O9)</f>
+        <v>1054000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B10" s="151" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="70">
+        <v>20000</v>
+      </c>
+      <c r="D10" s="57"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="75">
+        <v>2</v>
+      </c>
+      <c r="G10" s="75">
+        <v>2</v>
+      </c>
+      <c r="H10" s="75">
+        <v>4</v>
+      </c>
+      <c r="I10" s="75">
+        <v>4</v>
+      </c>
+      <c r="J10" s="75">
+        <v>8</v>
+      </c>
+      <c r="K10" s="75">
+        <v>8</v>
+      </c>
+      <c r="L10" s="75">
+        <v>10</v>
+      </c>
+      <c r="M10" s="75">
+        <v>10</v>
+      </c>
+      <c r="N10" s="75">
+        <v>10</v>
+      </c>
+      <c r="O10" s="76">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="152"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="72">
+        <f>D10*C10</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="73">
+        <f>E10*C10</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="73">
+        <f>F10*C10</f>
+        <v>40000</v>
+      </c>
+      <c r="G11" s="73">
+        <f>G10*C10</f>
+        <v>40000</v>
+      </c>
+      <c r="H11" s="73">
+        <f>H10*C10</f>
+        <v>80000</v>
+      </c>
+      <c r="I11" s="73">
+        <f>I10*C10</f>
+        <v>80000</v>
+      </c>
+      <c r="J11" s="73">
+        <f>J10*C10</f>
+        <v>160000</v>
+      </c>
+      <c r="K11" s="73">
+        <f>K10*C10</f>
+        <v>160000</v>
+      </c>
+      <c r="L11" s="73">
+        <f>L10*C10</f>
+        <v>200000</v>
+      </c>
+      <c r="M11" s="73">
+        <f>M10*C10</f>
+        <v>200000</v>
+      </c>
+      <c r="N11" s="73">
+        <f>N10*C10</f>
+        <v>200000</v>
+      </c>
+      <c r="O11" s="74">
+        <f>O10*C10</f>
+        <v>200000</v>
+      </c>
+      <c r="P11" s="50">
+        <f>SUM(D11:O11)</f>
+        <v>1360000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="151" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="70"/>
+      <c r="D12" s="80">
+        <f>D10</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="75">
+        <f t="shared" ref="E12:O12" si="2">E10</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="75">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G12" s="75">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H12" s="75">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="I12" s="75">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="J12" s="75">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="K12" s="75">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="L12" s="75">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="M12" s="75">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="N12" s="75">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="O12" s="76">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="153"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="51">
+        <v>6000</v>
+      </c>
+      <c r="E13" s="52">
+        <v>5500</v>
+      </c>
+      <c r="F13" s="52">
+        <v>5000</v>
+      </c>
+      <c r="G13" s="52">
+        <v>4500</v>
+      </c>
+      <c r="H13" s="52">
+        <v>4000</v>
+      </c>
+      <c r="I13" s="52">
+        <v>3500</v>
+      </c>
+      <c r="J13" s="52">
+        <v>3000</v>
+      </c>
+      <c r="K13" s="52">
+        <v>2500</v>
+      </c>
+      <c r="L13" s="52">
+        <v>2000</v>
+      </c>
+      <c r="M13" s="52">
+        <v>1500</v>
+      </c>
+      <c r="N13" s="52">
+        <v>1000</v>
+      </c>
+      <c r="O13" s="53">
+        <v>500</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="152"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="72">
+        <f t="shared" ref="D14" si="3">D12*D13</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="73">
+        <f t="shared" ref="E14" si="4">E12*E13</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="73">
+        <f t="shared" ref="F14:O14" si="5">F12*F13</f>
+        <v>10000</v>
+      </c>
+      <c r="G14" s="73">
+        <f t="shared" si="5"/>
+        <v>9000</v>
+      </c>
+      <c r="H14" s="73">
+        <f t="shared" si="5"/>
+        <v>16000</v>
+      </c>
+      <c r="I14" s="73">
+        <f t="shared" si="5"/>
+        <v>14000</v>
+      </c>
+      <c r="J14" s="73">
+        <f t="shared" si="5"/>
+        <v>24000</v>
+      </c>
+      <c r="K14" s="73">
+        <f t="shared" si="5"/>
+        <v>20000</v>
+      </c>
+      <c r="L14" s="73">
+        <f t="shared" si="5"/>
+        <v>20000</v>
+      </c>
+      <c r="M14" s="73">
+        <f t="shared" si="5"/>
+        <v>15000</v>
+      </c>
+      <c r="N14" s="73">
+        <f t="shared" si="5"/>
+        <v>10000</v>
+      </c>
+      <c r="O14" s="74">
+        <f t="shared" si="5"/>
+        <v>5000</v>
+      </c>
+      <c r="P14" s="50">
+        <f>SUM(D14:O14)</f>
+        <v>143000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="167" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="168"/>
+      <c r="D15" s="77">
+        <f>D6+D9+D11+D14</f>
+        <v>88000</v>
+      </c>
+      <c r="E15" s="78">
+        <f>E6+E9+E11+E14</f>
+        <v>168000</v>
+      </c>
+      <c r="F15" s="78">
+        <f>F6+F9+F11+F14</f>
+        <v>250000</v>
+      </c>
+      <c r="G15" s="78">
+        <f>G6+G9+G11+G14</f>
+        <v>239000</v>
+      </c>
+      <c r="H15" s="78">
+        <f>H6+H9+H11+H14</f>
+        <v>348000</v>
+      </c>
+      <c r="I15" s="78">
+        <f>I6+I9+I11+I14</f>
+        <v>400000</v>
+      </c>
+      <c r="J15" s="78">
+        <f>J6+J9+J11+J14</f>
+        <v>504000</v>
+      </c>
+      <c r="K15" s="78">
+        <f>K6+K9+K11+K14</f>
+        <v>480000</v>
+      </c>
+      <c r="L15" s="78">
+        <f>L6+L9+L11+L14</f>
+        <v>556000</v>
+      </c>
+      <c r="M15" s="78">
+        <f>M6+M9+M11+M14</f>
+        <v>579000</v>
+      </c>
+      <c r="N15" s="78">
+        <f>N6+N9+N11+N14</f>
+        <v>570000</v>
+      </c>
+      <c r="O15" s="79">
+        <f>O6+O9+O11+O14</f>
+        <v>535000</v>
+      </c>
+      <c r="P15" s="58">
+        <f>SUM(D15:O15)</f>
+        <v>4717000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="154"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="75"/>
+      <c r="K16" s="75"/>
+      <c r="L16" s="75"/>
+      <c r="M16" s="75"/>
+      <c r="N16" s="75"/>
+      <c r="O16" s="76"/>
+    </row>
+    <row r="17" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="163"/>
+      <c r="C17" s="86" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="87" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="88"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="88"/>
+      <c r="I17" s="88"/>
+      <c r="J17" s="88"/>
+      <c r="K17" s="88"/>
+      <c r="L17" s="88"/>
+      <c r="M17" s="88"/>
+      <c r="N17" s="88"/>
+      <c r="O17" s="89"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B18" s="155" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="93"/>
+      <c r="D18" s="94">
+        <f>D5</f>
+        <v>4</v>
+      </c>
+      <c r="E18" s="95">
+        <f>E5</f>
+        <v>8</v>
+      </c>
+      <c r="F18" s="95">
+        <f>F5</f>
+        <v>10</v>
+      </c>
+      <c r="G18" s="95">
+        <f>G5</f>
+        <v>10</v>
+      </c>
+      <c r="H18" s="95">
+        <f>H5</f>
+        <v>14</v>
+      </c>
+      <c r="I18" s="95">
+        <f>I5</f>
+        <v>18</v>
+      </c>
+      <c r="J18" s="95">
+        <f>J5</f>
+        <v>20</v>
+      </c>
+      <c r="K18" s="95">
+        <f>K5</f>
+        <v>20</v>
+      </c>
+      <c r="L18" s="95">
+        <f>L5</f>
+        <v>24</v>
+      </c>
+      <c r="M18" s="95">
+        <f>M5</f>
+        <v>28</v>
+      </c>
+      <c r="N18" s="95">
+        <f>N5</f>
+        <v>30</v>
+      </c>
+      <c r="O18" s="96">
+        <f>O5</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B19" s="156"/>
+      <c r="C19" s="97">
+        <v>5000</v>
+      </c>
+      <c r="D19" s="98">
+        <f>IF(D18&gt;=P19,C19*FLOOR( D18/P19,1), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="97">
+        <f>IF(E18&gt;=P19,C19*FLOOR( E18/P19,1), 0)</f>
+        <v>5000</v>
+      </c>
+      <c r="F19" s="97">
+        <f>IF(F18&gt;=P19,C19*FLOOR( F18/P19,1), 0)</f>
+        <v>10000</v>
+      </c>
+      <c r="G19" s="97">
+        <f>IF(G18&gt;=P19,C19*FLOOR( G18/P19,1), 0)</f>
+        <v>10000</v>
+      </c>
+      <c r="H19" s="97">
+        <f>IF(G18&gt;=P19,C19*FLOOR( G18/P19,1), 0)</f>
+        <v>10000</v>
+      </c>
+      <c r="I19" s="97">
+        <f>IF(I18&gt;=P19,C19*FLOOR( I18/P19,1), 0)</f>
+        <v>15000</v>
+      </c>
+      <c r="J19" s="97">
+        <f>IF(J18&gt;=P19,C19*FLOOR( J18/P19,1), 0)</f>
+        <v>20000</v>
+      </c>
+      <c r="K19" s="97">
+        <f>IF(K18&gt;=P19,C19*FLOOR( K18/P19,1), 0)</f>
+        <v>20000</v>
+      </c>
+      <c r="L19" s="97">
+        <f>IF(L18&gt;=P19,C19*FLOOR( L18/P19,1), 0)</f>
+        <v>20000</v>
+      </c>
+      <c r="M19" s="97">
+        <f>IF(M18&gt;=P19,C19*FLOOR( M18/P19,1), 0)</f>
+        <v>25000</v>
+      </c>
+      <c r="N19" s="97">
+        <f>IF(N18&gt;=P19,C19*FLOOR( N18/P19,1), 0)</f>
+        <v>30000</v>
+      </c>
+      <c r="O19" s="99">
+        <f>IF(O18&gt;=P19,C19*FLOOR( O18/P19,1), 0)</f>
+        <v>30000</v>
+      </c>
+      <c r="P19" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B20" s="156"/>
+      <c r="C20" s="100">
+        <v>0.05</v>
+      </c>
+      <c r="D20" s="98">
+        <f>C20*D6</f>
+        <v>2000</v>
+      </c>
+      <c r="E20" s="97">
+        <f>C20*E6</f>
+        <v>4000</v>
+      </c>
+      <c r="F20" s="97">
+        <f>C20*F6</f>
+        <v>5000</v>
+      </c>
+      <c r="G20" s="97">
+        <f>C20*G6</f>
+        <v>5000</v>
+      </c>
+      <c r="H20" s="97">
+        <f>C20*H6</f>
+        <v>7000</v>
+      </c>
+      <c r="I20" s="97">
+        <f>C20*I6</f>
+        <v>9000</v>
+      </c>
+      <c r="J20" s="97">
+        <f>C20*J6</f>
+        <v>10000</v>
+      </c>
+      <c r="K20" s="97">
+        <f>C20*K6</f>
+        <v>10000</v>
+      </c>
+      <c r="L20" s="97">
+        <f>C20*L6</f>
+        <v>12000</v>
+      </c>
+      <c r="M20" s="97">
+        <f>C20*M6</f>
+        <v>14000</v>
+      </c>
+      <c r="N20" s="97">
+        <f>C20*N6</f>
+        <v>15000</v>
+      </c>
+      <c r="O20" s="99">
+        <f>C20*O6</f>
+        <v>15000</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="157"/>
+      <c r="C21" s="101"/>
+      <c r="D21" s="102">
+        <f>D19+D20</f>
+        <v>2000</v>
+      </c>
+      <c r="E21" s="103">
+        <f>E19+E20</f>
+        <v>9000</v>
+      </c>
+      <c r="F21" s="103">
+        <f t="shared" ref="F21:O21" si="6">F19+F20</f>
+        <v>15000</v>
+      </c>
+      <c r="G21" s="103">
+        <f t="shared" si="6"/>
+        <v>15000</v>
+      </c>
+      <c r="H21" s="103">
+        <f t="shared" si="6"/>
+        <v>17000</v>
+      </c>
+      <c r="I21" s="103">
+        <f t="shared" si="6"/>
+        <v>24000</v>
+      </c>
+      <c r="J21" s="103">
+        <f t="shared" si="6"/>
+        <v>30000</v>
+      </c>
+      <c r="K21" s="103">
+        <f t="shared" si="6"/>
+        <v>30000</v>
+      </c>
+      <c r="L21" s="103">
+        <f t="shared" si="6"/>
+        <v>32000</v>
+      </c>
+      <c r="M21" s="103">
+        <f t="shared" si="6"/>
+        <v>39000</v>
+      </c>
+      <c r="N21" s="103">
+        <f t="shared" si="6"/>
+        <v>45000</v>
+      </c>
+      <c r="O21" s="104">
+        <f t="shared" si="6"/>
+        <v>45000</v>
+      </c>
+      <c r="P21" s="50">
+        <f>SUM(D21:O21)</f>
+        <v>303000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B22" s="155" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="105">
+        <v>18000</v>
+      </c>
+      <c r="D22" s="106">
+        <f>D10</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="107">
+        <f t="shared" ref="E22:O22" si="7">E10</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="107">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="G22" s="107">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="H22" s="107">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="I22" s="107">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="J22" s="107">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="K22" s="107">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="L22" s="107">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="M22" s="107">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="N22" s="107">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="O22" s="108">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="156"/>
+      <c r="C23" s="109"/>
+      <c r="D23" s="110">
+        <f>D22*C22</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="111">
+        <f>E22*C22</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="111">
+        <f>F22*C22</f>
+        <v>36000</v>
+      </c>
+      <c r="G23" s="111">
+        <f>G22*C22</f>
+        <v>36000</v>
+      </c>
+      <c r="H23" s="111">
+        <f>H22*C22</f>
         <v>72000</v>
       </c>
-      <c r="H8" s="50">
-        <f t="shared" si="1"/>
+      <c r="I23" s="111">
+        <f>I22*C22</f>
+        <v>72000</v>
+      </c>
+      <c r="J23" s="111">
+        <f>J22*C22</f>
+        <v>144000</v>
+      </c>
+      <c r="K23" s="111">
+        <f>K22*C22</f>
+        <v>144000</v>
+      </c>
+      <c r="L23" s="111">
+        <f>L22*C22</f>
+        <v>180000</v>
+      </c>
+      <c r="M23" s="111">
+        <f>M22*C22</f>
+        <v>180000</v>
+      </c>
+      <c r="N23" s="111">
+        <f>N22*C22</f>
+        <v>180000</v>
+      </c>
+      <c r="O23" s="112">
+        <f>O22*C22</f>
+        <v>180000</v>
+      </c>
+      <c r="P23" s="50">
+        <f>SUM(D23:O23)</f>
+        <v>1224000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="158" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="113"/>
+      <c r="D24" s="114">
+        <v>1</v>
+      </c>
+      <c r="E24" s="113">
+        <v>1</v>
+      </c>
+      <c r="F24" s="113">
+        <v>1</v>
+      </c>
+      <c r="G24" s="113">
+        <v>1</v>
+      </c>
+      <c r="H24" s="113">
+        <v>2</v>
+      </c>
+      <c r="I24" s="113">
+        <v>2</v>
+      </c>
+      <c r="J24" s="113">
+        <v>2</v>
+      </c>
+      <c r="K24" s="113">
+        <v>2</v>
+      </c>
+      <c r="L24" s="113">
+        <v>3</v>
+      </c>
+      <c r="M24" s="113">
+        <v>3</v>
+      </c>
+      <c r="N24" s="113">
+        <v>3</v>
+      </c>
+      <c r="O24" s="115">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B25" s="159"/>
+      <c r="C25" s="116">
+        <v>5000</v>
+      </c>
+      <c r="D25" s="117">
+        <f>D24*C25</f>
+        <v>5000</v>
+      </c>
+      <c r="E25" s="118">
+        <f>E24*C25</f>
+        <v>5000</v>
+      </c>
+      <c r="F25" s="118">
+        <f>F24*C25</f>
+        <v>5000</v>
+      </c>
+      <c r="G25" s="118">
+        <f>G24*C25</f>
+        <v>5000</v>
+      </c>
+      <c r="H25" s="118">
+        <f>H24*C25</f>
+        <v>10000</v>
+      </c>
+      <c r="I25" s="118">
+        <f>I24*C25</f>
+        <v>10000</v>
+      </c>
+      <c r="J25" s="118">
+        <f>J24*C25</f>
+        <v>10000</v>
+      </c>
+      <c r="K25" s="118">
+        <f>K24*C25</f>
+        <v>10000</v>
+      </c>
+      <c r="L25" s="118">
+        <f>L24*C25</f>
+        <v>15000</v>
+      </c>
+      <c r="M25" s="118">
+        <f>M24*C25</f>
+        <v>15000</v>
+      </c>
+      <c r="N25" s="118">
+        <f>N24*C25</f>
+        <v>15000</v>
+      </c>
+      <c r="O25" s="119">
+        <f>O24*C25</f>
+        <v>15000</v>
+      </c>
+      <c r="P25" s="50"/>
+      <c r="Q25" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B26" s="159"/>
+      <c r="C26" s="118">
+        <v>5000</v>
+      </c>
+      <c r="D26" s="120">
+        <f>D24*C26</f>
+        <v>5000</v>
+      </c>
+      <c r="E26" s="121">
+        <f>E24*C26</f>
+        <v>5000</v>
+      </c>
+      <c r="F26" s="121">
+        <f>F24*C26</f>
+        <v>5000</v>
+      </c>
+      <c r="G26" s="121">
+        <f>G24*C26</f>
+        <v>5000</v>
+      </c>
+      <c r="H26" s="121">
+        <f>H24*C26</f>
+        <v>10000</v>
+      </c>
+      <c r="I26" s="121">
+        <f>I24*C26</f>
+        <v>10000</v>
+      </c>
+      <c r="J26" s="121">
+        <f>J24*C26</f>
+        <v>10000</v>
+      </c>
+      <c r="K26" s="121">
+        <f>K24*C26</f>
+        <v>10000</v>
+      </c>
+      <c r="L26" s="121">
+        <f>L24*C26</f>
+        <v>15000</v>
+      </c>
+      <c r="M26" s="121">
+        <f>M24*C26</f>
+        <v>15000</v>
+      </c>
+      <c r="N26" s="121">
+        <f>N24*C26</f>
+        <v>15000</v>
+      </c>
+      <c r="O26" s="122">
+        <f>O24*C26</f>
+        <v>15000</v>
+      </c>
+      <c r="P26" s="50"/>
+      <c r="Q26" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="160"/>
+      <c r="C27" s="123"/>
+      <c r="D27" s="124">
+        <f>D25+D26</f>
+        <v>10000</v>
+      </c>
+      <c r="E27" s="123">
+        <f t="shared" ref="E27:O27" si="8">E25+E26</f>
+        <v>10000</v>
+      </c>
+      <c r="F27" s="123">
+        <f t="shared" si="8"/>
+        <v>10000</v>
+      </c>
+      <c r="G27" s="123">
+        <f t="shared" si="8"/>
+        <v>10000</v>
+      </c>
+      <c r="H27" s="123">
+        <f t="shared" si="8"/>
+        <v>20000</v>
+      </c>
+      <c r="I27" s="123">
+        <f t="shared" si="8"/>
+        <v>20000</v>
+      </c>
+      <c r="J27" s="123">
+        <f t="shared" si="8"/>
+        <v>20000</v>
+      </c>
+      <c r="K27" s="123">
+        <f t="shared" si="8"/>
+        <v>20000</v>
+      </c>
+      <c r="L27" s="123">
+        <f t="shared" si="8"/>
+        <v>30000</v>
+      </c>
+      <c r="M27" s="123">
+        <f t="shared" si="8"/>
+        <v>30000</v>
+      </c>
+      <c r="N27" s="123">
+        <f t="shared" si="8"/>
+        <v>30000</v>
+      </c>
+      <c r="O27" s="125">
+        <f t="shared" si="8"/>
+        <v>30000</v>
+      </c>
+      <c r="P27" s="50">
+        <f>SUM(D27:O27)</f>
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B28" s="159" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="126">
+        <v>5000</v>
+      </c>
+      <c r="D28" s="117"/>
+      <c r="E28" s="118"/>
+      <c r="F28" s="118"/>
+      <c r="G28" s="127"/>
+      <c r="H28" s="127"/>
+      <c r="I28" s="127"/>
+      <c r="J28" s="127"/>
+      <c r="K28" s="118"/>
+      <c r="L28" s="118"/>
+      <c r="M28" s="118">
+        <v>4</v>
+      </c>
+      <c r="N28" s="118">
+        <v>4</v>
+      </c>
+      <c r="O28" s="119">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="160"/>
+      <c r="C29" s="128"/>
+      <c r="D29" s="129">
+        <f>D28*C28</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="130">
+        <f>E28*C28</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="130">
+        <f>F28*C28</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="130">
+        <f>G28*C28</f>
+        <v>0</v>
+      </c>
+      <c r="H29" s="130">
+        <f>H28*C28</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="130">
+        <f>I28*C28</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="130">
+        <f>J28*C28</f>
+        <v>0</v>
+      </c>
+      <c r="K29" s="130">
+        <f>K28*C28</f>
+        <v>0</v>
+      </c>
+      <c r="L29" s="130">
+        <f>L28*C28</f>
+        <v>0</v>
+      </c>
+      <c r="M29" s="130">
+        <f>M28*C28</f>
+        <v>20000</v>
+      </c>
+      <c r="N29" s="130">
+        <f>N28*C28</f>
+        <v>20000</v>
+      </c>
+      <c r="O29" s="131">
+        <f>O28*C28</f>
+        <v>20000</v>
+      </c>
+      <c r="P29" s="50">
+        <f>SUM(D29:O29)</f>
         <v>60000</v>
       </c>
-      <c r="I8" s="50">
-        <f t="shared" si="1"/>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B30" s="158" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="132">
+        <v>8000</v>
+      </c>
+      <c r="D30" s="133"/>
+      <c r="E30" s="134"/>
+      <c r="F30" s="134"/>
+      <c r="G30" s="135">
+        <v>1</v>
+      </c>
+      <c r="H30" s="135">
+        <v>1</v>
+      </c>
+      <c r="I30" s="135">
+        <v>1</v>
+      </c>
+      <c r="J30" s="135">
+        <v>2</v>
+      </c>
+      <c r="K30" s="134">
+        <v>2</v>
+      </c>
+      <c r="L30" s="134">
+        <v>2</v>
+      </c>
+      <c r="M30" s="134">
+        <v>2</v>
+      </c>
+      <c r="N30" s="134">
+        <v>2</v>
+      </c>
+      <c r="O30" s="136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="160"/>
+      <c r="C31" s="128"/>
+      <c r="D31" s="129">
+        <f>D30*C30</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="130">
+        <f>E30*C30</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="130">
+        <f>F30*C30</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="130">
+        <f>G30*C30</f>
+        <v>8000</v>
+      </c>
+      <c r="H31" s="130">
+        <f>H30*C30</f>
+        <v>8000</v>
+      </c>
+      <c r="I31" s="130">
+        <f>I30*C30</f>
+        <v>8000</v>
+      </c>
+      <c r="J31" s="130">
+        <f>J30*C30</f>
+        <v>16000</v>
+      </c>
+      <c r="K31" s="130">
+        <f>K30*C30</f>
+        <v>16000</v>
+      </c>
+      <c r="L31" s="130">
+        <f>L30*C30</f>
+        <v>16000</v>
+      </c>
+      <c r="M31" s="130">
+        <f>M30*C30</f>
+        <v>16000</v>
+      </c>
+      <c r="N31" s="130">
+        <f>N30*C30</f>
+        <v>16000</v>
+      </c>
+      <c r="O31" s="131">
+        <f>O30*C30</f>
+        <v>16000</v>
+      </c>
+      <c r="P31" s="50">
+        <f>SUM(D31:O31)</f>
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B32" s="158" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="132">
+        <v>10000</v>
+      </c>
+      <c r="D32" s="114"/>
+      <c r="E32" s="113"/>
+      <c r="F32" s="113"/>
+      <c r="G32" s="137"/>
+      <c r="H32" s="137"/>
+      <c r="I32" s="137"/>
+      <c r="J32" s="137"/>
+      <c r="K32" s="113"/>
+      <c r="L32" s="113"/>
+      <c r="M32" s="113">
+        <v>2</v>
+      </c>
+      <c r="N32" s="113">
+        <v>2</v>
+      </c>
+      <c r="O32" s="115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="160"/>
+      <c r="C33" s="128"/>
+      <c r="D33" s="129">
+        <f>D32*C32</f>
+        <v>0</v>
+      </c>
+      <c r="E33" s="130">
+        <f>E32*C32</f>
+        <v>0</v>
+      </c>
+      <c r="F33" s="130">
+        <f>F32*C32</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="130">
+        <f>G32*C32</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="130">
+        <f>H32*C32</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="130">
+        <f>I32*C32</f>
+        <v>0</v>
+      </c>
+      <c r="J33" s="130">
+        <f>J32*C32</f>
+        <v>0</v>
+      </c>
+      <c r="K33" s="130">
+        <f>K32*C32</f>
+        <v>0</v>
+      </c>
+      <c r="L33" s="130">
+        <f>L32*C32</f>
+        <v>0</v>
+      </c>
+      <c r="M33" s="130">
+        <f>M32*C32</f>
+        <v>20000</v>
+      </c>
+      <c r="N33" s="130">
+        <f>N32*C32</f>
+        <v>20000</v>
+      </c>
+      <c r="O33" s="131">
+        <f>O32*C32</f>
+        <v>20000</v>
+      </c>
+      <c r="P33" s="50">
+        <f>SUM(D33:O33)</f>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B34" s="158" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="132">
+        <v>5000</v>
+      </c>
+      <c r="D34" s="133"/>
+      <c r="E34" s="134"/>
+      <c r="F34" s="134">
+        <v>1</v>
+      </c>
+      <c r="G34" s="134">
+        <v>1</v>
+      </c>
+      <c r="H34" s="134">
+        <v>1</v>
+      </c>
+      <c r="I34" s="134">
+        <v>1</v>
+      </c>
+      <c r="J34" s="134">
+        <v>1</v>
+      </c>
+      <c r="K34" s="134">
+        <v>1</v>
+      </c>
+      <c r="L34" s="134">
+        <v>1</v>
+      </c>
+      <c r="M34" s="134">
+        <v>1</v>
+      </c>
+      <c r="N34" s="134">
+        <v>1</v>
+      </c>
+      <c r="O34" s="136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="159"/>
+      <c r="C35" s="126"/>
+      <c r="D35" s="138">
+        <f>D34*C34</f>
+        <v>0</v>
+      </c>
+      <c r="E35" s="139">
+        <f>E34*C34</f>
+        <v>0</v>
+      </c>
+      <c r="F35" s="139">
+        <f>F34*C34</f>
+        <v>5000</v>
+      </c>
+      <c r="G35" s="139">
+        <f>G34*C34</f>
+        <v>5000</v>
+      </c>
+      <c r="H35" s="139">
+        <f>H34*C34</f>
+        <v>5000</v>
+      </c>
+      <c r="I35" s="139">
+        <f>I34*C34</f>
+        <v>5000</v>
+      </c>
+      <c r="J35" s="139">
+        <f>J34*C34</f>
+        <v>5000</v>
+      </c>
+      <c r="K35" s="139">
+        <f>K34*C34</f>
+        <v>5000</v>
+      </c>
+      <c r="L35" s="139">
+        <f>L34*C34</f>
+        <v>5000</v>
+      </c>
+      <c r="M35" s="139">
+        <f>M34*C34</f>
+        <v>5000</v>
+      </c>
+      <c r="N35" s="139">
+        <f>N34*C34</f>
+        <v>5000</v>
+      </c>
+      <c r="O35" s="140">
+        <f>O34*C34</f>
+        <v>5000</v>
+      </c>
+      <c r="P35" s="50">
+        <f>SUM(D35:O35)</f>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B36" s="164" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="141"/>
+      <c r="D36" s="142"/>
+      <c r="E36" s="142"/>
+      <c r="F36" s="142"/>
+      <c r="G36" s="142"/>
+      <c r="H36" s="142">
+        <v>10000</v>
+      </c>
+      <c r="I36" s="142">
+        <v>10000</v>
+      </c>
+      <c r="J36" s="142">
+        <v>10000</v>
+      </c>
+      <c r="K36" s="142">
+        <v>10000</v>
+      </c>
+      <c r="L36" s="142">
+        <v>10000</v>
+      </c>
+      <c r="M36" s="142">
+        <v>20000</v>
+      </c>
+      <c r="N36" s="142">
+        <v>20000</v>
+      </c>
+      <c r="O36" s="141">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B37" s="165" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="143"/>
+      <c r="D37" s="144"/>
+      <c r="E37" s="145"/>
+      <c r="F37" s="145">
+        <v>100000</v>
+      </c>
+      <c r="G37" s="145">
+        <v>50000</v>
+      </c>
+      <c r="H37" s="145"/>
+      <c r="I37" s="145"/>
+      <c r="J37" s="145">
+        <v>50000</v>
+      </c>
+      <c r="K37" s="145"/>
+      <c r="L37" s="144"/>
+      <c r="M37" s="145">
+        <v>200000</v>
+      </c>
+      <c r="N37" s="145"/>
+      <c r="O37" s="143"/>
+      <c r="Q37" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B38" s="165" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="143"/>
+      <c r="D38" s="145">
+        <v>5000</v>
+      </c>
+      <c r="E38" s="145">
+        <v>5000</v>
+      </c>
+      <c r="F38" s="145">
+        <v>5000</v>
+      </c>
+      <c r="G38" s="145">
+        <v>10000</v>
+      </c>
+      <c r="H38" s="145">
+        <v>10000</v>
+      </c>
+      <c r="I38" s="145">
+        <v>10000</v>
+      </c>
+      <c r="J38" s="145">
+        <v>15000</v>
+      </c>
+      <c r="K38" s="145">
+        <v>15000</v>
+      </c>
+      <c r="L38" s="145">
+        <v>15000</v>
+      </c>
+      <c r="M38" s="145">
+        <v>20000</v>
+      </c>
+      <c r="N38" s="145">
+        <v>20000</v>
+      </c>
+      <c r="O38" s="143">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="166"/>
+      <c r="C39" s="146"/>
+      <c r="D39" s="147">
+        <f>SUM(D36:D38)</f>
+        <v>5000</v>
+      </c>
+      <c r="E39" s="147">
+        <f>SUM(E36:E38)</f>
+        <v>5000</v>
+      </c>
+      <c r="F39" s="147">
+        <f>SUM(F36:F38)</f>
+        <v>105000</v>
+      </c>
+      <c r="G39" s="147">
+        <f>SUM(G36:G38)</f>
+        <v>60000</v>
+      </c>
+      <c r="H39" s="147">
+        <f>SUM(H36:H38)</f>
+        <v>20000</v>
+      </c>
+      <c r="I39" s="147">
+        <f>SUM(I36:I38)</f>
+        <v>20000</v>
+      </c>
+      <c r="J39" s="147">
+        <f>SUM(J36:J38)</f>
+        <v>75000</v>
+      </c>
+      <c r="K39" s="147">
+        <f>SUM(K36:K38)</f>
+        <v>25000</v>
+      </c>
+      <c r="L39" s="147">
+        <f>SUM(L36:L38)</f>
+        <v>25000</v>
+      </c>
+      <c r="M39" s="147">
+        <f>SUM(M36:M38)</f>
+        <v>240000</v>
+      </c>
+      <c r="N39" s="147">
+        <f>SUM(N36:N38)</f>
         <v>40000</v>
       </c>
-      <c r="J8" s="50">
-        <f t="shared" si="1"/>
+      <c r="O39" s="148">
+        <f>SUM(O36:O38)</f>
+        <v>40000</v>
+      </c>
+      <c r="P39" s="50">
+        <f>SUM(D39:O39)</f>
+        <v>660000</v>
+      </c>
+    </row>
+    <row r="40" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="169" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" s="170"/>
+      <c r="D40" s="66">
+        <f>D21+D23+D27+D29+D31+D33+D35+D39</f>
+        <v>17000</v>
+      </c>
+      <c r="E40" s="67">
+        <f t="shared" ref="E40:O40" si="9">E21+E23+E27+E29+E31+E33+E35+E39</f>
         <v>24000</v>
       </c>
-      <c r="K8" s="50">
-        <f t="shared" si="1"/>
-        <v>1488000</v>
-      </c>
-      <c r="L8" s="50">
-        <f t="shared" si="1"/>
-        <v>330000</v>
-      </c>
-      <c r="M8" s="52">
-        <f t="shared" si="1"/>
-        <v>300000</v>
-      </c>
-      <c r="N8" s="31">
-        <f>SUM(B8:M8)</f>
-        <v>2614000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="95" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="42">
-        <v>2</v>
-      </c>
-      <c r="E9" s="42">
-        <v>2</v>
-      </c>
-      <c r="F9" s="42">
-        <v>4</v>
-      </c>
-      <c r="G9" s="42">
-        <v>4</v>
-      </c>
-      <c r="H9" s="42">
-        <v>8</v>
-      </c>
-      <c r="I9" s="42">
-        <v>8</v>
-      </c>
-      <c r="J9" s="42">
-        <v>10</v>
-      </c>
-      <c r="K9" s="42">
-        <v>10</v>
-      </c>
-      <c r="L9" s="42">
-        <v>10</v>
-      </c>
-      <c r="M9" s="43">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="95"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="42">
-        <v>20000</v>
-      </c>
-      <c r="E10" s="42">
-        <v>20000</v>
-      </c>
-      <c r="F10" s="42">
-        <v>20000</v>
-      </c>
-      <c r="G10" s="42">
-        <v>20000</v>
-      </c>
-      <c r="H10" s="42">
-        <v>20000</v>
-      </c>
-      <c r="I10" s="42">
-        <v>20000</v>
-      </c>
-      <c r="J10" s="42">
-        <v>20000</v>
-      </c>
-      <c r="K10" s="42">
-        <v>20000</v>
-      </c>
-      <c r="L10" s="42">
-        <v>20000</v>
-      </c>
-      <c r="M10" s="43">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="95"/>
-      <c r="B11" s="51">
-        <f t="shared" ref="B11" si="2">B9*B10</f>
-        <v>0</v>
-      </c>
-      <c r="C11" s="50">
-        <f t="shared" ref="C11" si="3">C9*C10</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="50">
-        <f t="shared" ref="D11" si="4">D9*D10</f>
-        <v>40000</v>
-      </c>
-      <c r="E11" s="50">
-        <f t="shared" ref="E11" si="5">E9*E10</f>
-        <v>40000</v>
-      </c>
-      <c r="F11" s="50">
-        <f t="shared" ref="F11" si="6">F9*F10</f>
-        <v>80000</v>
-      </c>
-      <c r="G11" s="50">
-        <f t="shared" ref="G11" si="7">G9*G10</f>
-        <v>80000</v>
-      </c>
-      <c r="H11" s="50">
-        <f t="shared" ref="H11" si="8">H9*H10</f>
-        <v>160000</v>
-      </c>
-      <c r="I11" s="50">
-        <f t="shared" ref="I11" si="9">I9*I10</f>
-        <v>160000</v>
-      </c>
-      <c r="J11" s="50">
-        <f t="shared" ref="J11" si="10">J9*J10</f>
-        <v>200000</v>
-      </c>
-      <c r="K11" s="50">
-        <f t="shared" ref="K11" si="11">K9*K10</f>
-        <v>200000</v>
-      </c>
-      <c r="L11" s="50">
-        <f t="shared" ref="L11" si="12">L9*L10</f>
-        <v>200000</v>
-      </c>
-      <c r="M11" s="52">
-        <f t="shared" ref="M11" si="13">M9*M10</f>
-        <v>200000</v>
-      </c>
-      <c r="N11" s="47">
-        <f>SUM(B11:M11)</f>
-        <v>1360000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="95" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="42">
-        <v>2</v>
-      </c>
-      <c r="E12" s="42">
-        <v>2</v>
-      </c>
-      <c r="F12" s="42">
-        <v>4</v>
-      </c>
-      <c r="G12" s="42">
-        <v>4</v>
-      </c>
-      <c r="H12" s="42">
-        <v>8</v>
-      </c>
-      <c r="I12" s="42">
-        <v>8</v>
-      </c>
-      <c r="J12" s="42">
-        <v>10</v>
-      </c>
-      <c r="K12" s="42">
-        <v>10</v>
-      </c>
-      <c r="L12" s="42">
-        <v>10</v>
-      </c>
-      <c r="M12" s="43">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="95"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40">
-        <v>5000</v>
-      </c>
-      <c r="E13" s="40">
-        <v>5000</v>
-      </c>
-      <c r="F13" s="40">
-        <v>5000</v>
-      </c>
-      <c r="G13" s="40">
-        <v>5000</v>
-      </c>
-      <c r="H13" s="40">
-        <v>5000</v>
-      </c>
-      <c r="I13" s="40">
-        <v>5000</v>
-      </c>
-      <c r="J13" s="40">
-        <v>5000</v>
-      </c>
-      <c r="K13" s="40">
-        <v>5000</v>
-      </c>
-      <c r="L13" s="40">
-        <v>5000</v>
-      </c>
-      <c r="M13" s="41">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="95"/>
-      <c r="B14" s="53">
-        <f t="shared" ref="B14:C14" si="14">B12*B13</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="54">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="D14" s="54">
-        <f t="shared" ref="D14" si="15">D12*D13</f>
-        <v>10000</v>
-      </c>
-      <c r="E14" s="54">
-        <f t="shared" ref="E14" si="16">E12*E13</f>
-        <v>10000</v>
-      </c>
-      <c r="F14" s="54">
-        <f t="shared" ref="F14" si="17">F12*F13</f>
-        <v>20000</v>
-      </c>
-      <c r="G14" s="54">
-        <f t="shared" ref="G14" si="18">G12*G13</f>
-        <v>20000</v>
-      </c>
-      <c r="H14" s="54">
-        <f t="shared" ref="H14" si="19">H12*H13</f>
-        <v>40000</v>
-      </c>
-      <c r="I14" s="54">
-        <f t="shared" ref="I14" si="20">I12*I13</f>
-        <v>40000</v>
-      </c>
-      <c r="J14" s="54">
-        <f t="shared" ref="J14" si="21">J12*J13</f>
-        <v>50000</v>
-      </c>
-      <c r="K14" s="54">
-        <f t="shared" ref="K14" si="22">K12*K13</f>
-        <v>50000</v>
-      </c>
-      <c r="L14" s="54">
-        <f t="shared" ref="L14" si="23">L12*L13</f>
-        <v>50000</v>
-      </c>
-      <c r="M14" s="55">
-        <f t="shared" ref="M14" si="24">M12*M13</f>
-        <v>50000</v>
-      </c>
-      <c r="N14" s="47">
-        <f>SUM(B14:M14)</f>
-        <v>340000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="48"/>
-      <c r="B15" s="66">
-        <f>B5+B8+B11+B14</f>
-        <v>76000</v>
-      </c>
-      <c r="C15" s="67">
-        <f t="shared" ref="C15:M15" si="25">C5+C8+C11+C14</f>
+      <c r="F40" s="67">
+        <f t="shared" si="9"/>
+        <v>171000</v>
+      </c>
+      <c r="G40" s="67">
+        <f t="shared" si="9"/>
+        <v>134000</v>
+      </c>
+      <c r="H40" s="67">
+        <f t="shared" si="9"/>
+        <v>142000</v>
+      </c>
+      <c r="I40" s="67">
+        <f t="shared" si="9"/>
+        <v>149000</v>
+      </c>
+      <c r="J40" s="67">
+        <f t="shared" si="9"/>
+        <v>290000</v>
+      </c>
+      <c r="K40" s="67">
+        <f t="shared" si="9"/>
+        <v>240000</v>
+      </c>
+      <c r="L40" s="67">
+        <f t="shared" si="9"/>
+        <v>288000</v>
+      </c>
+      <c r="M40" s="67">
+        <f t="shared" si="9"/>
+        <v>550000</v>
+      </c>
+      <c r="N40" s="67">
+        <f t="shared" si="9"/>
+        <v>356000</v>
+      </c>
+      <c r="O40" s="68">
+        <f t="shared" si="9"/>
+        <v>356000</v>
+      </c>
+      <c r="P40" s="58">
+        <f>SUM(D40:O40)</f>
+        <v>2717000</v>
+      </c>
+    </row>
+    <row r="41" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="171" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" s="172"/>
+      <c r="D41" s="77">
+        <f>D15-D40</f>
+        <v>71000</v>
+      </c>
+      <c r="E41" s="78">
+        <f>E15-E40</f>
         <v>144000</v>
       </c>
-      <c r="D15" s="67">
-        <f t="shared" si="25"/>
-        <v>220000</v>
-      </c>
-      <c r="E15" s="67">
-        <f t="shared" si="25"/>
-        <v>210000</v>
-      </c>
-      <c r="F15" s="67">
-        <f t="shared" si="25"/>
-        <v>310000</v>
-      </c>
-      <c r="G15" s="67">
-        <f t="shared" si="25"/>
-        <v>352000</v>
-      </c>
-      <c r="H15" s="67">
-        <f t="shared" si="25"/>
-        <v>460000</v>
-      </c>
-      <c r="I15" s="67">
-        <f t="shared" si="25"/>
-        <v>440000</v>
-      </c>
-      <c r="J15" s="67">
-        <f t="shared" si="25"/>
-        <v>514000</v>
-      </c>
-      <c r="K15" s="67">
-        <f t="shared" si="25"/>
-        <v>2018000</v>
-      </c>
-      <c r="L15" s="67">
-        <f t="shared" si="25"/>
-        <v>880000</v>
-      </c>
-      <c r="M15" s="68">
-        <f t="shared" si="25"/>
-        <v>850000</v>
-      </c>
-      <c r="N15" s="65">
-        <f>SUM(B15:M15)</f>
-        <v>6474000</v>
-      </c>
-      <c r="O15" s="47"/>
-    </row>
-    <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="48"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="47"/>
-    </row>
-    <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="89" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="90"/>
-      <c r="D17" s="90"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="90"/>
-      <c r="I17" s="90"/>
-      <c r="J17" s="90"/>
-      <c r="K17" s="90"/>
-      <c r="L17" s="90"/>
-      <c r="M17" s="91"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="95" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="33">
-        <v>4</v>
-      </c>
-      <c r="C18" s="34">
-        <v>8</v>
-      </c>
-      <c r="D18" s="34">
-        <v>10</v>
-      </c>
-      <c r="E18" s="34">
-        <v>10</v>
-      </c>
-      <c r="F18" s="34">
-        <v>14</v>
-      </c>
-      <c r="G18" s="34">
-        <v>18</v>
-      </c>
-      <c r="H18" s="34">
-        <v>20</v>
-      </c>
-      <c r="I18" s="34">
-        <v>20</v>
-      </c>
-      <c r="J18" s="34">
-        <v>24</v>
-      </c>
-      <c r="K18" s="34">
-        <v>28</v>
-      </c>
-      <c r="L18" s="34">
-        <v>30</v>
-      </c>
-      <c r="M18" s="35">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="95"/>
-      <c r="B19" s="36">
-        <v>2000</v>
-      </c>
-      <c r="C19" s="37">
-        <v>2000</v>
-      </c>
-      <c r="D19" s="37">
-        <v>2000</v>
-      </c>
-      <c r="E19" s="37">
-        <v>2000</v>
-      </c>
-      <c r="F19" s="37">
-        <v>2000</v>
-      </c>
-      <c r="G19" s="37">
-        <v>2000</v>
-      </c>
-      <c r="H19" s="37">
-        <v>2000</v>
-      </c>
-      <c r="I19" s="37">
-        <v>2000</v>
-      </c>
-      <c r="J19" s="37">
-        <v>2000</v>
-      </c>
-      <c r="K19" s="37">
-        <v>2000</v>
-      </c>
-      <c r="L19" s="37">
-        <v>2000</v>
-      </c>
-      <c r="M19" s="38">
-        <v>2000</v>
-      </c>
-      <c r="N19" s="30"/>
-      <c r="O19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="95"/>
-      <c r="B20" s="36">
-        <v>0</v>
-      </c>
-      <c r="C20" s="37">
-        <v>5000</v>
-      </c>
-      <c r="D20" s="37">
-        <v>10000</v>
-      </c>
-      <c r="E20" s="37">
-        <v>10000</v>
-      </c>
-      <c r="F20" s="37">
-        <v>10000</v>
-      </c>
-      <c r="G20" s="37">
-        <v>15000</v>
-      </c>
-      <c r="H20" s="37">
-        <v>20000</v>
-      </c>
-      <c r="I20" s="37">
-        <v>20000</v>
-      </c>
-      <c r="J20" s="37">
-        <v>20000</v>
-      </c>
-      <c r="K20" s="37">
-        <v>25000</v>
-      </c>
-      <c r="L20" s="37">
-        <v>30000</v>
-      </c>
-      <c r="M20" s="38">
-        <v>30000</v>
-      </c>
-      <c r="N20" s="30"/>
-      <c r="O20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="95"/>
-      <c r="B21" s="36">
-        <f>B5*0.01</f>
-        <v>400</v>
-      </c>
-      <c r="C21" s="37">
-        <f>C5*0.01</f>
-        <v>800</v>
-      </c>
-      <c r="D21" s="37">
-        <f t="shared" ref="D21:L21" si="26">D5*0.01</f>
-        <v>1000</v>
-      </c>
-      <c r="E21" s="37">
-        <f t="shared" si="26"/>
-        <v>1000</v>
-      </c>
-      <c r="F21" s="37">
-        <f t="shared" si="26"/>
-        <v>1400</v>
-      </c>
-      <c r="G21" s="37">
-        <f t="shared" si="26"/>
-        <v>1800</v>
-      </c>
-      <c r="H21" s="37">
-        <f t="shared" si="26"/>
-        <v>2000</v>
-      </c>
-      <c r="I21" s="37">
-        <f t="shared" si="26"/>
-        <v>2000</v>
-      </c>
-      <c r="J21" s="37">
-        <f t="shared" si="26"/>
-        <v>2400</v>
-      </c>
-      <c r="K21" s="37">
-        <f t="shared" si="26"/>
-        <v>2800</v>
-      </c>
-      <c r="L21" s="37">
-        <f t="shared" si="26"/>
-        <v>3000</v>
-      </c>
-      <c r="M21" s="38">
-        <f>M5*0.01</f>
-        <v>3000</v>
-      </c>
-      <c r="N21" s="30"/>
-      <c r="O21" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="95"/>
-      <c r="B22" s="51">
-        <f>(B18*B19)+B20+B21</f>
-        <v>8400</v>
-      </c>
-      <c r="C22" s="50">
-        <f>(C18*C19)+C20+C21</f>
-        <v>21800</v>
-      </c>
-      <c r="D22" s="50">
-        <f t="shared" ref="D22:L22" si="27">(D18*D19)+D20+D21</f>
-        <v>31000</v>
-      </c>
-      <c r="E22" s="50">
-        <f t="shared" si="27"/>
-        <v>31000</v>
-      </c>
-      <c r="F22" s="50">
-        <f t="shared" si="27"/>
-        <v>39400</v>
-      </c>
-      <c r="G22" s="50">
-        <f t="shared" si="27"/>
-        <v>52800</v>
-      </c>
-      <c r="H22" s="50">
-        <f t="shared" si="27"/>
-        <v>62000</v>
-      </c>
-      <c r="I22" s="50">
-        <f t="shared" si="27"/>
-        <v>62000</v>
-      </c>
-      <c r="J22" s="50">
-        <f t="shared" si="27"/>
-        <v>70400</v>
-      </c>
-      <c r="K22" s="50">
-        <f t="shared" si="27"/>
-        <v>83800</v>
-      </c>
-      <c r="L22" s="50">
-        <f t="shared" si="27"/>
-        <v>93000</v>
-      </c>
-      <c r="M22" s="52">
-        <f>(M18*M19) + M20+M21</f>
-        <v>93000</v>
-      </c>
-      <c r="N22" s="31">
-        <f>SUM(B22:M22) * -1</f>
-        <v>-648600</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="95" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="39"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="42">
-        <v>2</v>
-      </c>
-      <c r="E23" s="42">
-        <v>2</v>
-      </c>
-      <c r="F23" s="42">
-        <v>4</v>
-      </c>
-      <c r="G23" s="42">
-        <v>4</v>
-      </c>
-      <c r="H23" s="42">
-        <v>8</v>
-      </c>
-      <c r="I23" s="42">
-        <v>8</v>
-      </c>
-      <c r="J23" s="42">
-        <v>10</v>
-      </c>
-      <c r="K23" s="42">
-        <v>10</v>
-      </c>
-      <c r="L23" s="42">
-        <v>10</v>
-      </c>
-      <c r="M23" s="43">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="95"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57">
-        <v>18000</v>
-      </c>
-      <c r="E24" s="57">
-        <v>18000</v>
-      </c>
-      <c r="F24" s="57">
-        <v>18000</v>
-      </c>
-      <c r="G24" s="57">
-        <v>18000</v>
-      </c>
-      <c r="H24" s="57">
-        <v>18000</v>
-      </c>
-      <c r="I24" s="57">
-        <v>18000</v>
-      </c>
-      <c r="J24" s="57">
-        <v>18000</v>
-      </c>
-      <c r="K24" s="57">
-        <v>18000</v>
-      </c>
-      <c r="L24" s="57">
-        <v>18000</v>
-      </c>
-      <c r="M24" s="58">
-        <v>18000</v>
-      </c>
-      <c r="N24" s="30"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="95"/>
-      <c r="B25" s="51">
-        <f t="shared" ref="B25" si="28">B23*B24</f>
-        <v>0</v>
-      </c>
-      <c r="C25" s="50">
-        <f t="shared" ref="C25" si="29">C23*C24</f>
-        <v>0</v>
-      </c>
-      <c r="D25" s="50">
-        <f t="shared" ref="D25" si="30">D23*D24</f>
-        <v>36000</v>
-      </c>
-      <c r="E25" s="50">
-        <f t="shared" ref="E25" si="31">E23*E24</f>
-        <v>36000</v>
-      </c>
-      <c r="F25" s="50">
-        <f t="shared" ref="F25" si="32">F23*F24</f>
-        <v>72000</v>
-      </c>
-      <c r="G25" s="50">
-        <f t="shared" ref="G25" si="33">G23*G24</f>
-        <v>72000</v>
-      </c>
-      <c r="H25" s="50">
-        <f t="shared" ref="H25" si="34">H23*H24</f>
-        <v>144000</v>
-      </c>
-      <c r="I25" s="50">
-        <f t="shared" ref="I25" si="35">I23*I24</f>
-        <v>144000</v>
-      </c>
-      <c r="J25" s="50">
-        <f t="shared" ref="J25" si="36">J23*J24</f>
-        <v>180000</v>
-      </c>
-      <c r="K25" s="50">
-        <f t="shared" ref="K25" si="37">K23*K24</f>
-        <v>180000</v>
-      </c>
-      <c r="L25" s="50">
-        <f t="shared" ref="L25" si="38">L23*L24</f>
-        <v>180000</v>
-      </c>
-      <c r="M25" s="52">
-        <f t="shared" ref="M25" si="39">M23*M24</f>
-        <v>180000</v>
-      </c>
-      <c r="N25" s="31">
-        <f>SUM(B25:M25)*-1</f>
-        <v>-1224000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="87" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" s="39"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42">
-        <v>4</v>
-      </c>
-      <c r="L26" s="42">
-        <v>4</v>
-      </c>
-      <c r="M26" s="43">
-        <v>4</v>
-      </c>
-      <c r="P26" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="87"/>
-      <c r="B27" s="59"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="61"/>
-      <c r="J27" s="61"/>
-      <c r="K27" s="61">
-        <v>5000</v>
-      </c>
-      <c r="L27" s="61">
-        <v>5000</v>
-      </c>
-      <c r="M27" s="62">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="87"/>
-      <c r="B28" s="56">
-        <f t="shared" ref="B28" si="40">B26*B27</f>
-        <v>0</v>
-      </c>
-      <c r="C28" s="57">
-        <f t="shared" ref="C28" si="41">C26*C27</f>
-        <v>0</v>
-      </c>
-      <c r="D28" s="57">
-        <f t="shared" ref="D28" si="42">D26*D27</f>
-        <v>0</v>
-      </c>
-      <c r="E28" s="57">
-        <f t="shared" ref="E28" si="43">E26*E27</f>
-        <v>0</v>
-      </c>
-      <c r="F28" s="57">
-        <f t="shared" ref="F28" si="44">F26*F27</f>
-        <v>0</v>
-      </c>
-      <c r="G28" s="57">
-        <f t="shared" ref="G28" si="45">G26*G27</f>
-        <v>0</v>
-      </c>
-      <c r="H28" s="57">
-        <f t="shared" ref="H28" si="46">H26*H27</f>
-        <v>0</v>
-      </c>
-      <c r="I28" s="57">
-        <f t="shared" ref="I28" si="47">I26*I27</f>
-        <v>0</v>
-      </c>
-      <c r="J28" s="57">
-        <f t="shared" ref="J28" si="48">J26*J27</f>
-        <v>0</v>
-      </c>
-      <c r="K28" s="57">
-        <f t="shared" ref="K28" si="49">K26*K27</f>
-        <v>20000</v>
-      </c>
-      <c r="L28" s="57">
-        <f t="shared" ref="L28" si="50">L26*L27</f>
-        <v>20000</v>
-      </c>
-      <c r="M28" s="58">
-        <f t="shared" ref="M28" si="51">M26*M27</f>
-        <v>20000</v>
-      </c>
-      <c r="N28" s="31">
-        <f>SUM(F28:M28)*-1</f>
-        <v>-60000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="87" t="s">
-        <v>52</v>
-      </c>
-      <c r="B29" s="39"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="42">
-        <v>1</v>
-      </c>
-      <c r="G29" s="42">
-        <v>1</v>
-      </c>
-      <c r="H29" s="42">
-        <v>2</v>
-      </c>
-      <c r="I29" s="42">
-        <v>2</v>
-      </c>
-      <c r="J29" s="42">
-        <v>2</v>
-      </c>
-      <c r="K29" s="42">
-        <v>2</v>
-      </c>
-      <c r="L29" s="42">
-        <v>2</v>
-      </c>
-      <c r="M29" s="43">
-        <v>2</v>
-      </c>
-      <c r="P29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="87"/>
-      <c r="B30" s="59"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="61">
-        <v>8000</v>
-      </c>
-      <c r="G30" s="61">
-        <v>8000</v>
-      </c>
-      <c r="H30" s="61">
-        <v>8000</v>
-      </c>
-      <c r="I30" s="61">
-        <v>8000</v>
-      </c>
-      <c r="J30" s="61">
-        <v>8000</v>
-      </c>
-      <c r="K30" s="61">
-        <v>8000</v>
-      </c>
-      <c r="L30" s="61">
-        <v>8000</v>
-      </c>
-      <c r="M30" s="62">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="87"/>
-      <c r="B31" s="56">
-        <f t="shared" ref="B31:C31" si="52">B29*B30</f>
-        <v>0</v>
-      </c>
-      <c r="C31" s="57">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="D31" s="57">
-        <f t="shared" ref="D31" si="53">D29*D30</f>
-        <v>0</v>
-      </c>
-      <c r="E31" s="57">
-        <f t="shared" ref="E31" si="54">E29*E30</f>
-        <v>0</v>
-      </c>
-      <c r="F31" s="57">
-        <f t="shared" ref="F31" si="55">F29*F30</f>
-        <v>8000</v>
-      </c>
-      <c r="G31" s="57">
-        <f t="shared" ref="G31" si="56">G29*G30</f>
-        <v>8000</v>
-      </c>
-      <c r="H31" s="57">
-        <f t="shared" ref="H31" si="57">H29*H30</f>
-        <v>16000</v>
-      </c>
-      <c r="I31" s="57">
-        <f t="shared" ref="I31" si="58">I29*I30</f>
-        <v>16000</v>
-      </c>
-      <c r="J31" s="57">
-        <f t="shared" ref="J31" si="59">J29*J30</f>
-        <v>16000</v>
-      </c>
-      <c r="K31" s="57">
-        <f t="shared" ref="K31" si="60">K29*K30</f>
-        <v>16000</v>
-      </c>
-      <c r="L31" s="57">
-        <f t="shared" ref="L31" si="61">L29*L30</f>
-        <v>16000</v>
-      </c>
-      <c r="M31" s="58">
-        <f t="shared" ref="M31" si="62">M29*M30</f>
-        <v>16000</v>
-      </c>
-      <c r="N31" s="31">
-        <f>SUM(F31:M31)*-1</f>
-        <v>-112000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="88" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32" s="39"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="42">
-        <v>2</v>
-      </c>
-      <c r="L32" s="42">
-        <v>2</v>
-      </c>
-      <c r="M32" s="43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="88"/>
-      <c r="B33" s="59"/>
-      <c r="C33" s="60"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="61"/>
-      <c r="J33" s="61"/>
-      <c r="K33" s="61">
-        <v>10000</v>
-      </c>
-      <c r="L33" s="61">
-        <v>10000</v>
-      </c>
-      <c r="M33" s="62">
-        <v>10000</v>
-      </c>
-      <c r="P33" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="88"/>
-      <c r="B34" s="51">
-        <f t="shared" ref="B34" si="63">B32*B33</f>
-        <v>0</v>
-      </c>
-      <c r="C34" s="50">
-        <f t="shared" ref="C34" si="64">C32*C33</f>
-        <v>0</v>
-      </c>
-      <c r="D34" s="50">
-        <f t="shared" ref="D34" si="65">D32*D33</f>
-        <v>0</v>
-      </c>
-      <c r="E34" s="50">
-        <f t="shared" ref="E34:F34" si="66">E32*E33</f>
-        <v>0</v>
-      </c>
-      <c r="F34" s="50">
-        <f t="shared" si="66"/>
-        <v>0</v>
-      </c>
-      <c r="G34" s="50">
-        <f t="shared" ref="G34" si="67">G32*G33</f>
-        <v>0</v>
-      </c>
-      <c r="H34" s="50">
-        <f t="shared" ref="H34" si="68">H32*H33</f>
-        <v>0</v>
-      </c>
-      <c r="I34" s="50">
-        <f t="shared" ref="I34" si="69">I32*I33</f>
-        <v>0</v>
-      </c>
-      <c r="J34" s="50">
-        <f t="shared" ref="J34" si="70">J32*J33</f>
-        <v>0</v>
-      </c>
-      <c r="K34" s="50">
-        <f t="shared" ref="K34" si="71">K32*K33</f>
-        <v>20000</v>
-      </c>
-      <c r="L34" s="50">
-        <f t="shared" ref="L34" si="72">L32*L33</f>
-        <v>20000</v>
-      </c>
-      <c r="M34" s="52">
-        <f t="shared" ref="M34" si="73">M32*M33</f>
-        <v>20000</v>
-      </c>
-      <c r="N34" s="31">
-        <f>SUM(K34:M34)*-1</f>
-        <v>-60000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="36">
-        <v>5000</v>
-      </c>
-      <c r="C35" s="37">
-        <v>5000</v>
-      </c>
-      <c r="D35" s="37">
-        <v>5000</v>
-      </c>
-      <c r="E35" s="37">
-        <v>5000</v>
-      </c>
-      <c r="F35" s="42">
-        <v>10000</v>
-      </c>
-      <c r="G35" s="42">
-        <v>10000</v>
-      </c>
-      <c r="H35" s="42">
-        <v>10000</v>
-      </c>
-      <c r="I35" s="42">
-        <v>10000</v>
-      </c>
-      <c r="J35" s="42">
-        <v>15000</v>
-      </c>
-      <c r="K35" s="42">
-        <v>15000</v>
-      </c>
-      <c r="L35" s="42">
-        <v>15000</v>
-      </c>
-      <c r="M35" s="43">
-        <v>15000</v>
-      </c>
-      <c r="N35" s="31"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="49" t="s">
-        <v>64</v>
-      </c>
-      <c r="B36" s="36"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="42">
-        <v>10000</v>
-      </c>
-      <c r="G36" s="42">
-        <v>10000</v>
-      </c>
-      <c r="H36" s="42">
-        <v>10000</v>
-      </c>
-      <c r="I36" s="42">
-        <v>10000</v>
-      </c>
-      <c r="J36" s="42">
-        <v>10000</v>
-      </c>
-      <c r="K36" s="42">
-        <v>20000</v>
-      </c>
-      <c r="L36" s="42">
-        <v>20000</v>
-      </c>
-      <c r="M36" s="43">
-        <v>20000</v>
-      </c>
-      <c r="N36" s="31"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="49" t="s">
-        <v>65</v>
-      </c>
-      <c r="B37" s="36"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="42">
-        <v>100000</v>
-      </c>
-      <c r="G37" s="42"/>
-      <c r="H37" s="42">
-        <v>50000</v>
-      </c>
-      <c r="I37" s="42"/>
-      <c r="J37" s="42"/>
-      <c r="K37" s="42">
-        <v>200000</v>
-      </c>
-      <c r="L37" s="42"/>
-      <c r="M37" s="43"/>
-      <c r="N37" s="31"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="B38" s="56">
-        <v>5000</v>
-      </c>
-      <c r="C38" s="57">
-        <v>5000</v>
-      </c>
-      <c r="D38" s="57">
-        <v>5000</v>
-      </c>
-      <c r="E38" s="57">
-        <v>10000</v>
-      </c>
-      <c r="F38" s="57">
-        <v>10000</v>
-      </c>
-      <c r="G38" s="57">
-        <v>10000</v>
-      </c>
-      <c r="H38" s="57">
-        <v>15000</v>
-      </c>
-      <c r="I38" s="57">
-        <v>15000</v>
-      </c>
-      <c r="J38" s="57">
-        <v>15000</v>
-      </c>
-      <c r="K38" s="57">
-        <v>20000</v>
-      </c>
-      <c r="L38" s="57">
-        <v>20000</v>
-      </c>
-      <c r="M38" s="58">
-        <v>20000</v>
-      </c>
-      <c r="N38" s="31"/>
-    </row>
-    <row r="39" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="36">
-        <f>SUM(B35:B38)</f>
-        <v>10000</v>
-      </c>
-      <c r="C39" s="37">
-        <f t="shared" ref="C39:M39" si="74">SUM(C35:C38)</f>
-        <v>10000</v>
-      </c>
-      <c r="D39" s="37">
-        <f t="shared" si="74"/>
-        <v>10000</v>
-      </c>
-      <c r="E39" s="37">
-        <f t="shared" si="74"/>
-        <v>15000</v>
-      </c>
-      <c r="F39" s="37">
-        <f t="shared" si="74"/>
-        <v>130000</v>
-      </c>
-      <c r="G39" s="37">
-        <f t="shared" si="74"/>
-        <v>30000</v>
-      </c>
-      <c r="H39" s="37">
-        <f t="shared" si="74"/>
-        <v>85000</v>
-      </c>
-      <c r="I39" s="37">
-        <f t="shared" si="74"/>
-        <v>35000</v>
-      </c>
-      <c r="J39" s="37">
-        <f t="shared" si="74"/>
-        <v>40000</v>
-      </c>
-      <c r="K39" s="37">
-        <f t="shared" si="74"/>
-        <v>255000</v>
-      </c>
-      <c r="L39" s="37">
-        <f t="shared" si="74"/>
-        <v>55000</v>
-      </c>
-      <c r="M39" s="38">
-        <f t="shared" si="74"/>
-        <v>55000</v>
-      </c>
-      <c r="N39" s="31">
-        <f>SUM(B39:M39)*-1</f>
-        <v>-730000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="44">
-        <f>B22+B25+B28+B31+B34+B39</f>
-        <v>18400</v>
-      </c>
-      <c r="C40" s="45">
-        <f t="shared" ref="C40:M40" si="75">C22+C25+C28+C31+C34+C39</f>
-        <v>31800</v>
-      </c>
-      <c r="D40" s="45">
-        <f t="shared" si="75"/>
-        <v>77000</v>
-      </c>
-      <c r="E40" s="45">
-        <f t="shared" si="75"/>
-        <v>82000</v>
-      </c>
-      <c r="F40" s="45">
-        <f t="shared" si="75"/>
-        <v>249400</v>
-      </c>
-      <c r="G40" s="45">
-        <f t="shared" si="75"/>
-        <v>162800</v>
-      </c>
-      <c r="H40" s="45">
-        <f t="shared" si="75"/>
-        <v>307000</v>
-      </c>
-      <c r="I40" s="45">
-        <f t="shared" si="75"/>
-        <v>257000</v>
-      </c>
-      <c r="J40" s="45">
-        <f t="shared" si="75"/>
-        <v>306400</v>
-      </c>
-      <c r="K40" s="45">
-        <f t="shared" si="75"/>
-        <v>574800</v>
-      </c>
-      <c r="L40" s="45">
-        <f t="shared" si="75"/>
-        <v>384000</v>
-      </c>
-      <c r="M40" s="46">
-        <f t="shared" si="75"/>
-        <v>384000</v>
-      </c>
-      <c r="N40" s="64">
-        <f>SUM(B40:M40)</f>
-        <v>2834600</v>
-      </c>
-      <c r="O40" s="31"/>
-    </row>
-    <row r="41" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="44">
-        <f t="shared" ref="B41:M41" si="76">B15-B40</f>
-        <v>57600</v>
-      </c>
-      <c r="C41" s="45">
-        <f t="shared" si="76"/>
-        <v>112200</v>
-      </c>
-      <c r="D41" s="45">
-        <f t="shared" si="76"/>
-        <v>143000</v>
-      </c>
-      <c r="E41" s="45">
-        <f t="shared" si="76"/>
-        <v>128000</v>
-      </c>
-      <c r="F41" s="45">
-        <f t="shared" si="76"/>
-        <v>60600</v>
-      </c>
-      <c r="G41" s="45">
-        <f t="shared" si="76"/>
-        <v>189200</v>
-      </c>
-      <c r="H41" s="45">
-        <f t="shared" si="76"/>
-        <v>153000</v>
-      </c>
-      <c r="I41" s="45">
-        <f t="shared" si="76"/>
-        <v>183000</v>
-      </c>
-      <c r="J41" s="45">
-        <f t="shared" si="76"/>
-        <v>207600</v>
-      </c>
-      <c r="K41" s="45">
-        <f t="shared" si="76"/>
-        <v>1443200</v>
-      </c>
-      <c r="L41" s="45">
-        <f t="shared" si="76"/>
-        <v>496000</v>
-      </c>
-      <c r="M41" s="46">
-        <f t="shared" si="76"/>
-        <v>466000</v>
-      </c>
-      <c r="N41" s="63">
-        <f>SUM(B41:M41)</f>
-        <v>3639400</v>
-      </c>
-      <c r="O41" s="31"/>
+      <c r="F41" s="78">
+        <f>F15-F40</f>
+        <v>79000</v>
+      </c>
+      <c r="G41" s="78">
+        <f>G15-G40</f>
+        <v>105000</v>
+      </c>
+      <c r="H41" s="78">
+        <f>H15-H40</f>
+        <v>206000</v>
+      </c>
+      <c r="I41" s="78">
+        <f>I15-I40</f>
+        <v>251000</v>
+      </c>
+      <c r="J41" s="78">
+        <f>J15-J40</f>
+        <v>214000</v>
+      </c>
+      <c r="K41" s="78">
+        <f>K15-K40</f>
+        <v>240000</v>
+      </c>
+      <c r="L41" s="78">
+        <f>L15-L40</f>
+        <v>268000</v>
+      </c>
+      <c r="M41" s="78">
+        <f>M15-M40</f>
+        <v>29000</v>
+      </c>
+      <c r="N41" s="78">
+        <f>N15-N40</f>
+        <v>214000</v>
+      </c>
+      <c r="O41" s="79">
+        <f>O15-O40</f>
+        <v>179000</v>
+      </c>
+      <c r="P41" s="58">
+        <f>SUM(D41:O41)</f>
+        <v>2000000</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="B17:M17"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="A23:A25"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="26">
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="D4:O4"/>
+    <mergeCell ref="D17:O17"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B22:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A17:N19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="19.140625" style="1" customWidth="1"/>
+    <col min="2" max="13" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="64"/>
+      <c r="B17" s="149">
+        <f>Exact!D3</f>
+        <v>42461</v>
+      </c>
+      <c r="C17" s="149">
+        <f>Exact!E3</f>
+        <v>42491</v>
+      </c>
+      <c r="D17" s="149">
+        <f>Exact!F3</f>
+        <v>42522</v>
+      </c>
+      <c r="E17" s="149">
+        <f>Exact!G3</f>
+        <v>42552</v>
+      </c>
+      <c r="F17" s="149">
+        <f>Exact!H3</f>
+        <v>42583</v>
+      </c>
+      <c r="G17" s="149">
+        <f>Exact!I3</f>
+        <v>42614</v>
+      </c>
+      <c r="H17" s="149">
+        <f>Exact!J3</f>
+        <v>42644</v>
+      </c>
+      <c r="I17" s="149">
+        <f>Exact!K3</f>
+        <v>42675</v>
+      </c>
+      <c r="J17" s="149">
+        <f>Exact!L3</f>
+        <v>42705</v>
+      </c>
+      <c r="K17" s="149">
+        <f>Exact!M3</f>
+        <v>42736</v>
+      </c>
+      <c r="L17" s="149">
+        <f>Exact!N3</f>
+        <v>42767</v>
+      </c>
+      <c r="M17" s="149">
+        <f>Exact!O3</f>
+        <v>42795</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="150" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="63">
+        <f>Exact!D41</f>
+        <v>71000</v>
+      </c>
+      <c r="C18" s="63">
+        <f>Exact!E41</f>
+        <v>144000</v>
+      </c>
+      <c r="D18" s="63">
+        <f>Exact!F41</f>
+        <v>79000</v>
+      </c>
+      <c r="E18" s="63">
+        <f>Exact!G41</f>
+        <v>105000</v>
+      </c>
+      <c r="F18" s="63">
+        <f>Exact!H41</f>
+        <v>206000</v>
+      </c>
+      <c r="G18" s="63">
+        <f>Exact!I41</f>
+        <v>251000</v>
+      </c>
+      <c r="H18" s="63">
+        <f>Exact!J41</f>
+        <v>214000</v>
+      </c>
+      <c r="I18" s="63">
+        <f>Exact!K41</f>
+        <v>240000</v>
+      </c>
+      <c r="J18" s="63">
+        <f>Exact!L41</f>
+        <v>268000</v>
+      </c>
+      <c r="K18" s="63">
+        <f>Exact!M41</f>
+        <v>29000</v>
+      </c>
+      <c r="L18" s="63">
+        <f>Exact!N41</f>
+        <v>214000</v>
+      </c>
+      <c r="M18" s="63">
+        <f>Exact!O41</f>
+        <v>179000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="150" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="63">
+        <f>B18*(1-N19)</f>
+        <v>53250</v>
+      </c>
+      <c r="C19" s="63">
+        <f>C18*(1-N19)</f>
+        <v>108000</v>
+      </c>
+      <c r="D19" s="63">
+        <f>D18*(1-N19)</f>
+        <v>59250</v>
+      </c>
+      <c r="E19" s="63">
+        <f>E18*(1-N19)</f>
+        <v>78750</v>
+      </c>
+      <c r="F19" s="63">
+        <f>F18*(1-N19)</f>
+        <v>154500</v>
+      </c>
+      <c r="G19" s="63">
+        <f>G18*(1-N19)</f>
+        <v>188250</v>
+      </c>
+      <c r="H19" s="63">
+        <f>H18*(1-N19)</f>
+        <v>160500</v>
+      </c>
+      <c r="I19" s="63">
+        <f>I18*(1-N19)</f>
+        <v>180000</v>
+      </c>
+      <c r="J19" s="63">
+        <f>J18*(1-N19)</f>
+        <v>201000</v>
+      </c>
+      <c r="K19" s="63">
+        <f>K18*(1-N19)</f>
+        <v>21750</v>
+      </c>
+      <c r="L19" s="63">
+        <f>L18*(1-N19)</f>
+        <v>160500</v>
+      </c>
+      <c r="M19" s="63">
+        <f>M18*(1-N19)</f>
+        <v>134250</v>
+      </c>
+      <c r="N19" s="173">
+        <v>0.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5433,141 +6376,179 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A18:O20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="13" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="29">
-        <v>41091</v>
-      </c>
-      <c r="C18" s="29">
-        <v>41122</v>
-      </c>
-      <c r="D18" s="29">
-        <v>41153</v>
-      </c>
-      <c r="E18" s="29">
-        <v>41183</v>
-      </c>
-      <c r="F18" s="29">
-        <v>41214</v>
-      </c>
-      <c r="G18" s="29">
-        <v>41244</v>
-      </c>
-      <c r="H18" s="29">
-        <v>41275</v>
-      </c>
-      <c r="I18" s="29">
-        <v>41306</v>
-      </c>
-      <c r="J18" s="29">
-        <v>41334</v>
-      </c>
-      <c r="K18" s="29">
-        <v>41365</v>
-      </c>
-      <c r="L18" s="29">
-        <v>41395</v>
-      </c>
-      <c r="M18" s="29">
-        <v>41426</v>
+      <c r="A18" s="64"/>
+      <c r="B18" s="149">
+        <f>Exact!D3</f>
+        <v>42461</v>
+      </c>
+      <c r="C18" s="149">
+        <f>Exact!E3</f>
+        <v>42491</v>
+      </c>
+      <c r="D18" s="149">
+        <f>Exact!F3</f>
+        <v>42522</v>
+      </c>
+      <c r="E18" s="149">
+        <f>Exact!G3</f>
+        <v>42552</v>
+      </c>
+      <c r="F18" s="149">
+        <f>Exact!H3</f>
+        <v>42583</v>
+      </c>
+      <c r="G18" s="149">
+        <f>Exact!I3</f>
+        <v>42614</v>
+      </c>
+      <c r="H18" s="149">
+        <f>Exact!J3</f>
+        <v>42644</v>
+      </c>
+      <c r="I18" s="149">
+        <f>Exact!K3</f>
+        <v>42675</v>
+      </c>
+      <c r="J18" s="149">
+        <f>Exact!L3</f>
+        <v>42705</v>
+      </c>
+      <c r="K18" s="149">
+        <f>Exact!M3</f>
+        <v>42736</v>
+      </c>
+      <c r="L18" s="149">
+        <f>Exact!N3</f>
+        <v>42767</v>
+      </c>
+      <c r="M18" s="149">
+        <f>Exact!O3</f>
+        <v>42795</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="150" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="30">
-        <v>76000</v>
-      </c>
-      <c r="C19" s="30">
-        <v>144000</v>
-      </c>
-      <c r="D19" s="30">
-        <v>220000</v>
-      </c>
-      <c r="E19" s="30">
-        <v>210000</v>
-      </c>
-      <c r="F19" s="30">
-        <v>310000</v>
-      </c>
-      <c r="G19" s="30">
-        <v>352000</v>
-      </c>
-      <c r="H19" s="30">
-        <v>460000</v>
-      </c>
-      <c r="I19" s="30">
-        <v>440000</v>
-      </c>
-      <c r="J19" s="30">
-        <v>514000</v>
-      </c>
-      <c r="K19" s="30">
-        <v>866000</v>
-      </c>
-      <c r="L19" s="30">
-        <v>880000</v>
-      </c>
-      <c r="M19" s="30">
-        <v>850000</v>
-      </c>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30"/>
+      <c r="B19" s="63">
+        <f>Exact!D15</f>
+        <v>88000</v>
+      </c>
+      <c r="C19" s="63">
+        <f>Exact!E15</f>
+        <v>168000</v>
+      </c>
+      <c r="D19" s="63">
+        <f>Exact!F15</f>
+        <v>250000</v>
+      </c>
+      <c r="E19" s="63">
+        <f>Exact!G15</f>
+        <v>239000</v>
+      </c>
+      <c r="F19" s="63">
+        <f>Exact!H15</f>
+        <v>348000</v>
+      </c>
+      <c r="G19" s="63">
+        <f>Exact!I15</f>
+        <v>400000</v>
+      </c>
+      <c r="H19" s="63">
+        <f>Exact!J15</f>
+        <v>504000</v>
+      </c>
+      <c r="I19" s="63">
+        <f>Exact!K15</f>
+        <v>480000</v>
+      </c>
+      <c r="J19" s="63">
+        <f>Exact!L15</f>
+        <v>556000</v>
+      </c>
+      <c r="K19" s="63">
+        <f>Exact!M15</f>
+        <v>579000</v>
+      </c>
+      <c r="L19" s="63">
+        <f>Exact!N15</f>
+        <v>570000</v>
+      </c>
+      <c r="M19" s="63">
+        <f>Exact!O15</f>
+        <v>535000</v>
+      </c>
+      <c r="N19" s="50"/>
+      <c r="O19" s="50"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="150" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="30">
-        <v>18000</v>
-      </c>
-      <c r="C20" s="30">
-        <v>26000</v>
-      </c>
-      <c r="D20" s="30">
-        <v>66000</v>
-      </c>
-      <c r="E20" s="30">
-        <v>71000</v>
-      </c>
-      <c r="F20" s="30">
-        <v>238000</v>
-      </c>
-      <c r="G20" s="30">
-        <v>146000</v>
-      </c>
-      <c r="H20" s="30">
-        <v>285000</v>
-      </c>
-      <c r="I20" s="30">
-        <v>235000</v>
-      </c>
-      <c r="J20" s="30">
-        <v>284000</v>
-      </c>
-      <c r="K20" s="30">
-        <v>539000</v>
-      </c>
-      <c r="L20" s="30">
-        <v>343000</v>
-      </c>
-      <c r="M20" s="30">
-        <v>343000</v>
-      </c>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
+      <c r="B20" s="63">
+        <f>Exact!D40</f>
+        <v>17000</v>
+      </c>
+      <c r="C20" s="63">
+        <f>Exact!E40</f>
+        <v>24000</v>
+      </c>
+      <c r="D20" s="63">
+        <f>Exact!F40</f>
+        <v>171000</v>
+      </c>
+      <c r="E20" s="63">
+        <f>Exact!G40</f>
+        <v>134000</v>
+      </c>
+      <c r="F20" s="63">
+        <f>Exact!H40</f>
+        <v>142000</v>
+      </c>
+      <c r="G20" s="63">
+        <f>Exact!I40</f>
+        <v>149000</v>
+      </c>
+      <c r="H20" s="63">
+        <f>Exact!J40</f>
+        <v>290000</v>
+      </c>
+      <c r="I20" s="63">
+        <f>Exact!K40</f>
+        <v>240000</v>
+      </c>
+      <c r="J20" s="63">
+        <f>Exact!L40</f>
+        <v>288000</v>
+      </c>
+      <c r="K20" s="63">
+        <f>Exact!M40</f>
+        <v>550000</v>
+      </c>
+      <c r="L20" s="63">
+        <f>Exact!N40</f>
+        <v>356000</v>
+      </c>
+      <c r="M20" s="63">
+        <f>Exact!O40</f>
+        <v>356000</v>
+      </c>
+      <c r="N20" s="50"/>
+      <c r="O20" s="50"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -5577,263 +6558,301 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A19:O24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="5" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="13" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="29">
-        <v>41091</v>
-      </c>
-      <c r="C19" s="29">
-        <v>41122</v>
-      </c>
-      <c r="D19" s="29">
-        <v>41153</v>
-      </c>
-      <c r="E19" s="29">
-        <v>41183</v>
-      </c>
-      <c r="F19" s="29">
-        <v>41214</v>
-      </c>
-      <c r="G19" s="29">
-        <v>41244</v>
-      </c>
-      <c r="H19" s="29">
-        <v>41275</v>
-      </c>
-      <c r="I19" s="29">
-        <v>41306</v>
-      </c>
-      <c r="J19" s="29">
-        <v>41334</v>
-      </c>
-      <c r="K19" s="29">
-        <v>41365</v>
-      </c>
-      <c r="L19" s="29">
-        <v>41395</v>
-      </c>
-      <c r="M19" s="29">
-        <v>41426</v>
+      <c r="A19" s="64"/>
+      <c r="B19" s="91">
+        <f>Exact!D3</f>
+        <v>42461</v>
+      </c>
+      <c r="C19" s="91">
+        <f>Exact!E3</f>
+        <v>42491</v>
+      </c>
+      <c r="D19" s="91">
+        <f>Exact!F3</f>
+        <v>42522</v>
+      </c>
+      <c r="E19" s="91">
+        <f>Exact!G3</f>
+        <v>42552</v>
+      </c>
+      <c r="F19" s="91">
+        <f>Exact!H3</f>
+        <v>42583</v>
+      </c>
+      <c r="G19" s="91">
+        <f>Exact!I3</f>
+        <v>42614</v>
+      </c>
+      <c r="H19" s="91">
+        <f>Exact!J3</f>
+        <v>42644</v>
+      </c>
+      <c r="I19" s="91">
+        <f>Exact!K3</f>
+        <v>42675</v>
+      </c>
+      <c r="J19" s="91">
+        <f>Exact!L3</f>
+        <v>42705</v>
+      </c>
+      <c r="K19" s="91">
+        <f>Exact!M3</f>
+        <v>42736</v>
+      </c>
+      <c r="L19" s="91">
+        <f>Exact!N3</f>
+        <v>42767</v>
+      </c>
+      <c r="M19" s="91">
+        <f>Exact!O3</f>
+        <v>42795</v>
       </c>
     </row>
     <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="30">
-        <v>76000</v>
-      </c>
-      <c r="C20" s="30">
-        <v>144000</v>
-      </c>
-      <c r="D20" s="30">
-        <v>220000</v>
-      </c>
-      <c r="E20" s="30">
-        <v>210000</v>
-      </c>
-      <c r="F20" s="30">
-        <v>310000</v>
-      </c>
-      <c r="G20" s="30">
-        <v>352000</v>
-      </c>
-      <c r="H20" s="30">
-        <v>460000</v>
-      </c>
-      <c r="I20" s="30">
-        <v>440000</v>
-      </c>
-      <c r="J20" s="30">
-        <v>514000</v>
-      </c>
-      <c r="K20" s="30">
-        <v>866000</v>
-      </c>
-      <c r="L20" s="30">
-        <v>880000</v>
-      </c>
-      <c r="M20" s="30">
-        <v>850000</v>
-      </c>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
+      <c r="B20" s="63">
+        <f>Exact!D15</f>
+        <v>88000</v>
+      </c>
+      <c r="C20" s="63">
+        <f>Exact!E15</f>
+        <v>168000</v>
+      </c>
+      <c r="D20" s="63">
+        <f>Exact!F15</f>
+        <v>250000</v>
+      </c>
+      <c r="E20" s="63">
+        <f>Exact!G15</f>
+        <v>239000</v>
+      </c>
+      <c r="F20" s="63">
+        <f>Exact!H15</f>
+        <v>348000</v>
+      </c>
+      <c r="G20" s="63">
+        <f>Exact!I15</f>
+        <v>400000</v>
+      </c>
+      <c r="H20" s="63">
+        <f>Exact!J15</f>
+        <v>504000</v>
+      </c>
+      <c r="I20" s="63">
+        <f>Exact!K15</f>
+        <v>480000</v>
+      </c>
+      <c r="J20" s="63">
+        <f>Exact!L15</f>
+        <v>556000</v>
+      </c>
+      <c r="K20" s="63">
+        <f>Exact!M15</f>
+        <v>579000</v>
+      </c>
+      <c r="L20" s="63">
+        <f>Exact!N15</f>
+        <v>570000</v>
+      </c>
+      <c r="M20" s="63">
+        <f>Exact!O15</f>
+        <v>535000</v>
+      </c>
+      <c r="N20" s="50"/>
+      <c r="O20" s="50"/>
     </row>
     <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="30">
-        <v>18000</v>
-      </c>
-      <c r="C21" s="30">
-        <v>26000</v>
-      </c>
-      <c r="D21" s="30">
-        <v>66000</v>
-      </c>
-      <c r="E21" s="30">
-        <v>71000</v>
-      </c>
-      <c r="F21" s="30">
-        <v>238000</v>
-      </c>
-      <c r="G21" s="30">
-        <v>146000</v>
-      </c>
-      <c r="H21" s="30">
-        <v>285000</v>
-      </c>
-      <c r="I21" s="30">
-        <v>235000</v>
-      </c>
-      <c r="J21" s="30">
-        <v>284000</v>
-      </c>
-      <c r="K21" s="30">
-        <v>539000</v>
-      </c>
-      <c r="L21" s="30">
-        <v>343000</v>
-      </c>
-      <c r="M21" s="30">
-        <v>343000</v>
-      </c>
-      <c r="N21" s="30"/>
-      <c r="O21" s="30"/>
+      <c r="B21" s="63">
+        <f>Exact!D40</f>
+        <v>17000</v>
+      </c>
+      <c r="C21" s="63">
+        <f>Exact!E40</f>
+        <v>24000</v>
+      </c>
+      <c r="D21" s="63">
+        <f>Exact!F40</f>
+        <v>171000</v>
+      </c>
+      <c r="E21" s="63">
+        <f>Exact!G40</f>
+        <v>134000</v>
+      </c>
+      <c r="F21" s="63">
+        <f>Exact!H40</f>
+        <v>142000</v>
+      </c>
+      <c r="G21" s="63">
+        <f>Exact!I40</f>
+        <v>149000</v>
+      </c>
+      <c r="H21" s="63">
+        <f>Exact!J40</f>
+        <v>290000</v>
+      </c>
+      <c r="I21" s="63">
+        <f>Exact!K40</f>
+        <v>240000</v>
+      </c>
+      <c r="J21" s="63">
+        <f>Exact!L40</f>
+        <v>288000</v>
+      </c>
+      <c r="K21" s="63">
+        <f>Exact!M40</f>
+        <v>550000</v>
+      </c>
+      <c r="L21" s="63">
+        <f>Exact!N40</f>
+        <v>356000</v>
+      </c>
+      <c r="M21" s="63">
+        <f>Exact!O40</f>
+        <v>356000</v>
+      </c>
+      <c r="N21" s="50"/>
+      <c r="O21" s="50"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="30">
+      <c r="B22" s="90">
         <f>SUM($B$20:B20)</f>
-        <v>76000</v>
-      </c>
-      <c r="C22" s="30">
+        <v>88000</v>
+      </c>
+      <c r="C22" s="90">
         <f>SUM($B$20:C20)</f>
-        <v>220000</v>
-      </c>
-      <c r="D22" s="30">
+        <v>256000</v>
+      </c>
+      <c r="D22" s="90">
         <f>SUM($B$20:D20)</f>
-        <v>440000</v>
-      </c>
-      <c r="E22" s="30">
+        <v>506000</v>
+      </c>
+      <c r="E22" s="90">
         <f>SUM($B$20:E20)</f>
-        <v>650000</v>
-      </c>
-      <c r="F22" s="30">
+        <v>745000</v>
+      </c>
+      <c r="F22" s="90">
         <f>SUM($B$20:F20)</f>
-        <v>960000</v>
-      </c>
-      <c r="G22" s="30">
+        <v>1093000</v>
+      </c>
+      <c r="G22" s="90">
         <f>SUM($B$20:G20)</f>
-        <v>1312000</v>
-      </c>
-      <c r="H22" s="30">
+        <v>1493000</v>
+      </c>
+      <c r="H22" s="90">
         <f>SUM($B$20:H20)</f>
-        <v>1772000</v>
-      </c>
-      <c r="I22" s="30">
+        <v>1997000</v>
+      </c>
+      <c r="I22" s="90">
         <f>SUM($B$20:I20)</f>
-        <v>2212000</v>
-      </c>
-      <c r="J22" s="30">
+        <v>2477000</v>
+      </c>
+      <c r="J22" s="90">
         <f>SUM($B$20:J20)</f>
-        <v>2726000</v>
-      </c>
-      <c r="K22" s="30">
+        <v>3033000</v>
+      </c>
+      <c r="K22" s="90">
         <f>SUM($B$20:K20)</f>
-        <v>3592000</v>
-      </c>
-      <c r="L22" s="30">
+        <v>3612000</v>
+      </c>
+      <c r="L22" s="90">
         <f>SUM($B$20:L20)</f>
-        <v>4472000</v>
-      </c>
-      <c r="M22" s="30">
+        <v>4182000</v>
+      </c>
+      <c r="M22" s="90">
         <f>SUM($B$20:M20)</f>
-        <v>5322000</v>
+        <v>4717000</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="30">
+      <c r="B23" s="90">
         <f>SUM($B$21:B21)</f>
-        <v>18000</v>
-      </c>
-      <c r="C23" s="30">
+        <v>17000</v>
+      </c>
+      <c r="C23" s="90">
         <f>SUM($B$21:C21)</f>
-        <v>44000</v>
-      </c>
-      <c r="D23" s="30">
+        <v>41000</v>
+      </c>
+      <c r="D23" s="90">
         <f>SUM($B$21:D21)</f>
-        <v>110000</v>
-      </c>
-      <c r="E23" s="30">
+        <v>212000</v>
+      </c>
+      <c r="E23" s="90">
         <f>SUM($B$21:E21)</f>
-        <v>181000</v>
-      </c>
-      <c r="F23" s="30">
+        <v>346000</v>
+      </c>
+      <c r="F23" s="90">
         <f>SUM($B$21:F21)</f>
-        <v>419000</v>
-      </c>
-      <c r="G23" s="30">
+        <v>488000</v>
+      </c>
+      <c r="G23" s="90">
         <f>SUM($B$21:G21)</f>
-        <v>565000</v>
-      </c>
-      <c r="H23" s="30">
+        <v>637000</v>
+      </c>
+      <c r="H23" s="90">
         <f>SUM($B$21:H21)</f>
-        <v>850000</v>
-      </c>
-      <c r="I23" s="30">
+        <v>927000</v>
+      </c>
+      <c r="I23" s="90">
         <f>SUM($B$21:I21)</f>
-        <v>1085000</v>
-      </c>
-      <c r="J23" s="30">
+        <v>1167000</v>
+      </c>
+      <c r="J23" s="90">
         <f>SUM($B$21:J21)</f>
-        <v>1369000</v>
-      </c>
-      <c r="K23" s="30">
+        <v>1455000</v>
+      </c>
+      <c r="K23" s="90">
         <f>SUM($B$21:K21)</f>
-        <v>1908000</v>
-      </c>
-      <c r="L23" s="30">
+        <v>2005000</v>
+      </c>
+      <c r="L23" s="90">
         <f>SUM($B$21:L21)</f>
-        <v>2251000</v>
-      </c>
-      <c r="M23" s="30">
+        <v>2361000</v>
+      </c>
+      <c r="M23" s="90">
         <f>SUM($B$21:M21)</f>
-        <v>2594000</v>
+        <v>2717000</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="50"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="C22:F22 G22:M22 C23:L23" formulaRange="1"/>

--- a/Project/Retinue/Revenue Cost Model.xlsx
+++ b/Project/Retinue/Revenue Cost Model.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Product Definition" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="80">
   <si>
     <t>Software Modules</t>
   </si>
@@ -255,6 +255,9 @@
   </si>
   <si>
     <t>50000 per employee</t>
+  </si>
+  <si>
+    <t>Sales Comission</t>
   </si>
 </sst>
 </file>
@@ -951,60 +954,6 @@
     <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1018,32 +967,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="1" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="1" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="1" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1053,28 +981,10 @@
     <xf numFmtId="164" fontId="1" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="17" fontId="1" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="1" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1090,18 +1000,6 @@
     <xf numFmtId="164" fontId="0" fillId="12" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="12" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="12" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="12" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="12" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1120,19 +1018,10 @@
     <xf numFmtId="164" fontId="0" fillId="13" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="13" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="13" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="13" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="13" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="13" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="13" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1154,33 +1043,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1199,11 +1061,60 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1217,10 +1128,102 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1323,40 +1326,40 @@
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"_-;_-@_-</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>53250</c:v>
+                  <c:v>50250</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>108000</c:v>
+                  <c:v>102000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>59250</c:v>
+                  <c:v>51750</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>78750</c:v>
+                  <c:v>71250</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>154500</c:v>
+                  <c:v>144000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>188250</c:v>
+                  <c:v>174750</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>160500</c:v>
+                  <c:v>145500</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>180000</c:v>
+                  <c:v>165000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>201000</c:v>
+                  <c:v>183000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21750</c:v>
+                  <c:v>750</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>160500</c:v>
+                  <c:v>138000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>134250</c:v>
+                  <c:v>111750</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1429,40 +1432,40 @@
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"_-;_-@_-</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>71000</c:v>
+                  <c:v>67000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>144000</c:v>
+                  <c:v>136000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>79000</c:v>
+                  <c:v>69000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>105000</c:v>
+                  <c:v>95000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>206000</c:v>
+                  <c:v>192000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>251000</c:v>
+                  <c:v>233000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>214000</c:v>
+                  <c:v>194000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>240000</c:v>
+                  <c:v>220000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>268000</c:v>
+                  <c:v>244000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>29000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>214000</c:v>
+                  <c:v>184000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>179000</c:v>
+                  <c:v>149000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1477,11 +1480,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="96947584"/>
-        <c:axId val="96957568"/>
+        <c:axId val="61100800"/>
+        <c:axId val="61102336"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="96947584"/>
+        <c:axId val="61100800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1492,14 +1495,14 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96957568"/>
+        <c:crossAx val="61102336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="96957568"/>
+        <c:axId val="61102336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1522,21 +1525,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96947584"/>
+        <c:crossAx val="61100800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -1759,40 +1760,40 @@
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"_-;_-@_-</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>17000</c:v>
+                  <c:v>21000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24000</c:v>
+                  <c:v>32000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>171000</c:v>
+                  <c:v>181000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>134000</c:v>
+                  <c:v>144000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>142000</c:v>
+                  <c:v>156000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>149000</c:v>
+                  <c:v>167000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>290000</c:v>
+                  <c:v>310000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>240000</c:v>
+                  <c:v>260000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>288000</c:v>
+                  <c:v>312000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>550000</c:v>
+                  <c:v>578000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>356000</c:v>
+                  <c:v>386000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>356000</c:v>
+                  <c:v>386000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1809,11 +1810,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="113616000"/>
-        <c:axId val="113617536"/>
+        <c:axId val="61640064"/>
+        <c:axId val="61645952"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="113616000"/>
+        <c:axId val="61640064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1824,14 +1825,14 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113617536"/>
+        <c:crossAx val="61645952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="113617536"/>
+        <c:axId val="61645952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1854,21 +1855,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113616000"/>
+        <c:crossAx val="61640064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -2084,40 +2083,40 @@
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"_-;_-@_-</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>17000</c:v>
+                  <c:v>21000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41000</c:v>
+                  <c:v>53000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>212000</c:v>
+                  <c:v>234000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>346000</c:v>
+                  <c:v>378000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>488000</c:v>
+                  <c:v>534000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>637000</c:v>
+                  <c:v>701000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>927000</c:v>
+                  <c:v>1011000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1167000</c:v>
+                  <c:v>1271000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1455000</c:v>
+                  <c:v>1583000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2005000</c:v>
+                  <c:v>2161000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2361000</c:v>
+                  <c:v>2547000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2717000</c:v>
+                  <c:v>2933000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2261,11 +2260,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="115061120"/>
-        <c:axId val="115563520"/>
+        <c:axId val="61374464"/>
+        <c:axId val="61376000"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="115061120"/>
+        <c:axId val="61374464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2275,14 +2274,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115563520"/>
+        <c:crossAx val="61376000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="115563520"/>
+        <c:axId val="61376000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2293,14 +2292,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115061120"/>
+        <c:crossAx val="61374464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -2721,7 +2719,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AL26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -2753,134 +2751,134 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="125" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="39"/>
-      <c r="G2" s="40" t="s">
+      <c r="F2" s="125"/>
+      <c r="G2" s="126" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="41" t="s">
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="126"/>
+      <c r="N2" s="126"/>
+      <c r="O2" s="127" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="42" t="s">
+      <c r="P2" s="127"/>
+      <c r="Q2" s="127"/>
+      <c r="R2" s="127"/>
+      <c r="S2" s="127"/>
+      <c r="T2" s="127"/>
+      <c r="U2" s="127"/>
+      <c r="V2" s="127"/>
+      <c r="W2" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="42"/>
-      <c r="Z2" s="42"/>
-      <c r="AA2" s="42"/>
-      <c r="AB2" s="42"/>
-      <c r="AC2" s="42"/>
-      <c r="AD2" s="42"/>
-      <c r="AE2" s="45" t="s">
+      <c r="X2" s="128"/>
+      <c r="Y2" s="128"/>
+      <c r="Z2" s="128"/>
+      <c r="AA2" s="128"/>
+      <c r="AB2" s="128"/>
+      <c r="AC2" s="128"/>
+      <c r="AD2" s="128"/>
+      <c r="AE2" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="AF2" s="45"/>
-      <c r="AG2" s="45"/>
-      <c r="AH2" s="45"/>
-      <c r="AI2" s="45"/>
-      <c r="AJ2" s="45"/>
-      <c r="AK2" s="45"/>
-      <c r="AL2" s="45"/>
+      <c r="AF2" s="121"/>
+      <c r="AG2" s="121"/>
+      <c r="AH2" s="121"/>
+      <c r="AI2" s="121"/>
+      <c r="AJ2" s="121"/>
+      <c r="AK2" s="121"/>
+      <c r="AL2" s="121"/>
     </row>
     <row r="3" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="131" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="38"/>
-      <c r="G3" s="37" t="s">
+      <c r="F3" s="123"/>
+      <c r="G3" s="122" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="38"/>
-      <c r="I3" s="37" t="s">
+      <c r="H3" s="123"/>
+      <c r="I3" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="38"/>
-      <c r="K3" s="37" t="s">
+      <c r="J3" s="123"/>
+      <c r="K3" s="122" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="38"/>
-      <c r="M3" s="37" t="s">
+      <c r="L3" s="123"/>
+      <c r="M3" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="38"/>
-      <c r="O3" s="37" t="s">
+      <c r="N3" s="123"/>
+      <c r="O3" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="37" t="s">
+      <c r="P3" s="123"/>
+      <c r="Q3" s="122" t="s">
         <v>23</v>
       </c>
-      <c r="R3" s="38"/>
-      <c r="S3" s="37" t="s">
+      <c r="R3" s="123"/>
+      <c r="S3" s="122" t="s">
         <v>24</v>
       </c>
-      <c r="T3" s="38"/>
-      <c r="U3" s="37" t="s">
+      <c r="T3" s="123"/>
+      <c r="U3" s="122" t="s">
         <v>25</v>
       </c>
-      <c r="V3" s="38"/>
-      <c r="W3" s="37" t="s">
+      <c r="V3" s="123"/>
+      <c r="W3" s="122" t="s">
         <v>22</v>
       </c>
-      <c r="X3" s="38"/>
-      <c r="Y3" s="37" t="s">
+      <c r="X3" s="123"/>
+      <c r="Y3" s="122" t="s">
         <v>26</v>
       </c>
-      <c r="Z3" s="38"/>
-      <c r="AA3" s="37" t="s">
+      <c r="Z3" s="123"/>
+      <c r="AA3" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="AB3" s="38"/>
-      <c r="AC3" s="37" t="s">
+      <c r="AB3" s="123"/>
+      <c r="AC3" s="122" t="s">
         <v>28</v>
       </c>
-      <c r="AD3" s="38"/>
-      <c r="AE3" s="37" t="s">
+      <c r="AD3" s="123"/>
+      <c r="AE3" s="122" t="s">
         <v>35</v>
       </c>
-      <c r="AF3" s="38"/>
-      <c r="AG3" s="37" t="s">
+      <c r="AF3" s="123"/>
+      <c r="AG3" s="122" t="s">
         <v>36</v>
       </c>
-      <c r="AH3" s="38"/>
-      <c r="AI3" s="37" t="s">
+      <c r="AH3" s="123"/>
+      <c r="AI3" s="122" t="s">
         <v>37</v>
       </c>
-      <c r="AJ3" s="38"/>
-      <c r="AK3" s="37" t="s">
+      <c r="AJ3" s="123"/>
+      <c r="AK3" s="122" t="s">
         <v>38</v>
       </c>
-      <c r="AL3" s="46"/>
+      <c r="AL3" s="124"/>
     </row>
     <row r="4" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="32"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="36"/>
+      <c r="B4" s="130"/>
+      <c r="C4" s="132"/>
+      <c r="D4" s="134"/>
       <c r="E4" s="18" t="s">
         <v>13</v>
       </c>
@@ -3861,103 +3859,103 @@
       <c r="E17" s="24">
         <v>20000</v>
       </c>
-      <c r="F17" s="29">
+      <c r="F17" s="117">
         <v>5000</v>
       </c>
       <c r="G17" s="24">
         <v>20000</v>
       </c>
-      <c r="H17" s="29">
+      <c r="H17" s="117">
         <v>5000</v>
       </c>
       <c r="I17" s="24">
         <v>20000</v>
       </c>
-      <c r="J17" s="29">
+      <c r="J17" s="117">
         <v>5000</v>
       </c>
       <c r="K17" s="24">
         <v>20000</v>
       </c>
-      <c r="L17" s="29">
+      <c r="L17" s="117">
         <v>5000</v>
       </c>
       <c r="M17" s="24">
         <v>20000</v>
       </c>
-      <c r="N17" s="29">
+      <c r="N17" s="117">
         <v>5000</v>
       </c>
       <c r="O17" s="24">
         <v>20000</v>
       </c>
-      <c r="P17" s="29">
+      <c r="P17" s="117">
         <v>5000</v>
       </c>
       <c r="Q17" s="24">
         <v>20000</v>
       </c>
-      <c r="R17" s="29">
+      <c r="R17" s="117">
         <v>5000</v>
       </c>
       <c r="S17" s="24">
         <v>20000</v>
       </c>
-      <c r="T17" s="29">
+      <c r="T17" s="117">
         <v>5000</v>
       </c>
       <c r="U17" s="24">
         <v>20000</v>
       </c>
-      <c r="V17" s="29">
+      <c r="V17" s="117">
         <v>5000</v>
       </c>
       <c r="W17" s="24">
         <v>20000</v>
       </c>
-      <c r="X17" s="29">
+      <c r="X17" s="117">
         <v>5000</v>
       </c>
       <c r="Y17" s="24">
         <v>20000</v>
       </c>
-      <c r="Z17" s="29">
+      <c r="Z17" s="117">
         <v>5000</v>
       </c>
       <c r="AA17" s="24">
         <v>20000</v>
       </c>
-      <c r="AB17" s="29">
+      <c r="AB17" s="117">
         <v>5000</v>
       </c>
       <c r="AC17" s="24">
         <v>20000</v>
       </c>
-      <c r="AD17" s="29">
+      <c r="AD17" s="117">
         <v>5000</v>
       </c>
       <c r="AE17" s="24">
         <v>20000</v>
       </c>
-      <c r="AF17" s="29">
+      <c r="AF17" s="117">
         <v>5000</v>
       </c>
       <c r="AG17" s="24">
         <v>20000</v>
       </c>
-      <c r="AH17" s="29">
+      <c r="AH17" s="117">
         <v>5000</v>
       </c>
       <c r="AI17" s="24">
         <v>20000</v>
       </c>
-      <c r="AJ17" s="29">
+      <c r="AJ17" s="117">
         <v>5000</v>
       </c>
       <c r="AK17" s="24">
         <v>20000</v>
       </c>
-      <c r="AL17" s="43">
+      <c r="AL17" s="119">
         <v>5000</v>
       </c>
     </row>
@@ -3972,71 +3970,71 @@
       <c r="E18" s="15">
         <v>8000</v>
       </c>
-      <c r="F18" s="30"/>
+      <c r="F18" s="118"/>
       <c r="G18" s="15">
         <v>8000</v>
       </c>
-      <c r="H18" s="30"/>
+      <c r="H18" s="118"/>
       <c r="I18" s="15">
         <v>8000</v>
       </c>
-      <c r="J18" s="30"/>
+      <c r="J18" s="118"/>
       <c r="K18" s="15">
         <v>8000</v>
       </c>
-      <c r="L18" s="30"/>
+      <c r="L18" s="118"/>
       <c r="M18" s="15">
         <v>8000</v>
       </c>
-      <c r="N18" s="30"/>
+      <c r="N18" s="118"/>
       <c r="O18" s="15">
         <v>8000</v>
       </c>
-      <c r="P18" s="30"/>
+      <c r="P18" s="118"/>
       <c r="Q18" s="15">
         <v>8000</v>
       </c>
-      <c r="R18" s="30"/>
+      <c r="R18" s="118"/>
       <c r="S18" s="15">
         <v>8000</v>
       </c>
-      <c r="T18" s="30"/>
+      <c r="T18" s="118"/>
       <c r="U18" s="15">
         <v>8000</v>
       </c>
-      <c r="V18" s="30"/>
+      <c r="V18" s="118"/>
       <c r="W18" s="15">
         <v>8000</v>
       </c>
-      <c r="X18" s="30"/>
+      <c r="X18" s="118"/>
       <c r="Y18" s="15">
         <v>8000</v>
       </c>
-      <c r="Z18" s="30"/>
+      <c r="Z18" s="118"/>
       <c r="AA18" s="15">
         <v>8000</v>
       </c>
-      <c r="AB18" s="30"/>
+      <c r="AB18" s="118"/>
       <c r="AC18" s="15">
         <v>8000</v>
       </c>
-      <c r="AD18" s="30"/>
+      <c r="AD18" s="118"/>
       <c r="AE18" s="15">
         <v>8000</v>
       </c>
-      <c r="AF18" s="30"/>
+      <c r="AF18" s="118"/>
       <c r="AG18" s="15">
         <v>8000</v>
       </c>
-      <c r="AH18" s="30"/>
+      <c r="AH18" s="118"/>
       <c r="AI18" s="15">
         <v>8000</v>
       </c>
-      <c r="AJ18" s="30"/>
+      <c r="AJ18" s="118"/>
       <c r="AK18" s="15">
         <v>8000</v>
       </c>
-      <c r="AL18" s="44"/>
+      <c r="AL18" s="120"/>
     </row>
     <row r="19" spans="2:38" x14ac:dyDescent="0.25">
       <c r="E19" s="4">
@@ -4227,32 +4225,6 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="42">
-    <mergeCell ref="AF17:AF18"/>
-    <mergeCell ref="AH17:AH18"/>
-    <mergeCell ref="AJ17:AJ18"/>
-    <mergeCell ref="AL17:AL18"/>
-    <mergeCell ref="AE2:AL2"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="V17:V18"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="X17:X18"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="R17:R18"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="T17:T18"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:N2"/>
-    <mergeCell ref="O2:V2"/>
-    <mergeCell ref="W2:AD2"/>
-    <mergeCell ref="U3:V3"/>
     <mergeCell ref="H17:H18"/>
     <mergeCell ref="Z17:Z18"/>
     <mergeCell ref="AB17:AB18"/>
@@ -4269,6 +4241,32 @@
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="J17:J18"/>
     <mergeCell ref="L17:L18"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:N2"/>
+    <mergeCell ref="O2:V2"/>
+    <mergeCell ref="W2:AD2"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="R17:R18"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="T17:T18"/>
+    <mergeCell ref="V17:V18"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="AF17:AF18"/>
+    <mergeCell ref="AH17:AH18"/>
+    <mergeCell ref="AJ17:AJ18"/>
+    <mergeCell ref="AL17:AL18"/>
+    <mergeCell ref="AE2:AL2"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4277,144 +4275,143 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Q41"/>
+  <dimension ref="B1:Q42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" style="161" customWidth="1"/>
-    <col min="3" max="3" width="8" style="54" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="110" customWidth="1"/>
+    <col min="3" max="3" width="8" style="36" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="15" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="15" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="139" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="174"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="174"/>
-      <c r="F2" s="174"/>
-      <c r="G2" s="174"/>
-      <c r="H2" s="174"/>
-      <c r="I2" s="174"/>
-      <c r="J2" s="174"/>
-      <c r="K2" s="174"/>
-      <c r="L2" s="174"/>
-      <c r="M2" s="174"/>
-      <c r="N2" s="174"/>
-      <c r="O2" s="85"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+      <c r="L2" s="140"/>
+      <c r="M2" s="140"/>
+      <c r="N2" s="140"/>
+      <c r="O2" s="141"/>
     </row>
     <row r="3" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="154"/>
-      <c r="C3" s="81" t="s">
+      <c r="B3" s="109"/>
+      <c r="C3" s="153" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="82">
+      <c r="D3" s="56">
         <v>42461</v>
       </c>
-      <c r="E3" s="82">
+      <c r="E3" s="56">
         <v>42491</v>
       </c>
-      <c r="F3" s="82">
+      <c r="F3" s="56">
         <v>42522</v>
       </c>
-      <c r="G3" s="82">
+      <c r="G3" s="56">
         <v>42552</v>
       </c>
-      <c r="H3" s="82">
+      <c r="H3" s="56">
         <v>42583</v>
       </c>
-      <c r="I3" s="82">
+      <c r="I3" s="56">
         <v>42614</v>
       </c>
-      <c r="J3" s="82">
+      <c r="J3" s="56">
         <v>42644</v>
       </c>
-      <c r="K3" s="82">
+      <c r="K3" s="56">
         <v>42675</v>
       </c>
-      <c r="L3" s="82">
+      <c r="L3" s="56">
         <v>42705</v>
       </c>
-      <c r="M3" s="82">
+      <c r="M3" s="56">
         <v>42736</v>
       </c>
-      <c r="N3" s="82">
+      <c r="N3" s="56">
         <v>42767</v>
       </c>
-      <c r="O3" s="83">
+      <c r="O3" s="57">
         <v>42795</v>
       </c>
     </row>
     <row r="4" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="162"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="60" t="s">
+      <c r="B4" s="111"/>
+      <c r="C4" s="154"/>
+      <c r="D4" s="144" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="62"/>
+      <c r="E4" s="145"/>
+      <c r="F4" s="145"/>
+      <c r="G4" s="145"/>
+      <c r="H4" s="145"/>
+      <c r="I4" s="145"/>
+      <c r="J4" s="145"/>
+      <c r="K4" s="145"/>
+      <c r="L4" s="145"/>
+      <c r="M4" s="145"/>
+      <c r="N4" s="145"/>
+      <c r="O4" s="146"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="151" t="s">
+      <c r="B5" s="163" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="70">
+      <c r="C5" s="150">
         <v>10000</v>
       </c>
-      <c r="D5" s="57">
+      <c r="D5" s="39">
         <v>4</v>
       </c>
-      <c r="E5" s="55">
+      <c r="E5" s="37">
         <v>8</v>
       </c>
-      <c r="F5" s="55">
+      <c r="F5" s="37">
         <v>10</v>
       </c>
-      <c r="G5" s="55">
+      <c r="G5" s="37">
         <v>10</v>
       </c>
-      <c r="H5" s="55">
+      <c r="H5" s="37">
         <v>14</v>
       </c>
-      <c r="I5" s="55">
+      <c r="I5" s="37">
         <v>18</v>
       </c>
-      <c r="J5" s="55">
+      <c r="J5" s="37">
         <v>20</v>
       </c>
-      <c r="K5" s="55">
+      <c r="K5" s="37">
         <v>20</v>
       </c>
-      <c r="L5" s="55">
+      <c r="L5" s="37">
         <v>24</v>
       </c>
-      <c r="M5" s="55">
+      <c r="M5" s="37">
         <v>28</v>
       </c>
-      <c r="N5" s="55">
+      <c r="N5" s="37">
         <v>30</v>
       </c>
-      <c r="O5" s="56">
+      <c r="O5" s="38">
         <v>30</v>
       </c>
       <c r="Q5" s="1" t="s">
@@ -4422,151 +4419,151 @@
       </c>
     </row>
     <row r="6" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="152"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="72">
+      <c r="B6" s="164"/>
+      <c r="C6" s="151"/>
+      <c r="D6" s="47">
         <f>D5*C5</f>
         <v>40000</v>
       </c>
-      <c r="E6" s="73">
+      <c r="E6" s="48">
         <f>E5*C5</f>
         <v>80000</v>
       </c>
-      <c r="F6" s="73">
+      <c r="F6" s="48">
         <f>F5*C5</f>
         <v>100000</v>
       </c>
-      <c r="G6" s="73">
+      <c r="G6" s="48">
         <f>G5*C5</f>
         <v>100000</v>
       </c>
-      <c r="H6" s="73">
+      <c r="H6" s="48">
         <f>H5*C5</f>
         <v>140000</v>
       </c>
-      <c r="I6" s="73">
+      <c r="I6" s="48">
         <f>I5*C5</f>
         <v>180000</v>
       </c>
-      <c r="J6" s="73">
+      <c r="J6" s="48">
         <f>J5*C5</f>
         <v>200000</v>
       </c>
-      <c r="K6" s="73">
+      <c r="K6" s="48">
         <f>K5*C5</f>
         <v>200000</v>
       </c>
-      <c r="L6" s="73">
+      <c r="L6" s="48">
         <f>L5*C5</f>
         <v>240000</v>
       </c>
-      <c r="M6" s="73">
+      <c r="M6" s="48">
         <f>M5*C5</f>
         <v>280000</v>
       </c>
-      <c r="N6" s="73">
+      <c r="N6" s="48">
         <f>N5*C5</f>
         <v>300000</v>
       </c>
-      <c r="O6" s="74">
+      <c r="O6" s="49">
         <f>O5*C5</f>
         <v>300000</v>
       </c>
-      <c r="P6" s="50">
+      <c r="P6" s="32">
         <f>SUM(D6:O6)</f>
         <v>2160000</v>
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="151" t="s">
+      <c r="B7" s="163" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="75"/>
-      <c r="D7" s="57">
-        <f>D5</f>
+      <c r="C7" s="50"/>
+      <c r="D7" s="39">
+        <f t="shared" ref="D7:O7" si="0">D5</f>
         <v>4</v>
       </c>
-      <c r="E7" s="55">
-        <f>E5</f>
+      <c r="E7" s="37">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F7" s="55">
-        <f>F5</f>
+      <c r="F7" s="37">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G7" s="55">
-        <f>G5</f>
+      <c r="G7" s="37">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H7" s="55">
-        <f>H5</f>
+      <c r="H7" s="37">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="I7" s="55">
-        <f>I5</f>
+      <c r="I7" s="37">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="J7" s="55">
-        <f>J5</f>
+      <c r="J7" s="37">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="K7" s="55">
-        <f>K5</f>
+      <c r="K7" s="37">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="L7" s="55">
-        <f>L5</f>
+      <c r="L7" s="37">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="M7" s="55">
-        <f>M5</f>
+      <c r="M7" s="37">
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="N7" s="55">
-        <f>N5</f>
+      <c r="N7" s="37">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="O7" s="56">
-        <f>O5</f>
+      <c r="O7" s="38">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="153"/>
-      <c r="D8" s="47">
+      <c r="B8" s="165"/>
+      <c r="D8" s="29">
         <v>12000</v>
       </c>
-      <c r="E8" s="48">
+      <c r="E8" s="30">
         <v>11000</v>
       </c>
-      <c r="F8" s="48">
+      <c r="F8" s="30">
         <v>10000</v>
       </c>
-      <c r="G8" s="48">
+      <c r="G8" s="30">
         <v>9000</v>
       </c>
-      <c r="H8" s="48">
+      <c r="H8" s="30">
         <v>8000</v>
       </c>
-      <c r="I8" s="48">
+      <c r="I8" s="30">
         <v>7000</v>
       </c>
-      <c r="J8" s="48">
+      <c r="J8" s="30">
         <v>6000</v>
       </c>
-      <c r="K8" s="48">
-        <v>5000</v>
-      </c>
-      <c r="L8" s="48">
+      <c r="K8" s="30">
+        <v>5000</v>
+      </c>
+      <c r="L8" s="30">
         <v>4000</v>
       </c>
-      <c r="M8" s="48">
+      <c r="M8" s="30">
         <v>3000</v>
       </c>
-      <c r="N8" s="48">
+      <c r="N8" s="30">
         <v>2000</v>
       </c>
-      <c r="O8" s="49">
+      <c r="O8" s="31">
         <v>1000</v>
       </c>
       <c r="Q8" s="1" t="s">
@@ -4574,248 +4571,248 @@
       </c>
     </row>
     <row r="9" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="152"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="72">
-        <f t="shared" ref="D9:F9" si="0">D7*D8</f>
+      <c r="B9" s="164"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="47">
+        <f t="shared" ref="D9:F9" si="1">D7*D8</f>
         <v>48000</v>
       </c>
-      <c r="E9" s="73">
-        <f t="shared" si="0"/>
+      <c r="E9" s="48">
+        <f t="shared" si="1"/>
         <v>88000</v>
       </c>
-      <c r="F9" s="73">
-        <f t="shared" si="0"/>
+      <c r="F9" s="48">
+        <f t="shared" si="1"/>
         <v>100000</v>
       </c>
-      <c r="G9" s="73">
+      <c r="G9" s="48">
         <f>G7*G8</f>
         <v>90000</v>
       </c>
-      <c r="H9" s="73">
-        <f t="shared" ref="H9:O9" si="1">H7*H8</f>
+      <c r="H9" s="48">
+        <f t="shared" ref="H9:O9" si="2">H7*H8</f>
         <v>112000</v>
       </c>
-      <c r="I9" s="73">
-        <f t="shared" si="1"/>
+      <c r="I9" s="48">
+        <f t="shared" si="2"/>
         <v>126000</v>
       </c>
-      <c r="J9" s="73">
-        <f t="shared" si="1"/>
+      <c r="J9" s="48">
+        <f t="shared" si="2"/>
         <v>120000</v>
       </c>
-      <c r="K9" s="73">
-        <f t="shared" si="1"/>
+      <c r="K9" s="48">
+        <f t="shared" si="2"/>
         <v>100000</v>
       </c>
-      <c r="L9" s="73">
-        <f t="shared" si="1"/>
+      <c r="L9" s="48">
+        <f t="shared" si="2"/>
         <v>96000</v>
       </c>
-      <c r="M9" s="73">
-        <f t="shared" si="1"/>
+      <c r="M9" s="48">
+        <f t="shared" si="2"/>
         <v>84000</v>
       </c>
-      <c r="N9" s="73">
-        <f t="shared" si="1"/>
+      <c r="N9" s="48">
+        <f t="shared" si="2"/>
         <v>60000</v>
       </c>
-      <c r="O9" s="74">
-        <f t="shared" si="1"/>
+      <c r="O9" s="49">
+        <f t="shared" si="2"/>
         <v>30000</v>
       </c>
-      <c r="P9" s="50">
+      <c r="P9" s="32">
         <f>SUM(D9:O9)</f>
         <v>1054000</v>
       </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="151" t="s">
+      <c r="B10" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="70">
+      <c r="C10" s="150">
         <v>20000</v>
       </c>
-      <c r="D10" s="57"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="75">
+      <c r="D10" s="39"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="50">
         <v>2</v>
       </c>
-      <c r="G10" s="75">
+      <c r="G10" s="50">
         <v>2</v>
       </c>
-      <c r="H10" s="75">
+      <c r="H10" s="50">
         <v>4</v>
       </c>
-      <c r="I10" s="75">
+      <c r="I10" s="50">
         <v>4</v>
       </c>
-      <c r="J10" s="75">
+      <c r="J10" s="50">
         <v>8</v>
       </c>
-      <c r="K10" s="75">
+      <c r="K10" s="50">
         <v>8</v>
       </c>
-      <c r="L10" s="75">
+      <c r="L10" s="50">
         <v>10</v>
       </c>
-      <c r="M10" s="75">
+      <c r="M10" s="50">
         <v>10</v>
       </c>
-      <c r="N10" s="75">
+      <c r="N10" s="50">
         <v>10</v>
       </c>
-      <c r="O10" s="76">
+      <c r="O10" s="51">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="152"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="72">
+      <c r="B11" s="164"/>
+      <c r="C11" s="151"/>
+      <c r="D11" s="47">
         <f>D10*C10</f>
         <v>0</v>
       </c>
-      <c r="E11" s="73">
+      <c r="E11" s="48">
         <f>E10*C10</f>
         <v>0</v>
       </c>
-      <c r="F11" s="73">
+      <c r="F11" s="48">
         <f>F10*C10</f>
         <v>40000</v>
       </c>
-      <c r="G11" s="73">
+      <c r="G11" s="48">
         <f>G10*C10</f>
         <v>40000</v>
       </c>
-      <c r="H11" s="73">
+      <c r="H11" s="48">
         <f>H10*C10</f>
         <v>80000</v>
       </c>
-      <c r="I11" s="73">
+      <c r="I11" s="48">
         <f>I10*C10</f>
         <v>80000</v>
       </c>
-      <c r="J11" s="73">
+      <c r="J11" s="48">
         <f>J10*C10</f>
         <v>160000</v>
       </c>
-      <c r="K11" s="73">
+      <c r="K11" s="48">
         <f>K10*C10</f>
         <v>160000</v>
       </c>
-      <c r="L11" s="73">
+      <c r="L11" s="48">
         <f>L10*C10</f>
         <v>200000</v>
       </c>
-      <c r="M11" s="73">
+      <c r="M11" s="48">
         <f>M10*C10</f>
         <v>200000</v>
       </c>
-      <c r="N11" s="73">
+      <c r="N11" s="48">
         <f>N10*C10</f>
         <v>200000</v>
       </c>
-      <c r="O11" s="74">
+      <c r="O11" s="49">
         <f>O10*C10</f>
         <v>200000</v>
       </c>
-      <c r="P11" s="50">
+      <c r="P11" s="32">
         <f>SUM(D11:O11)</f>
         <v>1360000</v>
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="151" t="s">
+      <c r="B12" s="163" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="70"/>
-      <c r="D12" s="80">
+      <c r="C12" s="150"/>
+      <c r="D12" s="55">
         <f>D10</f>
         <v>0</v>
       </c>
-      <c r="E12" s="75">
-        <f t="shared" ref="E12:O12" si="2">E10</f>
+      <c r="E12" s="50">
+        <f t="shared" ref="E12:O12" si="3">E10</f>
         <v>0</v>
       </c>
-      <c r="F12" s="75">
-        <f t="shared" si="2"/>
+      <c r="F12" s="50">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="G12" s="75">
-        <f t="shared" si="2"/>
+      <c r="G12" s="50">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="H12" s="75">
-        <f t="shared" si="2"/>
+      <c r="H12" s="50">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="I12" s="75">
-        <f t="shared" si="2"/>
+      <c r="I12" s="50">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="J12" s="75">
-        <f t="shared" si="2"/>
+      <c r="J12" s="50">
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="K12" s="75">
-        <f t="shared" si="2"/>
+      <c r="K12" s="50">
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="L12" s="75">
-        <f t="shared" si="2"/>
+      <c r="L12" s="50">
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="M12" s="75">
-        <f t="shared" si="2"/>
+      <c r="M12" s="50">
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="N12" s="75">
-        <f t="shared" si="2"/>
+      <c r="N12" s="50">
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="O12" s="76">
-        <f t="shared" si="2"/>
+      <c r="O12" s="51">
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="153"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="51">
+      <c r="B13" s="165"/>
+      <c r="C13" s="152"/>
+      <c r="D13" s="33">
         <v>6000</v>
       </c>
-      <c r="E13" s="52">
+      <c r="E13" s="34">
         <v>5500</v>
       </c>
-      <c r="F13" s="52">
-        <v>5000</v>
-      </c>
-      <c r="G13" s="52">
+      <c r="F13" s="34">
+        <v>5000</v>
+      </c>
+      <c r="G13" s="34">
         <v>4500</v>
       </c>
-      <c r="H13" s="52">
+      <c r="H13" s="34">
         <v>4000</v>
       </c>
-      <c r="I13" s="52">
+      <c r="I13" s="34">
         <v>3500</v>
       </c>
-      <c r="J13" s="52">
+      <c r="J13" s="34">
         <v>3000</v>
       </c>
-      <c r="K13" s="52">
+      <c r="K13" s="34">
         <v>2500</v>
       </c>
-      <c r="L13" s="52">
+      <c r="L13" s="34">
         <v>2000</v>
       </c>
-      <c r="M13" s="52">
+      <c r="M13" s="34">
         <v>1500</v>
       </c>
-      <c r="N13" s="52">
+      <c r="N13" s="34">
         <v>1000</v>
       </c>
-      <c r="O13" s="53">
+      <c r="O13" s="35">
         <v>500</v>
       </c>
       <c r="Q13" s="1" t="s">
@@ -4823,1346 +4820,1412 @@
       </c>
     </row>
     <row r="14" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="152"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="72">
-        <f t="shared" ref="D14" si="3">D12*D13</f>
+      <c r="B14" s="164"/>
+      <c r="C14" s="151"/>
+      <c r="D14" s="47">
+        <f t="shared" ref="D14" si="4">D12*D13</f>
         <v>0</v>
       </c>
-      <c r="E14" s="73">
-        <f t="shared" ref="E14" si="4">E12*E13</f>
+      <c r="E14" s="48">
+        <f t="shared" ref="E14" si="5">E12*E13</f>
         <v>0</v>
       </c>
-      <c r="F14" s="73">
-        <f t="shared" ref="F14:O14" si="5">F12*F13</f>
+      <c r="F14" s="48">
+        <f t="shared" ref="F14:O14" si="6">F12*F13</f>
         <v>10000</v>
       </c>
-      <c r="G14" s="73">
-        <f t="shared" si="5"/>
+      <c r="G14" s="48">
+        <f t="shared" si="6"/>
         <v>9000</v>
       </c>
-      <c r="H14" s="73">
-        <f t="shared" si="5"/>
+      <c r="H14" s="48">
+        <f t="shared" si="6"/>
         <v>16000</v>
       </c>
-      <c r="I14" s="73">
-        <f t="shared" si="5"/>
+      <c r="I14" s="48">
+        <f t="shared" si="6"/>
         <v>14000</v>
       </c>
-      <c r="J14" s="73">
-        <f t="shared" si="5"/>
+      <c r="J14" s="48">
+        <f t="shared" si="6"/>
         <v>24000</v>
       </c>
-      <c r="K14" s="73">
-        <f t="shared" si="5"/>
+      <c r="K14" s="48">
+        <f t="shared" si="6"/>
         <v>20000</v>
       </c>
-      <c r="L14" s="73">
-        <f t="shared" si="5"/>
+      <c r="L14" s="48">
+        <f t="shared" si="6"/>
         <v>20000</v>
       </c>
-      <c r="M14" s="73">
-        <f t="shared" si="5"/>
+      <c r="M14" s="48">
+        <f t="shared" si="6"/>
         <v>15000</v>
       </c>
-      <c r="N14" s="73">
-        <f t="shared" si="5"/>
+      <c r="N14" s="48">
+        <f t="shared" si="6"/>
         <v>10000</v>
       </c>
-      <c r="O14" s="74">
-        <f t="shared" si="5"/>
-        <v>5000</v>
-      </c>
-      <c r="P14" s="50">
+      <c r="O14" s="49">
+        <f t="shared" si="6"/>
+        <v>5000</v>
+      </c>
+      <c r="P14" s="32">
         <f>SUM(D14:O14)</f>
         <v>143000</v>
       </c>
     </row>
     <row r="15" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="167" t="s">
+      <c r="B15" s="155" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="168"/>
-      <c r="D15" s="77">
-        <f>D6+D9+D11+D14</f>
+      <c r="C15" s="156"/>
+      <c r="D15" s="52">
+        <f t="shared" ref="D15:O15" si="7">D6+D9+D11+D14</f>
         <v>88000</v>
       </c>
-      <c r="E15" s="78">
-        <f>E6+E9+E11+E14</f>
+      <c r="E15" s="53">
+        <f t="shared" si="7"/>
         <v>168000</v>
       </c>
-      <c r="F15" s="78">
-        <f>F6+F9+F11+F14</f>
+      <c r="F15" s="53">
+        <f t="shared" si="7"/>
         <v>250000</v>
       </c>
-      <c r="G15" s="78">
-        <f>G6+G9+G11+G14</f>
+      <c r="G15" s="53">
+        <f t="shared" si="7"/>
         <v>239000</v>
       </c>
-      <c r="H15" s="78">
-        <f>H6+H9+H11+H14</f>
+      <c r="H15" s="53">
+        <f t="shared" si="7"/>
         <v>348000</v>
       </c>
-      <c r="I15" s="78">
-        <f>I6+I9+I11+I14</f>
+      <c r="I15" s="53">
+        <f t="shared" si="7"/>
         <v>400000</v>
       </c>
-      <c r="J15" s="78">
-        <f>J6+J9+J11+J14</f>
+      <c r="J15" s="53">
+        <f t="shared" si="7"/>
         <v>504000</v>
       </c>
-      <c r="K15" s="78">
-        <f>K6+K9+K11+K14</f>
+      <c r="K15" s="53">
+        <f t="shared" si="7"/>
         <v>480000</v>
       </c>
-      <c r="L15" s="78">
-        <f>L6+L9+L11+L14</f>
+      <c r="L15" s="53">
+        <f t="shared" si="7"/>
         <v>556000</v>
       </c>
-      <c r="M15" s="78">
-        <f>M6+M9+M11+M14</f>
+      <c r="M15" s="53">
+        <f t="shared" si="7"/>
         <v>579000</v>
       </c>
-      <c r="N15" s="78">
-        <f>N6+N9+N11+N14</f>
+      <c r="N15" s="53">
+        <f t="shared" si="7"/>
         <v>570000</v>
       </c>
-      <c r="O15" s="79">
-        <f>O6+O9+O11+O14</f>
+      <c r="O15" s="54">
+        <f t="shared" si="7"/>
         <v>535000</v>
       </c>
-      <c r="P15" s="58">
+      <c r="P15" s="40">
         <f>SUM(D15:O15)</f>
         <v>4717000</v>
       </c>
     </row>
     <row r="16" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="154"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="75"/>
-      <c r="J16" s="75"/>
-      <c r="K16" s="75"/>
-      <c r="L16" s="75"/>
-      <c r="M16" s="75"/>
-      <c r="N16" s="75"/>
-      <c r="O16" s="76"/>
+      <c r="B16" s="109"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="51"/>
     </row>
     <row r="17" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="163"/>
-      <c r="C17" s="86" t="s">
+      <c r="B17" s="112"/>
+      <c r="C17" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="87" t="s">
+      <c r="D17" s="147" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="88"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="88"/>
-      <c r="I17" s="88"/>
-      <c r="J17" s="88"/>
-      <c r="K17" s="88"/>
-      <c r="L17" s="88"/>
-      <c r="M17" s="88"/>
-      <c r="N17" s="88"/>
-      <c r="O17" s="89"/>
+      <c r="E17" s="148"/>
+      <c r="F17" s="148"/>
+      <c r="G17" s="148"/>
+      <c r="H17" s="148"/>
+      <c r="I17" s="148"/>
+      <c r="J17" s="148"/>
+      <c r="K17" s="148"/>
+      <c r="L17" s="148"/>
+      <c r="M17" s="148"/>
+      <c r="N17" s="148"/>
+      <c r="O17" s="149"/>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="155" t="s">
+      <c r="B18" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="93"/>
-      <c r="D18" s="94">
-        <f>D5</f>
+      <c r="C18" s="62"/>
+      <c r="D18" s="63">
+        <f t="shared" ref="D18:O18" si="8">D5</f>
         <v>4</v>
       </c>
-      <c r="E18" s="95">
-        <f>E5</f>
+      <c r="E18" s="64">
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="F18" s="95">
-        <f>F5</f>
+      <c r="F18" s="64">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="G18" s="95">
-        <f>G5</f>
+      <c r="G18" s="64">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="H18" s="95">
-        <f>H5</f>
+      <c r="H18" s="64">
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
-      <c r="I18" s="95">
-        <f>I5</f>
+      <c r="I18" s="64">
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
-      <c r="J18" s="95">
-        <f>J5</f>
+      <c r="J18" s="64">
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
-      <c r="K18" s="95">
-        <f>K5</f>
+      <c r="K18" s="64">
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
-      <c r="L18" s="95">
-        <f>L5</f>
+      <c r="L18" s="64">
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
-      <c r="M18" s="95">
-        <f>M5</f>
+      <c r="M18" s="64">
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
-      <c r="N18" s="95">
-        <f>N5</f>
+      <c r="N18" s="64">
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
-      <c r="O18" s="96">
-        <f>O5</f>
+      <c r="O18" s="65">
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="156"/>
-      <c r="C19" s="97">
-        <v>5000</v>
-      </c>
-      <c r="D19" s="98">
-        <f>IF(D18&gt;=P19,C19*FLOOR( D18/P19,1), 0)</f>
+      <c r="B19" s="167"/>
+      <c r="C19" s="69">
+        <v>0.1</v>
+      </c>
+      <c r="D19" s="169">
+        <f>D6*C19</f>
+        <v>4000</v>
+      </c>
+      <c r="E19" s="66">
+        <f>E6*C19</f>
+        <v>8000</v>
+      </c>
+      <c r="F19" s="66">
+        <f>F6*C19</f>
+        <v>10000</v>
+      </c>
+      <c r="G19" s="66">
+        <f>G6*C19</f>
+        <v>10000</v>
+      </c>
+      <c r="H19" s="66">
+        <f>H6*C19</f>
+        <v>14000</v>
+      </c>
+      <c r="I19" s="66">
+        <f>I6*C19</f>
+        <v>18000</v>
+      </c>
+      <c r="J19" s="66">
+        <f>J6*C19</f>
+        <v>20000</v>
+      </c>
+      <c r="K19" s="66">
+        <f>K6*C19</f>
+        <v>20000</v>
+      </c>
+      <c r="L19" s="66">
+        <f>L6*C19</f>
+        <v>24000</v>
+      </c>
+      <c r="M19" s="66">
+        <f>M6*C19</f>
+        <v>28000</v>
+      </c>
+      <c r="N19" s="66">
+        <f>N6*C19</f>
+        <v>30000</v>
+      </c>
+      <c r="O19" s="68">
+        <f>O6*C19</f>
+        <v>30000</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B20" s="167"/>
+      <c r="C20" s="66">
+        <v>5000</v>
+      </c>
+      <c r="D20" s="67">
+        <f>IF(D18&gt;=P20,C20*FLOOR( D18/P20,1), 0)</f>
         <v>0</v>
       </c>
-      <c r="E19" s="97">
-        <f>IF(E18&gt;=P19,C19*FLOOR( E18/P19,1), 0)</f>
-        <v>5000</v>
-      </c>
-      <c r="F19" s="97">
-        <f>IF(F18&gt;=P19,C19*FLOOR( F18/P19,1), 0)</f>
+      <c r="E20" s="66">
+        <f>IF(E18&gt;=P20,C20*FLOOR( E18/P20,1), 0)</f>
+        <v>5000</v>
+      </c>
+      <c r="F20" s="66">
+        <f>IF(F18&gt;=P20,C20*FLOOR( F18/P20,1), 0)</f>
         <v>10000</v>
       </c>
-      <c r="G19" s="97">
-        <f>IF(G18&gt;=P19,C19*FLOOR( G18/P19,1), 0)</f>
+      <c r="G20" s="66">
+        <f>IF(G18&gt;=P20,C20*FLOOR( G18/P20,1), 0)</f>
         <v>10000</v>
       </c>
-      <c r="H19" s="97">
-        <f>IF(G18&gt;=P19,C19*FLOOR( G18/P19,1), 0)</f>
+      <c r="H20" s="66">
+        <f>IF(G18&gt;=P20,C20*FLOOR( G18/P20,1), 0)</f>
         <v>10000</v>
       </c>
-      <c r="I19" s="97">
-        <f>IF(I18&gt;=P19,C19*FLOOR( I18/P19,1), 0)</f>
+      <c r="I20" s="66">
+        <f>IF(I18&gt;=P20,C20*FLOOR( I18/P20,1), 0)</f>
         <v>15000</v>
       </c>
-      <c r="J19" s="97">
-        <f>IF(J18&gt;=P19,C19*FLOOR( J18/P19,1), 0)</f>
+      <c r="J20" s="66">
+        <f>IF(J18&gt;=P20,C20*FLOOR( J18/P20,1), 0)</f>
         <v>20000</v>
       </c>
-      <c r="K19" s="97">
-        <f>IF(K18&gt;=P19,C19*FLOOR( K18/P19,1), 0)</f>
+      <c r="K20" s="66">
+        <f>IF(K18&gt;=P20,C20*FLOOR( K18/P20,1), 0)</f>
         <v>20000</v>
       </c>
-      <c r="L19" s="97">
-        <f>IF(L18&gt;=P19,C19*FLOOR( L18/P19,1), 0)</f>
+      <c r="L20" s="66">
+        <f>IF(L18&gt;=P20,C20*FLOOR( L18/P20,1), 0)</f>
         <v>20000</v>
       </c>
-      <c r="M19" s="97">
-        <f>IF(M18&gt;=P19,C19*FLOOR( M18/P19,1), 0)</f>
+      <c r="M20" s="66">
+        <f>IF(M18&gt;=P20,C20*FLOOR( M18/P20,1), 0)</f>
         <v>25000</v>
       </c>
-      <c r="N19" s="97">
-        <f>IF(N18&gt;=P19,C19*FLOOR( N18/P19,1), 0)</f>
+      <c r="N20" s="66">
+        <f>IF(N18&gt;=P20,C20*FLOOR( N18/P20,1), 0)</f>
         <v>30000</v>
       </c>
-      <c r="O19" s="99">
-        <f>IF(O18&gt;=P19,C19*FLOOR( O18/P19,1), 0)</f>
+      <c r="O20" s="68">
+        <f>IF(O18&gt;=P20,C20*FLOOR( O18/P20,1), 0)</f>
         <v>30000</v>
       </c>
-      <c r="P19" s="1">
+      <c r="P20" s="1">
         <v>5</v>
       </c>
-      <c r="Q19" s="1" t="s">
+      <c r="Q20" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B20" s="156"/>
-      <c r="C20" s="100">
+    <row r="21" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="167"/>
+      <c r="C21" s="69">
         <v>0.05</v>
       </c>
-      <c r="D20" s="98">
-        <f>C20*D6</f>
+      <c r="D21" s="173">
+        <f>C21*D6</f>
         <v>2000</v>
       </c>
-      <c r="E20" s="97">
-        <f>C20*E6</f>
+      <c r="E21" s="70">
+        <f>C21*E6</f>
         <v>4000</v>
       </c>
-      <c r="F20" s="97">
-        <f>C20*F6</f>
-        <v>5000</v>
-      </c>
-      <c r="G20" s="97">
-        <f>C20*G6</f>
-        <v>5000</v>
-      </c>
-      <c r="H20" s="97">
-        <f>C20*H6</f>
+      <c r="F21" s="70">
+        <f>C21*F6</f>
+        <v>5000</v>
+      </c>
+      <c r="G21" s="70">
+        <f>C21*G6</f>
+        <v>5000</v>
+      </c>
+      <c r="H21" s="70">
+        <f>C21*H6</f>
         <v>7000</v>
       </c>
-      <c r="I20" s="97">
-        <f>C20*I6</f>
+      <c r="I21" s="70">
+        <f>C21*I6</f>
         <v>9000</v>
       </c>
-      <c r="J20" s="97">
-        <f>C20*J6</f>
+      <c r="J21" s="70">
+        <f>C21*J6</f>
         <v>10000</v>
       </c>
-      <c r="K20" s="97">
-        <f>C20*K6</f>
+      <c r="K21" s="70">
+        <f>C21*K6</f>
         <v>10000</v>
       </c>
-      <c r="L20" s="97">
-        <f>C20*L6</f>
+      <c r="L21" s="70">
+        <f>C21*L6</f>
         <v>12000</v>
       </c>
-      <c r="M20" s="97">
-        <f>C20*M6</f>
+      <c r="M21" s="70">
+        <f>C21*M6</f>
         <v>14000</v>
       </c>
-      <c r="N20" s="97">
-        <f>C20*N6</f>
+      <c r="N21" s="70">
+        <f>C21*N6</f>
         <v>15000</v>
       </c>
-      <c r="O20" s="99">
-        <f>C20*O6</f>
+      <c r="O21" s="174">
+        <f>C21*O6</f>
         <v>15000</v>
       </c>
-      <c r="Q20" s="1" t="s">
+      <c r="Q21" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="157"/>
-      <c r="C21" s="101"/>
-      <c r="D21" s="102">
-        <f>D19+D20</f>
-        <v>2000</v>
-      </c>
-      <c r="E21" s="103">
-        <f>E19+E20</f>
-        <v>9000</v>
-      </c>
-      <c r="F21" s="103">
-        <f t="shared" ref="F21:O21" si="6">F19+F20</f>
-        <v>15000</v>
-      </c>
-      <c r="G21" s="103">
-        <f t="shared" si="6"/>
-        <v>15000</v>
-      </c>
-      <c r="H21" s="103">
-        <f t="shared" si="6"/>
+    <row r="22" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="168"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="170">
+        <f>SUM(D19:D21)</f>
+        <v>6000</v>
+      </c>
+      <c r="E22" s="171">
+        <f t="shared" ref="E22:O22" si="9">SUM(E19:E21)</f>
         <v>17000</v>
       </c>
-      <c r="I21" s="103">
-        <f t="shared" si="6"/>
-        <v>24000</v>
-      </c>
-      <c r="J21" s="103">
-        <f t="shared" si="6"/>
-        <v>30000</v>
-      </c>
-      <c r="K21" s="103">
-        <f t="shared" si="6"/>
-        <v>30000</v>
-      </c>
-      <c r="L21" s="103">
-        <f t="shared" si="6"/>
-        <v>32000</v>
-      </c>
-      <c r="M21" s="103">
-        <f t="shared" si="6"/>
-        <v>39000</v>
-      </c>
-      <c r="N21" s="103">
-        <f t="shared" si="6"/>
-        <v>45000</v>
-      </c>
-      <c r="O21" s="104">
-        <f t="shared" si="6"/>
-        <v>45000</v>
-      </c>
-      <c r="P21" s="50">
-        <f>SUM(D21:O21)</f>
-        <v>303000</v>
-      </c>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B22" s="155" t="s">
+      <c r="F22" s="171">
+        <f t="shared" si="9"/>
+        <v>25000</v>
+      </c>
+      <c r="G22" s="171">
+        <f t="shared" si="9"/>
+        <v>25000</v>
+      </c>
+      <c r="H22" s="171">
+        <f t="shared" si="9"/>
+        <v>31000</v>
+      </c>
+      <c r="I22" s="171">
+        <f t="shared" si="9"/>
+        <v>42000</v>
+      </c>
+      <c r="J22" s="171">
+        <f t="shared" si="9"/>
+        <v>50000</v>
+      </c>
+      <c r="K22" s="171">
+        <f t="shared" si="9"/>
+        <v>50000</v>
+      </c>
+      <c r="L22" s="171">
+        <f t="shared" si="9"/>
+        <v>56000</v>
+      </c>
+      <c r="M22" s="171">
+        <f t="shared" si="9"/>
+        <v>67000</v>
+      </c>
+      <c r="N22" s="171">
+        <f t="shared" si="9"/>
+        <v>75000</v>
+      </c>
+      <c r="O22" s="172">
+        <f t="shared" si="9"/>
+        <v>75000</v>
+      </c>
+      <c r="P22" s="32">
+        <f>SUM(D22:O22)</f>
+        <v>519000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B23" s="166" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="105">
+      <c r="C23" s="157">
         <v>18000</v>
       </c>
-      <c r="D22" s="106">
+      <c r="D23" s="67">
         <f>D10</f>
         <v>0</v>
       </c>
-      <c r="E22" s="107">
-        <f t="shared" ref="E22:O22" si="7">E10</f>
+      <c r="E23" s="66">
+        <f t="shared" ref="E23:O23" si="10">E10</f>
         <v>0</v>
       </c>
-      <c r="F22" s="107">
-        <f t="shared" si="7"/>
+      <c r="F23" s="66">
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="G22" s="107">
-        <f t="shared" si="7"/>
+      <c r="G23" s="66">
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="H22" s="107">
-        <f t="shared" si="7"/>
+      <c r="H23" s="66">
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="I22" s="107">
-        <f t="shared" si="7"/>
+      <c r="I23" s="66">
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="J22" s="107">
-        <f t="shared" si="7"/>
+      <c r="J23" s="66">
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
-      <c r="K22" s="107">
-        <f t="shared" si="7"/>
+      <c r="K23" s="66">
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
-      <c r="L22" s="107">
-        <f t="shared" si="7"/>
+      <c r="L23" s="66">
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
-      <c r="M22" s="107">
-        <f t="shared" si="7"/>
+      <c r="M23" s="66">
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
-      <c r="N22" s="107">
-        <f t="shared" si="7"/>
+      <c r="N23" s="66">
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
-      <c r="O22" s="108">
-        <f t="shared" si="7"/>
+      <c r="O23" s="68">
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="156"/>
-      <c r="C23" s="109"/>
-      <c r="D23" s="110">
-        <f>D22*C22</f>
+    <row r="24" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="167"/>
+      <c r="C24" s="158"/>
+      <c r="D24" s="71">
+        <f>D23*C23</f>
         <v>0</v>
       </c>
-      <c r="E23" s="111">
-        <f>E22*C22</f>
+      <c r="E24" s="72">
+        <f>E23*C23</f>
         <v>0</v>
       </c>
-      <c r="F23" s="111">
-        <f>F22*C22</f>
+      <c r="F24" s="72">
+        <f>F23*C23</f>
         <v>36000</v>
       </c>
-      <c r="G23" s="111">
-        <f>G22*C22</f>
+      <c r="G24" s="72">
+        <f>G23*C23</f>
         <v>36000</v>
       </c>
-      <c r="H23" s="111">
-        <f>H22*C22</f>
+      <c r="H24" s="72">
+        <f>H23*C23</f>
         <v>72000</v>
       </c>
-      <c r="I23" s="111">
-        <f>I22*C22</f>
+      <c r="I24" s="72">
+        <f>I23*C23</f>
         <v>72000</v>
       </c>
-      <c r="J23" s="111">
-        <f>J22*C22</f>
+      <c r="J24" s="72">
+        <f>J23*C23</f>
         <v>144000</v>
       </c>
-      <c r="K23" s="111">
-        <f>K22*C22</f>
+      <c r="K24" s="72">
+        <f>K23*C23</f>
         <v>144000</v>
       </c>
-      <c r="L23" s="111">
-        <f>L22*C22</f>
+      <c r="L24" s="72">
+        <f>L23*C23</f>
         <v>180000</v>
       </c>
-      <c r="M23" s="111">
-        <f>M22*C22</f>
+      <c r="M24" s="72">
+        <f>M23*C23</f>
         <v>180000</v>
       </c>
-      <c r="N23" s="111">
-        <f>N22*C22</f>
+      <c r="N24" s="72">
+        <f>N23*C23</f>
         <v>180000</v>
       </c>
-      <c r="O23" s="112">
-        <f>O22*C22</f>
+      <c r="O24" s="73">
+        <f>O23*C23</f>
         <v>180000</v>
       </c>
-      <c r="P23" s="50">
-        <f>SUM(D23:O23)</f>
+      <c r="P24" s="32">
+        <f>SUM(D24:O24)</f>
         <v>1224000</v>
       </c>
     </row>
-    <row r="24" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="158" t="s">
+    <row r="25" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="142" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="113"/>
-      <c r="D24" s="114">
+      <c r="C25" s="74"/>
+      <c r="D25" s="75">
         <v>1</v>
       </c>
-      <c r="E24" s="113">
+      <c r="E25" s="74">
         <v>1</v>
       </c>
-      <c r="F24" s="113">
+      <c r="F25" s="74">
         <v>1</v>
       </c>
-      <c r="G24" s="113">
+      <c r="G25" s="74">
         <v>1</v>
       </c>
-      <c r="H24" s="113">
+      <c r="H25" s="74">
         <v>2</v>
       </c>
-      <c r="I24" s="113">
+      <c r="I25" s="74">
         <v>2</v>
       </c>
-      <c r="J24" s="113">
+      <c r="J25" s="74">
         <v>2</v>
       </c>
-      <c r="K24" s="113">
+      <c r="K25" s="74">
         <v>2</v>
       </c>
-      <c r="L24" s="113">
+      <c r="L25" s="74">
         <v>3</v>
       </c>
-      <c r="M24" s="113">
+      <c r="M25" s="74">
         <v>3</v>
       </c>
-      <c r="N24" s="113">
+      <c r="N25" s="74">
         <v>3</v>
       </c>
-      <c r="O24" s="115">
+      <c r="O25" s="76">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B25" s="159"/>
-      <c r="C25" s="116">
-        <v>5000</v>
-      </c>
-      <c r="D25" s="117">
-        <f>D24*C25</f>
-        <v>5000</v>
-      </c>
-      <c r="E25" s="118">
-        <f>E24*C25</f>
-        <v>5000</v>
-      </c>
-      <c r="F25" s="118">
-        <f>F24*C25</f>
-        <v>5000</v>
-      </c>
-      <c r="G25" s="118">
-        <f>G24*C25</f>
-        <v>5000</v>
-      </c>
-      <c r="H25" s="118">
-        <f>H24*C25</f>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B26" s="143"/>
+      <c r="C26" s="77">
+        <v>5000</v>
+      </c>
+      <c r="D26" s="78">
+        <f>D25*C26</f>
+        <v>5000</v>
+      </c>
+      <c r="E26" s="79">
+        <f>E25*C26</f>
+        <v>5000</v>
+      </c>
+      <c r="F26" s="79">
+        <f>F25*C26</f>
+        <v>5000</v>
+      </c>
+      <c r="G26" s="79">
+        <f>G25*C26</f>
+        <v>5000</v>
+      </c>
+      <c r="H26" s="79">
+        <f>H25*C26</f>
         <v>10000</v>
       </c>
-      <c r="I25" s="118">
-        <f>I24*C25</f>
+      <c r="I26" s="79">
+        <f>I25*C26</f>
         <v>10000</v>
       </c>
-      <c r="J25" s="118">
-        <f>J24*C25</f>
+      <c r="J26" s="79">
+        <f>J25*C26</f>
         <v>10000</v>
       </c>
-      <c r="K25" s="118">
-        <f>K24*C25</f>
+      <c r="K26" s="79">
+        <f>K25*C26</f>
         <v>10000</v>
       </c>
-      <c r="L25" s="118">
-        <f>L24*C25</f>
+      <c r="L26" s="79">
+        <f>L25*C26</f>
         <v>15000</v>
       </c>
-      <c r="M25" s="118">
-        <f>M24*C25</f>
+      <c r="M26" s="79">
+        <f>M25*C26</f>
         <v>15000</v>
       </c>
-      <c r="N25" s="118">
-        <f>N24*C25</f>
+      <c r="N26" s="79">
+        <f>N25*C26</f>
         <v>15000</v>
       </c>
-      <c r="O25" s="119">
-        <f>O24*C25</f>
+      <c r="O26" s="80">
+        <f>O25*C26</f>
         <v>15000</v>
       </c>
-      <c r="P25" s="50"/>
-      <c r="Q25" s="1" t="s">
+      <c r="P26" s="32"/>
+      <c r="Q26" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="159"/>
-      <c r="C26" s="118">
-        <v>5000</v>
-      </c>
-      <c r="D26" s="120">
-        <f>D24*C26</f>
-        <v>5000</v>
-      </c>
-      <c r="E26" s="121">
-        <f>E24*C26</f>
-        <v>5000</v>
-      </c>
-      <c r="F26" s="121">
-        <f>F24*C26</f>
-        <v>5000</v>
-      </c>
-      <c r="G26" s="121">
-        <f>G24*C26</f>
-        <v>5000</v>
-      </c>
-      <c r="H26" s="121">
-        <f>H24*C26</f>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B27" s="143"/>
+      <c r="C27" s="79">
+        <v>5000</v>
+      </c>
+      <c r="D27" s="81">
+        <f>D25*C27</f>
+        <v>5000</v>
+      </c>
+      <c r="E27" s="82">
+        <f>E25*C27</f>
+        <v>5000</v>
+      </c>
+      <c r="F27" s="82">
+        <f>F25*C27</f>
+        <v>5000</v>
+      </c>
+      <c r="G27" s="82">
+        <f>G25*C27</f>
+        <v>5000</v>
+      </c>
+      <c r="H27" s="82">
+        <f>H25*C27</f>
         <v>10000</v>
       </c>
-      <c r="I26" s="121">
-        <f>I24*C26</f>
+      <c r="I27" s="82">
+        <f>I25*C27</f>
         <v>10000</v>
       </c>
-      <c r="J26" s="121">
-        <f>J24*C26</f>
+      <c r="J27" s="82">
+        <f>J25*C27</f>
         <v>10000</v>
       </c>
-      <c r="K26" s="121">
-        <f>K24*C26</f>
+      <c r="K27" s="82">
+        <f>K25*C27</f>
         <v>10000</v>
       </c>
-      <c r="L26" s="121">
-        <f>L24*C26</f>
+      <c r="L27" s="82">
+        <f>L25*C27</f>
         <v>15000</v>
       </c>
-      <c r="M26" s="121">
-        <f>M24*C26</f>
+      <c r="M27" s="82">
+        <f>M25*C27</f>
         <v>15000</v>
       </c>
-      <c r="N26" s="121">
-        <f>N24*C26</f>
+      <c r="N27" s="82">
+        <f>N25*C27</f>
         <v>15000</v>
       </c>
-      <c r="O26" s="122">
-        <f>O24*C26</f>
+      <c r="O27" s="83">
+        <f>O25*C27</f>
         <v>15000</v>
       </c>
-      <c r="P26" s="50"/>
-      <c r="Q26" s="1" t="s">
+      <c r="P27" s="32"/>
+      <c r="Q27" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="160"/>
-      <c r="C27" s="123"/>
-      <c r="D27" s="124">
-        <f>D25+D26</f>
+    <row r="28" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="162"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="85">
+        <f>D26+D27</f>
         <v>10000</v>
       </c>
-      <c r="E27" s="123">
-        <f t="shared" ref="E27:O27" si="8">E25+E26</f>
+      <c r="E28" s="84">
+        <f t="shared" ref="E28:O28" si="11">E26+E27</f>
         <v>10000</v>
       </c>
-      <c r="F27" s="123">
-        <f t="shared" si="8"/>
+      <c r="F28" s="84">
+        <f t="shared" si="11"/>
         <v>10000</v>
       </c>
-      <c r="G27" s="123">
-        <f t="shared" si="8"/>
+      <c r="G28" s="84">
+        <f t="shared" si="11"/>
         <v>10000</v>
       </c>
-      <c r="H27" s="123">
-        <f t="shared" si="8"/>
+      <c r="H28" s="84">
+        <f t="shared" si="11"/>
         <v>20000</v>
       </c>
-      <c r="I27" s="123">
-        <f t="shared" si="8"/>
+      <c r="I28" s="84">
+        <f t="shared" si="11"/>
         <v>20000</v>
       </c>
-      <c r="J27" s="123">
-        <f t="shared" si="8"/>
+      <c r="J28" s="84">
+        <f t="shared" si="11"/>
         <v>20000</v>
       </c>
-      <c r="K27" s="123">
-        <f t="shared" si="8"/>
+      <c r="K28" s="84">
+        <f t="shared" si="11"/>
         <v>20000</v>
       </c>
-      <c r="L27" s="123">
-        <f t="shared" si="8"/>
+      <c r="L28" s="84">
+        <f t="shared" si="11"/>
         <v>30000</v>
       </c>
-      <c r="M27" s="123">
-        <f t="shared" si="8"/>
+      <c r="M28" s="84">
+        <f t="shared" si="11"/>
         <v>30000</v>
       </c>
-      <c r="N27" s="123">
-        <f t="shared" si="8"/>
+      <c r="N28" s="84">
+        <f t="shared" si="11"/>
         <v>30000</v>
       </c>
-      <c r="O27" s="125">
-        <f t="shared" si="8"/>
+      <c r="O28" s="86">
+        <f t="shared" si="11"/>
         <v>30000</v>
       </c>
-      <c r="P27" s="50">
-        <f>SUM(D27:O27)</f>
+      <c r="P28" s="32">
+        <f>SUM(D28:O28)</f>
         <v>240000</v>
       </c>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B28" s="159" t="s">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B29" s="143" t="s">
         <v>61</v>
       </c>
-      <c r="C28" s="126">
-        <v>5000</v>
-      </c>
-      <c r="D28" s="117"/>
-      <c r="E28" s="118"/>
-      <c r="F28" s="118"/>
-      <c r="G28" s="127"/>
-      <c r="H28" s="127"/>
-      <c r="I28" s="127"/>
-      <c r="J28" s="127"/>
-      <c r="K28" s="118"/>
-      <c r="L28" s="118"/>
-      <c r="M28" s="118">
+      <c r="C29" s="159">
+        <v>5000</v>
+      </c>
+      <c r="D29" s="78"/>
+      <c r="E29" s="79"/>
+      <c r="F29" s="79"/>
+      <c r="G29" s="87"/>
+      <c r="H29" s="87"/>
+      <c r="I29" s="87"/>
+      <c r="J29" s="87"/>
+      <c r="K29" s="79"/>
+      <c r="L29" s="79"/>
+      <c r="M29" s="79">
         <v>4</v>
       </c>
-      <c r="N28" s="118">
+      <c r="N29" s="79">
         <v>4</v>
       </c>
-      <c r="O28" s="119">
+      <c r="O29" s="80">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="160"/>
-      <c r="C29" s="128"/>
-      <c r="D29" s="129">
-        <f>D28*C28</f>
+    <row r="30" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="162"/>
+      <c r="C30" s="160"/>
+      <c r="D30" s="88">
+        <f>D29*C29</f>
         <v>0</v>
       </c>
-      <c r="E29" s="130">
-        <f>E28*C28</f>
+      <c r="E30" s="89">
+        <f>E29*C29</f>
         <v>0</v>
       </c>
-      <c r="F29" s="130">
-        <f>F28*C28</f>
+      <c r="F30" s="89">
+        <f>F29*C29</f>
         <v>0</v>
       </c>
-      <c r="G29" s="130">
-        <f>G28*C28</f>
+      <c r="G30" s="89">
+        <f>G29*C29</f>
         <v>0</v>
       </c>
-      <c r="H29" s="130">
-        <f>H28*C28</f>
+      <c r="H30" s="89">
+        <f>H29*C29</f>
         <v>0</v>
       </c>
-      <c r="I29" s="130">
-        <f>I28*C28</f>
+      <c r="I30" s="89">
+        <f>I29*C29</f>
         <v>0</v>
       </c>
-      <c r="J29" s="130">
-        <f>J28*C28</f>
+      <c r="J30" s="89">
+        <f>J29*C29</f>
         <v>0</v>
       </c>
-      <c r="K29" s="130">
-        <f>K28*C28</f>
+      <c r="K30" s="89">
+        <f>K29*C29</f>
         <v>0</v>
       </c>
-      <c r="L29" s="130">
-        <f>L28*C28</f>
+      <c r="L30" s="89">
+        <f>L29*C29</f>
         <v>0</v>
       </c>
-      <c r="M29" s="130">
-        <f>M28*C28</f>
+      <c r="M30" s="89">
+        <f>M29*C29</f>
         <v>20000</v>
       </c>
-      <c r="N29" s="130">
-        <f>N28*C28</f>
+      <c r="N30" s="89">
+        <f>N29*C29</f>
         <v>20000</v>
       </c>
-      <c r="O29" s="131">
-        <f>O28*C28</f>
+      <c r="O30" s="90">
+        <f>O29*C29</f>
         <v>20000</v>
       </c>
-      <c r="P29" s="50">
-        <f>SUM(D29:O29)</f>
+      <c r="P30" s="32">
+        <f>SUM(D30:O30)</f>
         <v>60000</v>
       </c>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B30" s="158" t="s">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B31" s="142" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="132">
+      <c r="C31" s="161">
         <v>8000</v>
       </c>
-      <c r="D30" s="133"/>
-      <c r="E30" s="134"/>
-      <c r="F30" s="134"/>
-      <c r="G30" s="135">
+      <c r="D31" s="91"/>
+      <c r="E31" s="92"/>
+      <c r="F31" s="92"/>
+      <c r="G31" s="93">
         <v>1</v>
       </c>
-      <c r="H30" s="135">
+      <c r="H31" s="93">
         <v>1</v>
       </c>
-      <c r="I30" s="135">
+      <c r="I31" s="93">
         <v>1</v>
       </c>
-      <c r="J30" s="135">
+      <c r="J31" s="93">
         <v>2</v>
       </c>
-      <c r="K30" s="134">
+      <c r="K31" s="92">
         <v>2</v>
       </c>
-      <c r="L30" s="134">
+      <c r="L31" s="92">
         <v>2</v>
       </c>
-      <c r="M30" s="134">
+      <c r="M31" s="92">
         <v>2</v>
       </c>
-      <c r="N30" s="134">
+      <c r="N31" s="92">
         <v>2</v>
       </c>
-      <c r="O30" s="136">
+      <c r="O31" s="94">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="160"/>
-      <c r="C31" s="128"/>
-      <c r="D31" s="129">
-        <f>D30*C30</f>
+    <row r="32" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="162"/>
+      <c r="C32" s="160"/>
+      <c r="D32" s="88">
+        <f>D31*C31</f>
         <v>0</v>
       </c>
-      <c r="E31" s="130">
-        <f>E30*C30</f>
+      <c r="E32" s="89">
+        <f>E31*C31</f>
         <v>0</v>
       </c>
-      <c r="F31" s="130">
-        <f>F30*C30</f>
+      <c r="F32" s="89">
+        <f>F31*C31</f>
         <v>0</v>
       </c>
-      <c r="G31" s="130">
-        <f>G30*C30</f>
+      <c r="G32" s="89">
+        <f>G31*C31</f>
         <v>8000</v>
       </c>
-      <c r="H31" s="130">
-        <f>H30*C30</f>
+      <c r="H32" s="89">
+        <f>H31*C31</f>
         <v>8000</v>
       </c>
-      <c r="I31" s="130">
-        <f>I30*C30</f>
+      <c r="I32" s="89">
+        <f>I31*C31</f>
         <v>8000</v>
       </c>
-      <c r="J31" s="130">
-        <f>J30*C30</f>
+      <c r="J32" s="89">
+        <f>J31*C31</f>
         <v>16000</v>
       </c>
-      <c r="K31" s="130">
-        <f>K30*C30</f>
+      <c r="K32" s="89">
+        <f>K31*C31</f>
         <v>16000</v>
       </c>
-      <c r="L31" s="130">
-        <f>L30*C30</f>
+      <c r="L32" s="89">
+        <f>L31*C31</f>
         <v>16000</v>
       </c>
-      <c r="M31" s="130">
-        <f>M30*C30</f>
+      <c r="M32" s="89">
+        <f>M31*C31</f>
         <v>16000</v>
       </c>
-      <c r="N31" s="130">
-        <f>N30*C30</f>
+      <c r="N32" s="89">
+        <f>N31*C31</f>
         <v>16000</v>
       </c>
-      <c r="O31" s="131">
-        <f>O30*C30</f>
+      <c r="O32" s="90">
+        <f>O31*C31</f>
         <v>16000</v>
       </c>
-      <c r="P31" s="50">
-        <f>SUM(D31:O31)</f>
+      <c r="P32" s="32">
+        <f>SUM(D32:O32)</f>
         <v>120000</v>
       </c>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B32" s="158" t="s">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B33" s="142" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="132">
+      <c r="C33" s="161">
         <v>10000</v>
       </c>
-      <c r="D32" s="114"/>
-      <c r="E32" s="113"/>
-      <c r="F32" s="113"/>
-      <c r="G32" s="137"/>
-      <c r="H32" s="137"/>
-      <c r="I32" s="137"/>
-      <c r="J32" s="137"/>
-      <c r="K32" s="113"/>
-      <c r="L32" s="113"/>
-      <c r="M32" s="113">
+      <c r="D33" s="75"/>
+      <c r="E33" s="74"/>
+      <c r="F33" s="74"/>
+      <c r="G33" s="95"/>
+      <c r="H33" s="95"/>
+      <c r="I33" s="95"/>
+      <c r="J33" s="95"/>
+      <c r="K33" s="74"/>
+      <c r="L33" s="74"/>
+      <c r="M33" s="74">
         <v>2</v>
       </c>
-      <c r="N32" s="113">
+      <c r="N33" s="74">
         <v>2</v>
       </c>
-      <c r="O32" s="115">
+      <c r="O33" s="76">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="160"/>
-      <c r="C33" s="128"/>
-      <c r="D33" s="129">
-        <f>D32*C32</f>
+    <row r="34" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="162"/>
+      <c r="C34" s="160"/>
+      <c r="D34" s="88">
+        <f>D33*C33</f>
         <v>0</v>
       </c>
-      <c r="E33" s="130">
-        <f>E32*C32</f>
+      <c r="E34" s="89">
+        <f>E33*C33</f>
         <v>0</v>
       </c>
-      <c r="F33" s="130">
-        <f>F32*C32</f>
+      <c r="F34" s="89">
+        <f>F33*C33</f>
         <v>0</v>
       </c>
-      <c r="G33" s="130">
-        <f>G32*C32</f>
+      <c r="G34" s="89">
+        <f>G33*C33</f>
         <v>0</v>
       </c>
-      <c r="H33" s="130">
-        <f>H32*C32</f>
+      <c r="H34" s="89">
+        <f>H33*C33</f>
         <v>0</v>
       </c>
-      <c r="I33" s="130">
-        <f>I32*C32</f>
+      <c r="I34" s="89">
+        <f>I33*C33</f>
         <v>0</v>
       </c>
-      <c r="J33" s="130">
-        <f>J32*C32</f>
+      <c r="J34" s="89">
+        <f>J33*C33</f>
         <v>0</v>
       </c>
-      <c r="K33" s="130">
-        <f>K32*C32</f>
+      <c r="K34" s="89">
+        <f>K33*C33</f>
         <v>0</v>
       </c>
-      <c r="L33" s="130">
-        <f>L32*C32</f>
+      <c r="L34" s="89">
+        <f>L33*C33</f>
         <v>0</v>
       </c>
-      <c r="M33" s="130">
-        <f>M32*C32</f>
+      <c r="M34" s="89">
+        <f>M33*C33</f>
         <v>20000</v>
       </c>
-      <c r="N33" s="130">
-        <f>N32*C32</f>
+      <c r="N34" s="89">
+        <f>N33*C33</f>
         <v>20000</v>
       </c>
-      <c r="O33" s="131">
-        <f>O32*C32</f>
+      <c r="O34" s="90">
+        <f>O33*C33</f>
         <v>20000</v>
       </c>
-      <c r="P33" s="50">
-        <f>SUM(D33:O33)</f>
+      <c r="P34" s="32">
+        <f>SUM(D34:O34)</f>
         <v>60000</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B34" s="158" t="s">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B35" s="142" t="s">
         <v>64</v>
       </c>
-      <c r="C34" s="132">
-        <v>5000</v>
-      </c>
-      <c r="D34" s="133"/>
-      <c r="E34" s="134"/>
-      <c r="F34" s="134">
+      <c r="C35" s="161">
+        <v>5000</v>
+      </c>
+      <c r="D35" s="91"/>
+      <c r="E35" s="92"/>
+      <c r="F35" s="92">
         <v>1</v>
       </c>
-      <c r="G34" s="134">
+      <c r="G35" s="92">
         <v>1</v>
       </c>
-      <c r="H34" s="134">
+      <c r="H35" s="92">
         <v>1</v>
       </c>
-      <c r="I34" s="134">
+      <c r="I35" s="92">
         <v>1</v>
       </c>
-      <c r="J34" s="134">
+      <c r="J35" s="92">
         <v>1</v>
       </c>
-      <c r="K34" s="134">
+      <c r="K35" s="92">
         <v>1</v>
       </c>
-      <c r="L34" s="134">
+      <c r="L35" s="92">
         <v>1</v>
       </c>
-      <c r="M34" s="134">
+      <c r="M35" s="92">
         <v>1</v>
       </c>
-      <c r="N34" s="134">
+      <c r="N35" s="92">
         <v>1</v>
       </c>
-      <c r="O34" s="136">
+      <c r="O35" s="94">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="159"/>
-      <c r="C35" s="126"/>
-      <c r="D35" s="138">
-        <f>D34*C34</f>
+    <row r="36" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="143"/>
+      <c r="C36" s="159"/>
+      <c r="D36" s="96">
+        <f>D35*C35</f>
         <v>0</v>
       </c>
-      <c r="E35" s="139">
-        <f>E34*C34</f>
+      <c r="E36" s="97">
+        <f>E35*C35</f>
         <v>0</v>
       </c>
-      <c r="F35" s="139">
-        <f>F34*C34</f>
-        <v>5000</v>
-      </c>
-      <c r="G35" s="139">
-        <f>G34*C34</f>
-        <v>5000</v>
-      </c>
-      <c r="H35" s="139">
-        <f>H34*C34</f>
-        <v>5000</v>
-      </c>
-      <c r="I35" s="139">
-        <f>I34*C34</f>
-        <v>5000</v>
-      </c>
-      <c r="J35" s="139">
-        <f>J34*C34</f>
-        <v>5000</v>
-      </c>
-      <c r="K35" s="139">
-        <f>K34*C34</f>
-        <v>5000</v>
-      </c>
-      <c r="L35" s="139">
-        <f>L34*C34</f>
-        <v>5000</v>
-      </c>
-      <c r="M35" s="139">
-        <f>M34*C34</f>
-        <v>5000</v>
-      </c>
-      <c r="N35" s="139">
-        <f>N34*C34</f>
-        <v>5000</v>
-      </c>
-      <c r="O35" s="140">
-        <f>O34*C34</f>
-        <v>5000</v>
-      </c>
-      <c r="P35" s="50">
-        <f>SUM(D35:O35)</f>
+      <c r="F36" s="97">
+        <f>F35*C35</f>
+        <v>5000</v>
+      </c>
+      <c r="G36" s="97">
+        <f>G35*C35</f>
+        <v>5000</v>
+      </c>
+      <c r="H36" s="97">
+        <f>H35*C35</f>
+        <v>5000</v>
+      </c>
+      <c r="I36" s="97">
+        <f>I35*C35</f>
+        <v>5000</v>
+      </c>
+      <c r="J36" s="97">
+        <f>J35*C35</f>
+        <v>5000</v>
+      </c>
+      <c r="K36" s="97">
+        <f>K35*C35</f>
+        <v>5000</v>
+      </c>
+      <c r="L36" s="97">
+        <f>L35*C35</f>
+        <v>5000</v>
+      </c>
+      <c r="M36" s="97">
+        <f>M35*C35</f>
+        <v>5000</v>
+      </c>
+      <c r="N36" s="97">
+        <f>N35*C35</f>
+        <v>5000</v>
+      </c>
+      <c r="O36" s="98">
+        <f>O35*C35</f>
+        <v>5000</v>
+      </c>
+      <c r="P36" s="32">
+        <f>SUM(D36:O36)</f>
         <v>50000</v>
       </c>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B36" s="164" t="s">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B37" s="113" t="s">
         <v>57</v>
       </c>
-      <c r="C36" s="141"/>
-      <c r="D36" s="142"/>
-      <c r="E36" s="142"/>
-      <c r="F36" s="142"/>
-      <c r="G36" s="142"/>
-      <c r="H36" s="142">
+      <c r="C37" s="99"/>
+      <c r="D37" s="100"/>
+      <c r="E37" s="100"/>
+      <c r="F37" s="100"/>
+      <c r="G37" s="100"/>
+      <c r="H37" s="100">
         <v>10000</v>
       </c>
-      <c r="I36" s="142">
+      <c r="I37" s="100">
         <v>10000</v>
       </c>
-      <c r="J36" s="142">
+      <c r="J37" s="100">
         <v>10000</v>
       </c>
-      <c r="K36" s="142">
+      <c r="K37" s="100">
         <v>10000</v>
       </c>
-      <c r="L36" s="142">
+      <c r="L37" s="100">
         <v>10000</v>
       </c>
-      <c r="M36" s="142">
+      <c r="M37" s="100">
         <v>20000</v>
       </c>
-      <c r="N36" s="142">
+      <c r="N37" s="100">
         <v>20000</v>
       </c>
-      <c r="O36" s="141">
+      <c r="O37" s="99">
         <v>20000</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B37" s="165" t="s">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B38" s="114" t="s">
         <v>58</v>
       </c>
-      <c r="C37" s="143"/>
-      <c r="D37" s="144"/>
-      <c r="E37" s="145"/>
-      <c r="F37" s="145">
+      <c r="C38" s="101"/>
+      <c r="D38" s="102"/>
+      <c r="E38" s="103"/>
+      <c r="F38" s="103">
         <v>100000</v>
       </c>
-      <c r="G37" s="145">
+      <c r="G38" s="103">
         <v>50000</v>
       </c>
-      <c r="H37" s="145"/>
-      <c r="I37" s="145"/>
-      <c r="J37" s="145">
+      <c r="H38" s="103"/>
+      <c r="I38" s="103"/>
+      <c r="J38" s="103">
         <v>50000</v>
       </c>
-      <c r="K37" s="145"/>
-      <c r="L37" s="144"/>
-      <c r="M37" s="145">
+      <c r="K38" s="103"/>
+      <c r="L38" s="102"/>
+      <c r="M38" s="103">
         <v>200000</v>
       </c>
-      <c r="N37" s="145"/>
-      <c r="O37" s="143"/>
-      <c r="Q37" s="1" t="s">
+      <c r="N38" s="103"/>
+      <c r="O38" s="101"/>
+      <c r="Q38" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B38" s="165" t="s">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B39" s="114" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="143"/>
-      <c r="D38" s="145">
-        <v>5000</v>
-      </c>
-      <c r="E38" s="145">
-        <v>5000</v>
-      </c>
-      <c r="F38" s="145">
-        <v>5000</v>
-      </c>
-      <c r="G38" s="145">
+      <c r="C39" s="101"/>
+      <c r="D39" s="103">
+        <v>5000</v>
+      </c>
+      <c r="E39" s="103">
+        <v>5000</v>
+      </c>
+      <c r="F39" s="103">
+        <v>5000</v>
+      </c>
+      <c r="G39" s="103">
         <v>10000</v>
       </c>
-      <c r="H38" s="145">
+      <c r="H39" s="103">
         <v>10000</v>
       </c>
-      <c r="I38" s="145">
+      <c r="I39" s="103">
         <v>10000</v>
       </c>
-      <c r="J38" s="145">
+      <c r="J39" s="103">
         <v>15000</v>
       </c>
-      <c r="K38" s="145">
+      <c r="K39" s="103">
         <v>15000</v>
       </c>
-      <c r="L38" s="145">
+      <c r="L39" s="103">
         <v>15000</v>
       </c>
-      <c r="M38" s="145">
+      <c r="M39" s="103">
         <v>20000</v>
       </c>
-      <c r="N38" s="145">
+      <c r="N39" s="103">
         <v>20000</v>
       </c>
-      <c r="O38" s="143">
+      <c r="O39" s="101">
         <v>20000</v>
       </c>
     </row>
-    <row r="39" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="166"/>
-      <c r="C39" s="146"/>
-      <c r="D39" s="147">
-        <f>SUM(D36:D38)</f>
-        <v>5000</v>
-      </c>
-      <c r="E39" s="147">
-        <f>SUM(E36:E38)</f>
-        <v>5000</v>
-      </c>
-      <c r="F39" s="147">
-        <f>SUM(F36:F38)</f>
+    <row r="40" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="115"/>
+      <c r="C40" s="104"/>
+      <c r="D40" s="105">
+        <f t="shared" ref="D40:O40" si="12">SUM(D37:D39)</f>
+        <v>5000</v>
+      </c>
+      <c r="E40" s="105">
+        <f t="shared" si="12"/>
+        <v>5000</v>
+      </c>
+      <c r="F40" s="105">
+        <f t="shared" si="12"/>
         <v>105000</v>
       </c>
-      <c r="G39" s="147">
-        <f>SUM(G36:G38)</f>
+      <c r="G40" s="105">
+        <f t="shared" si="12"/>
         <v>60000</v>
       </c>
-      <c r="H39" s="147">
-        <f>SUM(H36:H38)</f>
+      <c r="H40" s="105">
+        <f t="shared" si="12"/>
         <v>20000</v>
       </c>
-      <c r="I39" s="147">
-        <f>SUM(I36:I38)</f>
+      <c r="I40" s="105">
+        <f t="shared" si="12"/>
         <v>20000</v>
       </c>
-      <c r="J39" s="147">
-        <f>SUM(J36:J38)</f>
+      <c r="J40" s="105">
+        <f t="shared" si="12"/>
         <v>75000</v>
       </c>
-      <c r="K39" s="147">
-        <f>SUM(K36:K38)</f>
+      <c r="K40" s="105">
+        <f t="shared" si="12"/>
         <v>25000</v>
       </c>
-      <c r="L39" s="147">
-        <f>SUM(L36:L38)</f>
+      <c r="L40" s="105">
+        <f t="shared" si="12"/>
         <v>25000</v>
       </c>
-      <c r="M39" s="147">
-        <f>SUM(M36:M38)</f>
+      <c r="M40" s="105">
+        <f t="shared" si="12"/>
         <v>240000</v>
       </c>
-      <c r="N39" s="147">
-        <f>SUM(N36:N38)</f>
+      <c r="N40" s="105">
+        <f t="shared" si="12"/>
         <v>40000</v>
       </c>
-      <c r="O39" s="148">
-        <f>SUM(O36:O38)</f>
+      <c r="O40" s="106">
+        <f t="shared" si="12"/>
         <v>40000</v>
       </c>
-      <c r="P39" s="50">
-        <f>SUM(D39:O39)</f>
+      <c r="P40" s="32">
+        <f>SUM(D40:O40)</f>
         <v>660000</v>
       </c>
     </row>
-    <row r="40" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="169" t="s">
+    <row r="41" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="135" t="s">
         <v>72</v>
       </c>
-      <c r="C40" s="170"/>
-      <c r="D40" s="66">
-        <f>D21+D23+D27+D29+D31+D33+D35+D39</f>
-        <v>17000</v>
-      </c>
-      <c r="E40" s="67">
-        <f t="shared" ref="E40:O40" si="9">E21+E23+E27+E29+E31+E33+E35+E39</f>
-        <v>24000</v>
-      </c>
-      <c r="F40" s="67">
-        <f t="shared" si="9"/>
-        <v>171000</v>
-      </c>
-      <c r="G40" s="67">
-        <f t="shared" si="9"/>
-        <v>134000</v>
-      </c>
-      <c r="H40" s="67">
-        <f t="shared" si="9"/>
-        <v>142000</v>
-      </c>
-      <c r="I40" s="67">
-        <f t="shared" si="9"/>
+      <c r="C41" s="136"/>
+      <c r="D41" s="44">
+        <f>D22+D24+D28+D30+D32+D34+D36+D40</f>
+        <v>21000</v>
+      </c>
+      <c r="E41" s="45">
+        <f t="shared" ref="E41:O41" si="13">E22+E24+E28+E30+E32+E34+E36+E40</f>
+        <v>32000</v>
+      </c>
+      <c r="F41" s="45">
+        <f t="shared" si="13"/>
+        <v>181000</v>
+      </c>
+      <c r="G41" s="45">
+        <f t="shared" si="13"/>
+        <v>144000</v>
+      </c>
+      <c r="H41" s="45">
+        <f t="shared" si="13"/>
+        <v>156000</v>
+      </c>
+      <c r="I41" s="45">
+        <f t="shared" si="13"/>
+        <v>167000</v>
+      </c>
+      <c r="J41" s="45">
+        <f t="shared" si="13"/>
+        <v>310000</v>
+      </c>
+      <c r="K41" s="45">
+        <f t="shared" si="13"/>
+        <v>260000</v>
+      </c>
+      <c r="L41" s="45">
+        <f t="shared" si="13"/>
+        <v>312000</v>
+      </c>
+      <c r="M41" s="45">
+        <f t="shared" si="13"/>
+        <v>578000</v>
+      </c>
+      <c r="N41" s="45">
+        <f t="shared" si="13"/>
+        <v>386000</v>
+      </c>
+      <c r="O41" s="46">
+        <f t="shared" si="13"/>
+        <v>386000</v>
+      </c>
+      <c r="P41" s="40">
+        <f>SUM(D41:O41)</f>
+        <v>2933000</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="137" t="s">
+        <v>73</v>
+      </c>
+      <c r="C42" s="138"/>
+      <c r="D42" s="52">
+        <f t="shared" ref="D42:O42" si="14">D15-D41</f>
+        <v>67000</v>
+      </c>
+      <c r="E42" s="53">
+        <f t="shared" si="14"/>
+        <v>136000</v>
+      </c>
+      <c r="F42" s="53">
+        <f t="shared" si="14"/>
+        <v>69000</v>
+      </c>
+      <c r="G42" s="53">
+        <f t="shared" si="14"/>
+        <v>95000</v>
+      </c>
+      <c r="H42" s="53">
+        <f t="shared" si="14"/>
+        <v>192000</v>
+      </c>
+      <c r="I42" s="53">
+        <f t="shared" si="14"/>
+        <v>233000</v>
+      </c>
+      <c r="J42" s="53">
+        <f t="shared" si="14"/>
+        <v>194000</v>
+      </c>
+      <c r="K42" s="53">
+        <f t="shared" si="14"/>
+        <v>220000</v>
+      </c>
+      <c r="L42" s="53">
+        <f t="shared" si="14"/>
+        <v>244000</v>
+      </c>
+      <c r="M42" s="53">
+        <f t="shared" si="14"/>
+        <v>1000</v>
+      </c>
+      <c r="N42" s="53">
+        <f t="shared" si="14"/>
+        <v>184000</v>
+      </c>
+      <c r="O42" s="54">
+        <f t="shared" si="14"/>
         <v>149000</v>
       </c>
-      <c r="J40" s="67">
-        <f t="shared" si="9"/>
-        <v>290000</v>
-      </c>
-      <c r="K40" s="67">
-        <f t="shared" si="9"/>
-        <v>240000</v>
-      </c>
-      <c r="L40" s="67">
-        <f t="shared" si="9"/>
-        <v>288000</v>
-      </c>
-      <c r="M40" s="67">
-        <f t="shared" si="9"/>
-        <v>550000</v>
-      </c>
-      <c r="N40" s="67">
-        <f t="shared" si="9"/>
-        <v>356000</v>
-      </c>
-      <c r="O40" s="68">
-        <f t="shared" si="9"/>
-        <v>356000</v>
-      </c>
-      <c r="P40" s="58">
-        <f>SUM(D40:O40)</f>
-        <v>2717000</v>
-      </c>
-    </row>
-    <row r="41" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="171" t="s">
-        <v>73</v>
-      </c>
-      <c r="C41" s="172"/>
-      <c r="D41" s="77">
-        <f>D15-D40</f>
-        <v>71000</v>
-      </c>
-      <c r="E41" s="78">
-        <f>E15-E40</f>
-        <v>144000</v>
-      </c>
-      <c r="F41" s="78">
-        <f>F15-F40</f>
-        <v>79000</v>
-      </c>
-      <c r="G41" s="78">
-        <f>G15-G40</f>
-        <v>105000</v>
-      </c>
-      <c r="H41" s="78">
-        <f>H15-H40</f>
-        <v>206000</v>
-      </c>
-      <c r="I41" s="78">
-        <f>I15-I40</f>
-        <v>251000</v>
-      </c>
-      <c r="J41" s="78">
-        <f>J15-J40</f>
-        <v>214000</v>
-      </c>
-      <c r="K41" s="78">
-        <f>K15-K40</f>
-        <v>240000</v>
-      </c>
-      <c r="L41" s="78">
-        <f>L15-L40</f>
-        <v>268000</v>
-      </c>
-      <c r="M41" s="78">
-        <f>M15-M40</f>
-        <v>29000</v>
-      </c>
-      <c r="N41" s="78">
-        <f>N15-N40</f>
-        <v>214000</v>
-      </c>
-      <c r="O41" s="79">
-        <f>O15-O40</f>
-        <v>179000</v>
-      </c>
-      <c r="P41" s="58">
-        <f>SUM(D41:O41)</f>
-        <v>2000000</v>
+      <c r="P42" s="40">
+        <f>SUM(D42:O42)</f>
+        <v>1784000</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="26">
-    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="B23:B24"/>
     <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
     <mergeCell ref="B2:O2"/>
-    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B35:B36"/>
     <mergeCell ref="D4:O4"/>
     <mergeCell ref="D17:O17"/>
     <mergeCell ref="C5:C6"/>
@@ -6170,21 +6233,11 @@
     <mergeCell ref="C12:C14"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="B15:C15"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C35:C36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6206,162 +6259,162 @@
   </cols>
   <sheetData>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="64"/>
-      <c r="B17" s="149">
+      <c r="A17" s="43"/>
+      <c r="B17" s="107">
         <f>Exact!D3</f>
         <v>42461</v>
       </c>
-      <c r="C17" s="149">
+      <c r="C17" s="107">
         <f>Exact!E3</f>
         <v>42491</v>
       </c>
-      <c r="D17" s="149">
+      <c r="D17" s="107">
         <f>Exact!F3</f>
         <v>42522</v>
       </c>
-      <c r="E17" s="149">
+      <c r="E17" s="107">
         <f>Exact!G3</f>
         <v>42552</v>
       </c>
-      <c r="F17" s="149">
+      <c r="F17" s="107">
         <f>Exact!H3</f>
         <v>42583</v>
       </c>
-      <c r="G17" s="149">
+      <c r="G17" s="107">
         <f>Exact!I3</f>
         <v>42614</v>
       </c>
-      <c r="H17" s="149">
+      <c r="H17" s="107">
         <f>Exact!J3</f>
         <v>42644</v>
       </c>
-      <c r="I17" s="149">
+      <c r="I17" s="107">
         <f>Exact!K3</f>
         <v>42675</v>
       </c>
-      <c r="J17" s="149">
+      <c r="J17" s="107">
         <f>Exact!L3</f>
         <v>42705</v>
       </c>
-      <c r="K17" s="149">
+      <c r="K17" s="107">
         <f>Exact!M3</f>
         <v>42736</v>
       </c>
-      <c r="L17" s="149">
+      <c r="L17" s="107">
         <f>Exact!N3</f>
         <v>42767</v>
       </c>
-      <c r="M17" s="149">
+      <c r="M17" s="107">
         <f>Exact!O3</f>
         <v>42795</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="150" t="s">
+      <c r="A18" s="108" t="s">
         <v>74</v>
       </c>
-      <c r="B18" s="63">
-        <f>Exact!D41</f>
-        <v>71000</v>
-      </c>
-      <c r="C18" s="63">
-        <f>Exact!E41</f>
+      <c r="B18" s="42">
+        <f>Exact!D42</f>
+        <v>67000</v>
+      </c>
+      <c r="C18" s="42">
+        <f>Exact!E42</f>
+        <v>136000</v>
+      </c>
+      <c r="D18" s="42">
+        <f>Exact!F42</f>
+        <v>69000</v>
+      </c>
+      <c r="E18" s="42">
+        <f>Exact!G42</f>
+        <v>95000</v>
+      </c>
+      <c r="F18" s="42">
+        <f>Exact!H42</f>
+        <v>192000</v>
+      </c>
+      <c r="G18" s="42">
+        <f>Exact!I42</f>
+        <v>233000</v>
+      </c>
+      <c r="H18" s="42">
+        <f>Exact!J42</f>
+        <v>194000</v>
+      </c>
+      <c r="I18" s="42">
+        <f>Exact!K42</f>
+        <v>220000</v>
+      </c>
+      <c r="J18" s="42">
+        <f>Exact!L42</f>
+        <v>244000</v>
+      </c>
+      <c r="K18" s="42">
+        <f>Exact!M42</f>
+        <v>1000</v>
+      </c>
+      <c r="L18" s="42">
+        <f>Exact!N42</f>
+        <v>184000</v>
+      </c>
+      <c r="M18" s="42">
+        <f>Exact!O42</f>
+        <v>149000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="108" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="42">
+        <f>B18*(1-N19)</f>
+        <v>50250</v>
+      </c>
+      <c r="C19" s="42">
+        <f>C18*(1-N19)</f>
+        <v>102000</v>
+      </c>
+      <c r="D19" s="42">
+        <f>D18*(1-N19)</f>
+        <v>51750</v>
+      </c>
+      <c r="E19" s="42">
+        <f>E18*(1-N19)</f>
+        <v>71250</v>
+      </c>
+      <c r="F19" s="42">
+        <f>F18*(1-N19)</f>
         <v>144000</v>
       </c>
-      <c r="D18" s="63">
-        <f>Exact!F41</f>
-        <v>79000</v>
-      </c>
-      <c r="E18" s="63">
-        <f>Exact!G41</f>
-        <v>105000</v>
-      </c>
-      <c r="F18" s="63">
-        <f>Exact!H41</f>
-        <v>206000</v>
-      </c>
-      <c r="G18" s="63">
-        <f>Exact!I41</f>
-        <v>251000</v>
-      </c>
-      <c r="H18" s="63">
-        <f>Exact!J41</f>
-        <v>214000</v>
-      </c>
-      <c r="I18" s="63">
-        <f>Exact!K41</f>
-        <v>240000</v>
-      </c>
-      <c r="J18" s="63">
-        <f>Exact!L41</f>
-        <v>268000</v>
-      </c>
-      <c r="K18" s="63">
-        <f>Exact!M41</f>
-        <v>29000</v>
-      </c>
-      <c r="L18" s="63">
-        <f>Exact!N41</f>
-        <v>214000</v>
-      </c>
-      <c r="M18" s="63">
-        <f>Exact!O41</f>
-        <v>179000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="150" t="s">
-        <v>75</v>
-      </c>
-      <c r="B19" s="63">
-        <f>B18*(1-N19)</f>
-        <v>53250</v>
-      </c>
-      <c r="C19" s="63">
-        <f>C18*(1-N19)</f>
-        <v>108000</v>
-      </c>
-      <c r="D19" s="63">
-        <f>D18*(1-N19)</f>
-        <v>59250</v>
-      </c>
-      <c r="E19" s="63">
-        <f>E18*(1-N19)</f>
-        <v>78750</v>
-      </c>
-      <c r="F19" s="63">
-        <f>F18*(1-N19)</f>
-        <v>154500</v>
-      </c>
-      <c r="G19" s="63">
+      <c r="G19" s="42">
         <f>G18*(1-N19)</f>
-        <v>188250</v>
-      </c>
-      <c r="H19" s="63">
+        <v>174750</v>
+      </c>
+      <c r="H19" s="42">
         <f>H18*(1-N19)</f>
-        <v>160500</v>
-      </c>
-      <c r="I19" s="63">
+        <v>145500</v>
+      </c>
+      <c r="I19" s="42">
         <f>I18*(1-N19)</f>
-        <v>180000</v>
-      </c>
-      <c r="J19" s="63">
+        <v>165000</v>
+      </c>
+      <c r="J19" s="42">
         <f>J18*(1-N19)</f>
-        <v>201000</v>
-      </c>
-      <c r="K19" s="63">
+        <v>183000</v>
+      </c>
+      <c r="K19" s="42">
         <f>K18*(1-N19)</f>
-        <v>21750</v>
-      </c>
-      <c r="L19" s="63">
+        <v>750</v>
+      </c>
+      <c r="L19" s="42">
         <f>L18*(1-N19)</f>
-        <v>160500</v>
-      </c>
-      <c r="M19" s="63">
+        <v>138000</v>
+      </c>
+      <c r="M19" s="42">
         <f>M18*(1-N19)</f>
-        <v>134250</v>
-      </c>
-      <c r="N19" s="173">
+        <v>111750</v>
+      </c>
+      <c r="N19" s="116">
         <v>0.25</v>
       </c>
     </row>
@@ -6387,165 +6440,165 @@
   </cols>
   <sheetData>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="64"/>
-      <c r="B18" s="149">
+      <c r="A18" s="43"/>
+      <c r="B18" s="107">
         <f>Exact!D3</f>
         <v>42461</v>
       </c>
-      <c r="C18" s="149">
+      <c r="C18" s="107">
         <f>Exact!E3</f>
         <v>42491</v>
       </c>
-      <c r="D18" s="149">
+      <c r="D18" s="107">
         <f>Exact!F3</f>
         <v>42522</v>
       </c>
-      <c r="E18" s="149">
+      <c r="E18" s="107">
         <f>Exact!G3</f>
         <v>42552</v>
       </c>
-      <c r="F18" s="149">
+      <c r="F18" s="107">
         <f>Exact!H3</f>
         <v>42583</v>
       </c>
-      <c r="G18" s="149">
+      <c r="G18" s="107">
         <f>Exact!I3</f>
         <v>42614</v>
       </c>
-      <c r="H18" s="149">
+      <c r="H18" s="107">
         <f>Exact!J3</f>
         <v>42644</v>
       </c>
-      <c r="I18" s="149">
+      <c r="I18" s="107">
         <f>Exact!K3</f>
         <v>42675</v>
       </c>
-      <c r="J18" s="149">
+      <c r="J18" s="107">
         <f>Exact!L3</f>
         <v>42705</v>
       </c>
-      <c r="K18" s="149">
+      <c r="K18" s="107">
         <f>Exact!M3</f>
         <v>42736</v>
       </c>
-      <c r="L18" s="149">
+      <c r="L18" s="107">
         <f>Exact!N3</f>
         <v>42767</v>
       </c>
-      <c r="M18" s="149">
+      <c r="M18" s="107">
         <f>Exact!O3</f>
         <v>42795</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="150" t="s">
+      <c r="A19" s="108" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="63">
+      <c r="B19" s="42">
         <f>Exact!D15</f>
         <v>88000</v>
       </c>
-      <c r="C19" s="63">
+      <c r="C19" s="42">
         <f>Exact!E15</f>
         <v>168000</v>
       </c>
-      <c r="D19" s="63">
+      <c r="D19" s="42">
         <f>Exact!F15</f>
         <v>250000</v>
       </c>
-      <c r="E19" s="63">
+      <c r="E19" s="42">
         <f>Exact!G15</f>
         <v>239000</v>
       </c>
-      <c r="F19" s="63">
+      <c r="F19" s="42">
         <f>Exact!H15</f>
         <v>348000</v>
       </c>
-      <c r="G19" s="63">
+      <c r="G19" s="42">
         <f>Exact!I15</f>
         <v>400000</v>
       </c>
-      <c r="H19" s="63">
+      <c r="H19" s="42">
         <f>Exact!J15</f>
         <v>504000</v>
       </c>
-      <c r="I19" s="63">
+      <c r="I19" s="42">
         <f>Exact!K15</f>
         <v>480000</v>
       </c>
-      <c r="J19" s="63">
+      <c r="J19" s="42">
         <f>Exact!L15</f>
         <v>556000</v>
       </c>
-      <c r="K19" s="63">
+      <c r="K19" s="42">
         <f>Exact!M15</f>
         <v>579000</v>
       </c>
-      <c r="L19" s="63">
+      <c r="L19" s="42">
         <f>Exact!N15</f>
         <v>570000</v>
       </c>
-      <c r="M19" s="63">
+      <c r="M19" s="42">
         <f>Exact!O15</f>
         <v>535000</v>
       </c>
-      <c r="N19" s="50"/>
-      <c r="O19" s="50"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="32"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="150" t="s">
+      <c r="A20" s="108" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="63">
-        <f>Exact!D40</f>
-        <v>17000</v>
-      </c>
-      <c r="C20" s="63">
-        <f>Exact!E40</f>
-        <v>24000</v>
-      </c>
-      <c r="D20" s="63">
-        <f>Exact!F40</f>
-        <v>171000</v>
-      </c>
-      <c r="E20" s="63">
-        <f>Exact!G40</f>
-        <v>134000</v>
-      </c>
-      <c r="F20" s="63">
-        <f>Exact!H40</f>
-        <v>142000</v>
-      </c>
-      <c r="G20" s="63">
-        <f>Exact!I40</f>
-        <v>149000</v>
-      </c>
-      <c r="H20" s="63">
-        <f>Exact!J40</f>
-        <v>290000</v>
-      </c>
-      <c r="I20" s="63">
-        <f>Exact!K40</f>
-        <v>240000</v>
-      </c>
-      <c r="J20" s="63">
-        <f>Exact!L40</f>
-        <v>288000</v>
-      </c>
-      <c r="K20" s="63">
-        <f>Exact!M40</f>
-        <v>550000</v>
-      </c>
-      <c r="L20" s="63">
-        <f>Exact!N40</f>
-        <v>356000</v>
-      </c>
-      <c r="M20" s="63">
-        <f>Exact!O40</f>
-        <v>356000</v>
-      </c>
-      <c r="N20" s="50"/>
-      <c r="O20" s="50"/>
+      <c r="B20" s="42">
+        <f>Exact!D41</f>
+        <v>21000</v>
+      </c>
+      <c r="C20" s="42">
+        <f>Exact!E41</f>
+        <v>32000</v>
+      </c>
+      <c r="D20" s="42">
+        <f>Exact!F41</f>
+        <v>181000</v>
+      </c>
+      <c r="E20" s="42">
+        <f>Exact!G41</f>
+        <v>144000</v>
+      </c>
+      <c r="F20" s="42">
+        <f>Exact!H41</f>
+        <v>156000</v>
+      </c>
+      <c r="G20" s="42">
+        <f>Exact!I41</f>
+        <v>167000</v>
+      </c>
+      <c r="H20" s="42">
+        <f>Exact!J41</f>
+        <v>310000</v>
+      </c>
+      <c r="I20" s="42">
+        <f>Exact!K41</f>
+        <v>260000</v>
+      </c>
+      <c r="J20" s="42">
+        <f>Exact!L41</f>
+        <v>312000</v>
+      </c>
+      <c r="K20" s="42">
+        <f>Exact!M41</f>
+        <v>578000</v>
+      </c>
+      <c r="L20" s="42">
+        <f>Exact!N41</f>
+        <v>386000</v>
+      </c>
+      <c r="M20" s="42">
+        <f>Exact!O41</f>
+        <v>386000</v>
+      </c>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -6571,285 +6624,285 @@
   </cols>
   <sheetData>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="64"/>
-      <c r="B19" s="91">
+      <c r="A19" s="43"/>
+      <c r="B19" s="60">
         <f>Exact!D3</f>
         <v>42461</v>
       </c>
-      <c r="C19" s="91">
+      <c r="C19" s="60">
         <f>Exact!E3</f>
         <v>42491</v>
       </c>
-      <c r="D19" s="91">
+      <c r="D19" s="60">
         <f>Exact!F3</f>
         <v>42522</v>
       </c>
-      <c r="E19" s="91">
+      <c r="E19" s="60">
         <f>Exact!G3</f>
         <v>42552</v>
       </c>
-      <c r="F19" s="91">
+      <c r="F19" s="60">
         <f>Exact!H3</f>
         <v>42583</v>
       </c>
-      <c r="G19" s="91">
+      <c r="G19" s="60">
         <f>Exact!I3</f>
         <v>42614</v>
       </c>
-      <c r="H19" s="91">
+      <c r="H19" s="60">
         <f>Exact!J3</f>
         <v>42644</v>
       </c>
-      <c r="I19" s="91">
+      <c r="I19" s="60">
         <f>Exact!K3</f>
         <v>42675</v>
       </c>
-      <c r="J19" s="91">
+      <c r="J19" s="60">
         <f>Exact!L3</f>
         <v>42705</v>
       </c>
-      <c r="K19" s="91">
+      <c r="K19" s="60">
         <f>Exact!M3</f>
         <v>42736</v>
       </c>
-      <c r="L19" s="91">
+      <c r="L19" s="60">
         <f>Exact!N3</f>
         <v>42767</v>
       </c>
-      <c r="M19" s="91">
+      <c r="M19" s="60">
         <f>Exact!O3</f>
         <v>42795</v>
       </c>
     </row>
     <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="64" t="s">
+      <c r="A20" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="63">
+      <c r="B20" s="42">
         <f>Exact!D15</f>
         <v>88000</v>
       </c>
-      <c r="C20" s="63">
+      <c r="C20" s="42">
         <f>Exact!E15</f>
         <v>168000</v>
       </c>
-      <c r="D20" s="63">
+      <c r="D20" s="42">
         <f>Exact!F15</f>
         <v>250000</v>
       </c>
-      <c r="E20" s="63">
+      <c r="E20" s="42">
         <f>Exact!G15</f>
         <v>239000</v>
       </c>
-      <c r="F20" s="63">
+      <c r="F20" s="42">
         <f>Exact!H15</f>
         <v>348000</v>
       </c>
-      <c r="G20" s="63">
+      <c r="G20" s="42">
         <f>Exact!I15</f>
         <v>400000</v>
       </c>
-      <c r="H20" s="63">
+      <c r="H20" s="42">
         <f>Exact!J15</f>
         <v>504000</v>
       </c>
-      <c r="I20" s="63">
+      <c r="I20" s="42">
         <f>Exact!K15</f>
         <v>480000</v>
       </c>
-      <c r="J20" s="63">
+      <c r="J20" s="42">
         <f>Exact!L15</f>
         <v>556000</v>
       </c>
-      <c r="K20" s="63">
+      <c r="K20" s="42">
         <f>Exact!M15</f>
         <v>579000</v>
       </c>
-      <c r="L20" s="63">
+      <c r="L20" s="42">
         <f>Exact!N15</f>
         <v>570000</v>
       </c>
-      <c r="M20" s="63">
+      <c r="M20" s="42">
         <f>Exact!O15</f>
         <v>535000</v>
       </c>
-      <c r="N20" s="50"/>
-      <c r="O20" s="50"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
     </row>
     <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="64" t="s">
+      <c r="A21" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="63">
-        <f>Exact!D40</f>
-        <v>17000</v>
-      </c>
-      <c r="C21" s="63">
-        <f>Exact!E40</f>
-        <v>24000</v>
-      </c>
-      <c r="D21" s="63">
-        <f>Exact!F40</f>
-        <v>171000</v>
-      </c>
-      <c r="E21" s="63">
-        <f>Exact!G40</f>
-        <v>134000</v>
-      </c>
-      <c r="F21" s="63">
-        <f>Exact!H40</f>
-        <v>142000</v>
-      </c>
-      <c r="G21" s="63">
-        <f>Exact!I40</f>
-        <v>149000</v>
-      </c>
-      <c r="H21" s="63">
-        <f>Exact!J40</f>
-        <v>290000</v>
-      </c>
-      <c r="I21" s="63">
-        <f>Exact!K40</f>
-        <v>240000</v>
-      </c>
-      <c r="J21" s="63">
-        <f>Exact!L40</f>
-        <v>288000</v>
-      </c>
-      <c r="K21" s="63">
-        <f>Exact!M40</f>
-        <v>550000</v>
-      </c>
-      <c r="L21" s="63">
-        <f>Exact!N40</f>
-        <v>356000</v>
-      </c>
-      <c r="M21" s="63">
-        <f>Exact!O40</f>
-        <v>356000</v>
-      </c>
-      <c r="N21" s="50"/>
-      <c r="O21" s="50"/>
+      <c r="B21" s="42">
+        <f>Exact!D41</f>
+        <v>21000</v>
+      </c>
+      <c r="C21" s="42">
+        <f>Exact!E41</f>
+        <v>32000</v>
+      </c>
+      <c r="D21" s="42">
+        <f>Exact!F41</f>
+        <v>181000</v>
+      </c>
+      <c r="E21" s="42">
+        <f>Exact!G41</f>
+        <v>144000</v>
+      </c>
+      <c r="F21" s="42">
+        <f>Exact!H41</f>
+        <v>156000</v>
+      </c>
+      <c r="G21" s="42">
+        <f>Exact!I41</f>
+        <v>167000</v>
+      </c>
+      <c r="H21" s="42">
+        <f>Exact!J41</f>
+        <v>310000</v>
+      </c>
+      <c r="I21" s="42">
+        <f>Exact!K41</f>
+        <v>260000</v>
+      </c>
+      <c r="J21" s="42">
+        <f>Exact!L41</f>
+        <v>312000</v>
+      </c>
+      <c r="K21" s="42">
+        <f>Exact!M41</f>
+        <v>578000</v>
+      </c>
+      <c r="L21" s="42">
+        <f>Exact!N41</f>
+        <v>386000</v>
+      </c>
+      <c r="M21" s="42">
+        <f>Exact!O41</f>
+        <v>386000</v>
+      </c>
+      <c r="N21" s="32"/>
+      <c r="O21" s="32"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="92" t="s">
+      <c r="A22" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="90">
+      <c r="B22" s="59">
         <f>SUM($B$20:B20)</f>
         <v>88000</v>
       </c>
-      <c r="C22" s="90">
+      <c r="C22" s="59">
         <f>SUM($B$20:C20)</f>
         <v>256000</v>
       </c>
-      <c r="D22" s="90">
+      <c r="D22" s="59">
         <f>SUM($B$20:D20)</f>
         <v>506000</v>
       </c>
-      <c r="E22" s="90">
+      <c r="E22" s="59">
         <f>SUM($B$20:E20)</f>
         <v>745000</v>
       </c>
-      <c r="F22" s="90">
+      <c r="F22" s="59">
         <f>SUM($B$20:F20)</f>
         <v>1093000</v>
       </c>
-      <c r="G22" s="90">
+      <c r="G22" s="59">
         <f>SUM($B$20:G20)</f>
         <v>1493000</v>
       </c>
-      <c r="H22" s="90">
+      <c r="H22" s="59">
         <f>SUM($B$20:H20)</f>
         <v>1997000</v>
       </c>
-      <c r="I22" s="90">
+      <c r="I22" s="59">
         <f>SUM($B$20:I20)</f>
         <v>2477000</v>
       </c>
-      <c r="J22" s="90">
+      <c r="J22" s="59">
         <f>SUM($B$20:J20)</f>
         <v>3033000</v>
       </c>
-      <c r="K22" s="90">
+      <c r="K22" s="59">
         <f>SUM($B$20:K20)</f>
         <v>3612000</v>
       </c>
-      <c r="L22" s="90">
+      <c r="L22" s="59">
         <f>SUM($B$20:L20)</f>
         <v>4182000</v>
       </c>
-      <c r="M22" s="90">
+      <c r="M22" s="59">
         <f>SUM($B$20:M20)</f>
         <v>4717000</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="92" t="s">
+      <c r="A23" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="90">
+      <c r="B23" s="59">
         <f>SUM($B$21:B21)</f>
-        <v>17000</v>
-      </c>
-      <c r="C23" s="90">
+        <v>21000</v>
+      </c>
+      <c r="C23" s="59">
         <f>SUM($B$21:C21)</f>
-        <v>41000</v>
-      </c>
-      <c r="D23" s="90">
+        <v>53000</v>
+      </c>
+      <c r="D23" s="59">
         <f>SUM($B$21:D21)</f>
-        <v>212000</v>
-      </c>
-      <c r="E23" s="90">
+        <v>234000</v>
+      </c>
+      <c r="E23" s="59">
         <f>SUM($B$21:E21)</f>
-        <v>346000</v>
-      </c>
-      <c r="F23" s="90">
+        <v>378000</v>
+      </c>
+      <c r="F23" s="59">
         <f>SUM($B$21:F21)</f>
-        <v>488000</v>
-      </c>
-      <c r="G23" s="90">
+        <v>534000</v>
+      </c>
+      <c r="G23" s="59">
         <f>SUM($B$21:G21)</f>
-        <v>637000</v>
-      </c>
-      <c r="H23" s="90">
+        <v>701000</v>
+      </c>
+      <c r="H23" s="59">
         <f>SUM($B$21:H21)</f>
-        <v>927000</v>
-      </c>
-      <c r="I23" s="90">
+        <v>1011000</v>
+      </c>
+      <c r="I23" s="59">
         <f>SUM($B$21:I21)</f>
-        <v>1167000</v>
-      </c>
-      <c r="J23" s="90">
+        <v>1271000</v>
+      </c>
+      <c r="J23" s="59">
         <f>SUM($B$21:J21)</f>
-        <v>1455000</v>
-      </c>
-      <c r="K23" s="90">
+        <v>1583000</v>
+      </c>
+      <c r="K23" s="59">
         <f>SUM($B$21:K21)</f>
-        <v>2005000</v>
-      </c>
-      <c r="L23" s="90">
+        <v>2161000</v>
+      </c>
+      <c r="L23" s="59">
         <f>SUM($B$21:L21)</f>
-        <v>2361000</v>
-      </c>
-      <c r="M23" s="90">
+        <v>2547000</v>
+      </c>
+      <c r="M23" s="59">
         <f>SUM($B$21:M21)</f>
-        <v>2717000</v>
+        <v>2933000</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="50"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="50"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="32"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
